--- a/EC/Train Runs and Enforcements 2016-05-22.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-22.xlsx
@@ -10,6 +10,7 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -20,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enforcements!$A$2:$N$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$2:$AA$133</definedName>
-    <definedName name="Denver_Train_Runs_04122016" localSheetId="0">'Train Runs'!$A$2:$J$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$2:$AA$134</definedName>
+    <definedName name="Denver_Train_Runs_04122016" localSheetId="0">'Train Runs'!$A$2:$J$139</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="558">
   <si>
     <t>Train ID</t>
   </si>
@@ -1707,6 +1708,27 @@
   </si>
   <si>
     <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/e73d5bbd-1097-4106-ad3d-a6514a295b4e.kml</t>
+  </si>
+  <si>
+    <t>105-22</t>
+  </si>
+  <si>
+    <t>106-22</t>
+  </si>
+  <si>
+    <t>128-22</t>
+  </si>
+  <si>
+    <t>163-22</t>
+  </si>
+  <si>
+    <t>173-22</t>
+  </si>
+  <si>
+    <t>174-22</t>
+  </si>
+  <si>
+    <t>Offered, not chosen</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2254,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -2247,6 +2269,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2595,10 +2638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK150"/>
+  <dimension ref="A1:CK151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N124" sqref="N124"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +2968,7 @@
         <v>3.8344907407008577E-2</v>
       </c>
       <c r="N4" s="13">
-        <f t="shared" ref="N4:P73" si="5">24*60*SUM($M4:$M4)</f>
+        <f t="shared" ref="N4:P74" si="5">24*60*SUM($M4:$M4)</f>
         <v>55.216666666092351</v>
       </c>
       <c r="O4" s="13"/>
@@ -2994,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="61" t="str">
-        <f t="shared" ref="K5:K68" si="9">IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
+        <f t="shared" ref="K5:K69" si="9">IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L5" s="61" t="str">
@@ -3002,7 +3048,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" ref="M5:M68" si="10">I5-F5</f>
+        <f t="shared" ref="M5:M69" si="10">I5-F5</f>
         <v>2.9756944444670808E-2</v>
       </c>
       <c r="N5" s="13">
@@ -3014,27 +3060,27 @@
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
       <c r="T5" s="74" t="str">
-        <f t="shared" ref="T5:T68" si="11">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T5:T69" si="11">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 03:37:13-0600',mode:absolute,to:'2016-05-22 04:24:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U5" s="74" t="str">
-        <f t="shared" ref="U5:U68" si="12">IF(Y5&lt;23,"Y","N")</f>
+        <f t="shared" ref="U5:U69" si="12">IF(Y5&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V5" s="74">
-        <f t="shared" ref="V5:V68" si="13">VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
+        <f t="shared" ref="V5:V67" si="13">VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
         <v>1</v>
       </c>
       <c r="W5" s="74">
-        <f t="shared" ref="W5:W68" si="14">RIGHT(D5,LEN(D5)-4)/10000</f>
+        <f t="shared" ref="W5:W69" si="14">RIGHT(D5,LEN(D5)-4)/10000</f>
         <v>7.6100000000000001E-2</v>
       </c>
       <c r="X5" s="74">
-        <f t="shared" ref="X5:X68" si="15">RIGHT(H5,LEN(H5)-4)/10000</f>
+        <f t="shared" ref="X5:X69" si="15">RIGHT(H5,LEN(H5)-4)/10000</f>
         <v>23.326799999999999</v>
       </c>
       <c r="Y5" s="74">
-        <f t="shared" ref="Y5:Y68" si="16">ABS(X5-W5)</f>
+        <f t="shared" ref="Y5:Y69" si="16">ABS(X5-W5)</f>
         <v>23.250699999999998</v>
       </c>
       <c r="Z5" s="75">
@@ -8275,121 +8321,90 @@
     </row>
     <row r="68" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
-        <v>355</v>
+        <v>533</v>
       </c>
       <c r="B68" s="61">
-        <v>4018</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="30">
-        <v>42512.516724537039</v>
-      </c>
+        <v>4019</v>
+      </c>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="30">
-        <v>42512.517893518518</v>
-      </c>
-      <c r="G68" s="38">
-        <v>1</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>98</v>
-      </c>
+        <v>42512.55296296296</v>
+      </c>
+      <c r="G68" s="38"/>
+      <c r="H68" s="30"/>
       <c r="I68" s="30">
-        <v>42512.549131944441</v>
+        <v>42512.583472222221</v>
       </c>
       <c r="J68" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="61" t="str">
         <f t="shared" si="9"/>
-        <v>4017/4018</v>
+        <v>4019/4020</v>
       </c>
       <c r="L68" s="61" t="str">
         <f>VLOOKUP(A68,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YORK</v>
+        <v>STEWART</v>
       </c>
       <c r="M68" s="12">
         <f t="shared" si="10"/>
-        <v>3.1238425923220348E-2</v>
+        <v>3.050925926072523E-2</v>
       </c>
       <c r="N68" s="13">
         <f t="shared" si="5"/>
-        <v>44.983333329437301</v>
+        <v>43.933333335444331</v>
       </c>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
-      <c r="T68" s="74" t="str">
+      <c r="T68" s="74" t="e">
         <f t="shared" si="11"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:23:05-0600',mode:absolute,to:'2016-05-22 13:11:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U68" s="74" t="str">
-        <f t="shared" si="12"/>
-        <v>N</v>
-      </c>
-      <c r="V68" s="74">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="W68" s="74">
-        <f t="shared" si="14"/>
-        <v>4.53E-2</v>
-      </c>
-      <c r="X68" s="74">
-        <f t="shared" si="15"/>
-        <v>23.331499999999998</v>
-      </c>
-      <c r="Y68" s="74">
-        <f t="shared" si="16"/>
-        <v>23.286199999999997</v>
-      </c>
-      <c r="Z68" s="75">
-        <f>VLOOKUP(A68,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AA68" s="75" t="str">
-        <f>VLOOKUP(A68,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
-      </c>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U68" s="74"/>
+      <c r="V68" s="74"/>
+      <c r="W68" s="74"/>
+      <c r="X68" s="74"/>
+      <c r="Y68" s="74"/>
+      <c r="Z68" s="75"/>
+      <c r="AA68" s="75"/>
     </row>
     <row r="69" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="B69" s="61">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C69" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="E69" s="30">
-        <v>42512.554189814815</v>
+        <v>42512.516724537039</v>
       </c>
       <c r="F69" s="30">
-        <v>42512.55541666667</v>
+        <v>42512.517893518518</v>
       </c>
       <c r="G69" s="38">
         <v>1</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I69" s="30">
-        <v>42512.589930555558</v>
+        <v>42512.549131944441</v>
       </c>
       <c r="J69" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="61" t="str">
-        <f t="shared" ref="K69:K130" si="17">IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
+        <f t="shared" si="9"/>
         <v>4017/4018</v>
       </c>
       <c r="L69" s="61" t="str">
@@ -8397,164 +8412,164 @@
         <v>YORK</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" ref="M69:M130" si="18">I69-F69</f>
-        <v>3.4513888887886424E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.1238425923220348E-2</v>
       </c>
       <c r="N69" s="13">
         <f t="shared" si="5"/>
-        <v>49.69999999855645</v>
+        <v>44.983333329437301</v>
       </c>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
       <c r="T69" s="74" t="str">
-        <f t="shared" ref="T69:T130" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:17:02-0600',mode:absolute,to:'2016-05-22 14:10:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="11"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:23:05-0600',mode:absolute,to:'2016-05-22 13:11:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="74" t="str">
-        <f t="shared" ref="U69:U130" si="20">IF(Y69&lt;23,"Y","N")</f>
+        <f t="shared" si="12"/>
         <v>N</v>
       </c>
       <c r="V69" s="74">
-        <f t="shared" ref="V69:V130" si="21">VALUE(LEFT(A69,3))-VALUE(LEFT(A68,3))</f>
-        <v>1</v>
+        <f>VALUE(LEFT(A69,3))-VALUE(LEFT(A67,3))</f>
+        <v>2</v>
       </c>
       <c r="W69" s="74">
-        <f t="shared" ref="W69:W130" si="22">RIGHT(D69,LEN(D69)-4)/10000</f>
-        <v>23.2987</v>
+        <f t="shared" si="14"/>
+        <v>4.53E-2</v>
       </c>
       <c r="X69" s="74">
-        <f t="shared" ref="X69:X130" si="23">RIGHT(H69,LEN(H69)-4)/10000</f>
-        <v>1.41E-2</v>
+        <f t="shared" si="15"/>
+        <v>23.331499999999998</v>
       </c>
       <c r="Y69" s="74">
-        <f t="shared" ref="Y69:Y130" si="24">ABS(X69-W69)</f>
-        <v>23.284600000000001</v>
-      </c>
-      <c r="Z69" s="75" t="e">
+        <f t="shared" si="16"/>
+        <v>23.286199999999997</v>
+      </c>
+      <c r="Z69" s="75">
         <f>VLOOKUP(A69,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA69" s="75" t="e">
+        <v>233491</v>
+      </c>
+      <c r="AA69" s="75" t="str">
         <f>VLOOKUP(A69,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="B70" s="61">
-        <v>4011</v>
+        <v>4017</v>
       </c>
       <c r="C70" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="E70" s="30">
-        <v>42512.54109953704</v>
+        <v>42512.554189814815</v>
       </c>
       <c r="F70" s="30">
-        <v>42512.542615740742</v>
+        <v>42512.55541666667</v>
       </c>
       <c r="G70" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>454</v>
+        <v>94</v>
       </c>
       <c r="I70" s="30">
-        <v>42512.574178240742</v>
+        <v>42512.589930555558</v>
       </c>
       <c r="J70" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="61" t="str">
-        <f t="shared" si="17"/>
-        <v>4011/4012</v>
+        <f t="shared" ref="K70:K131" si="17">IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
+        <v>4017/4018</v>
       </c>
       <c r="L70" s="61" t="str">
         <f>VLOOKUP(A70,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>WEBSTER</v>
+        <v>YORK</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="18"/>
-        <v>3.1562500000291038E-2</v>
+        <f t="shared" ref="M70:M131" si="18">I70-F70</f>
+        <v>3.4513888887886424E-2</v>
       </c>
       <c r="N70" s="13">
         <f t="shared" si="5"/>
-        <v>45.450000000419095</v>
+        <v>49.69999999855645</v>
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
       <c r="T70" s="74" t="str">
-        <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:58:11-0600',mode:absolute,to:'2016-05-22 13:47:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
+        <f t="shared" ref="T70:T131" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:17:02-0600',mode:absolute,to:'2016-05-22 14:10:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="U70:U131" si="20">IF(Y70&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V70" s="74">
-        <f t="shared" si="21"/>
-        <v>3</v>
+        <f t="shared" ref="V70:V131" si="21">VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
+        <v>1</v>
       </c>
       <c r="W70" s="74">
-        <f t="shared" si="22"/>
-        <v>4.3499999999999997E-2</v>
+        <f t="shared" ref="W70:W131" si="22">RIGHT(D70,LEN(D70)-4)/10000</f>
+        <v>23.2987</v>
       </c>
       <c r="X70" s="74">
-        <f t="shared" si="23"/>
-        <v>23.33</v>
+        <f t="shared" ref="X70:X131" si="23">RIGHT(H70,LEN(H70)-4)/10000</f>
+        <v>1.41E-2</v>
       </c>
       <c r="Y70" s="74">
-        <f t="shared" si="24"/>
-        <v>23.286499999999997</v>
-      </c>
-      <c r="Z70" s="75">
+        <f t="shared" ref="Y70:Y131" si="24">ABS(X70-W70)</f>
+        <v>23.284600000000001</v>
+      </c>
+      <c r="Z70" s="75" t="e">
         <f>VLOOKUP(A70,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AA70" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA70" s="75" t="e">
         <f>VLOOKUP(A70,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
-        <v>455</v>
+        <v>358</v>
       </c>
       <c r="B71" s="61">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C71" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D71" s="61" t="s">
-        <v>149</v>
+        <v>453</v>
       </c>
       <c r="E71" s="30">
-        <v>42512.58216435185</v>
+        <v>42512.54109953704</v>
       </c>
       <c r="F71" s="30">
-        <v>42512.583182870374</v>
+        <v>42512.542615740742</v>
       </c>
       <c r="G71" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>75</v>
+        <v>454</v>
       </c>
       <c r="I71" s="30">
-        <v>42512.611192129632</v>
+        <v>42512.574178240742</v>
       </c>
       <c r="J71" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="61" t="str">
         <f t="shared" si="17"/>
@@ -8566,11 +8581,11 @@
       </c>
       <c r="M71" s="12">
         <f t="shared" si="18"/>
-        <v>2.8009259258396924E-2</v>
+        <v>3.1562500000291038E-2</v>
       </c>
       <c r="N71" s="13">
         <f t="shared" si="5"/>
-        <v>40.33333333209157</v>
+        <v>45.450000000419095</v>
       </c>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -8578,7 +8593,7 @@
       <c r="R71" s="62"/>
       <c r="T71" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:57:19-0600',mode:absolute,to:'2016-05-22 14:41:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:58:11-0600',mode:absolute,to:'2016-05-22 13:47:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="74" t="str">
         <f t="shared" si="20"/>
@@ -8586,75 +8601,75 @@
       </c>
       <c r="V71" s="74">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W71" s="74">
         <f t="shared" si="22"/>
-        <v>23.299299999999999</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="X71" s="74">
         <f t="shared" si="23"/>
-        <v>1.4500000000000001E-2</v>
+        <v>23.33</v>
       </c>
       <c r="Y71" s="74">
         <f t="shared" si="24"/>
-        <v>23.284799999999997</v>
-      </c>
-      <c r="Z71" s="75" t="e">
+        <v>23.286499999999997</v>
+      </c>
+      <c r="Z71" s="75">
         <f>VLOOKUP(A71,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA71" s="75" t="e">
+        <v>233491</v>
+      </c>
+      <c r="AA71" s="75" t="str">
         <f>VLOOKUP(A71,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" s="61">
-        <v>4042</v>
+        <v>4012</v>
       </c>
       <c r="C72" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="E72" s="30">
-        <v>42512.545416666668</v>
+        <v>42512.58216435185</v>
       </c>
       <c r="F72" s="30">
-        <v>42512.546435185184</v>
+        <v>42512.583182870374</v>
       </c>
       <c r="G72" s="38">
         <v>1</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="I72" s="30">
-        <v>42512.57984953704</v>
+        <v>42512.611192129632</v>
       </c>
       <c r="J72" s="61">
         <v>0</v>
       </c>
       <c r="K72" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4041/4042</v>
+        <v>4011/4012</v>
       </c>
       <c r="L72" s="61" t="str">
         <f>VLOOKUP(A72,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BUTLER</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M72" s="12">
         <f t="shared" si="18"/>
-        <v>3.3414351855753921E-2</v>
+        <v>2.8009259258396924E-2</v>
       </c>
       <c r="N72" s="13">
         <f t="shared" si="5"/>
-        <v>48.116666672285646</v>
+        <v>40.33333333209157</v>
       </c>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
@@ -8662,7 +8677,7 @@
       <c r="R72" s="62"/>
       <c r="T72" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:04:24-0600',mode:absolute,to:'2016-05-22 13:55:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:57:19-0600',mode:absolute,to:'2016-05-22 14:41:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="74" t="str">
         <f t="shared" si="20"/>
@@ -8674,15 +8689,15 @@
       </c>
       <c r="W72" s="74">
         <f t="shared" si="22"/>
-        <v>4.58E-2</v>
+        <v>23.299299999999999</v>
       </c>
       <c r="X72" s="74">
         <f t="shared" si="23"/>
-        <v>23.329699999999999</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y72" s="74">
         <f t="shared" si="24"/>
-        <v>23.283899999999999</v>
+        <v>23.284799999999997</v>
       </c>
       <c r="Z72" s="75" t="e">
         <f>VLOOKUP(A72,Enforcements!$C$3:$J$55,8,0)</f>
@@ -8695,31 +8710,31 @@
     </row>
     <row r="73" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B73" s="61">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="C73" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E73" s="30">
-        <v>42512.584236111114</v>
+        <v>42512.545416666668</v>
       </c>
       <c r="F73" s="30">
-        <v>42512.585277777776</v>
+        <v>42512.546435185184</v>
       </c>
       <c r="G73" s="38">
         <v>1</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="I73" s="30">
-        <v>42512.616932870369</v>
+        <v>42512.57984953704</v>
       </c>
       <c r="J73" s="61">
         <v>0</v>
@@ -8734,11 +8749,11 @@
       </c>
       <c r="M73" s="12">
         <f t="shared" si="18"/>
-        <v>3.1655092592700385E-2</v>
+        <v>3.3414351855753921E-2</v>
       </c>
       <c r="N73" s="13">
         <f t="shared" si="5"/>
-        <v>45.583333333488554</v>
+        <v>48.116666672285646</v>
       </c>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
@@ -8746,7 +8761,7 @@
       <c r="R73" s="62"/>
       <c r="T73" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:00:18-0600',mode:absolute,to:'2016-05-22 14:49:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:04:24-0600',mode:absolute,to:'2016-05-22 13:55:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="74" t="str">
         <f t="shared" si="20"/>
@@ -8758,11 +8773,11 @@
       </c>
       <c r="W73" s="74">
         <f t="shared" si="22"/>
-        <v>23.297999999999998</v>
+        <v>4.58E-2</v>
       </c>
       <c r="X73" s="74">
         <f t="shared" si="23"/>
-        <v>1.41E-2</v>
+        <v>23.329699999999999</v>
       </c>
       <c r="Y73" s="74">
         <f t="shared" si="24"/>
@@ -8779,50 +8794,50 @@
     </row>
     <row r="74" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B74" s="61">
-        <v>4024</v>
+        <v>4041</v>
       </c>
       <c r="C74" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E74" s="30">
-        <v>42512.561747685184</v>
+        <v>42512.584236111114</v>
       </c>
       <c r="F74" s="30">
-        <v>42512.562974537039</v>
+        <v>42512.585277777776</v>
       </c>
       <c r="G74" s="38">
         <v>1</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I74" s="30">
-        <v>42512.596805555557</v>
+        <v>42512.616932870369</v>
       </c>
       <c r="J74" s="61">
         <v>0</v>
       </c>
       <c r="K74" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4023/4024</v>
+        <v>4041/4042</v>
       </c>
       <c r="L74" s="61" t="str">
         <f>VLOOKUP(A74,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>BUTLER</v>
       </c>
       <c r="M74" s="12">
         <f t="shared" si="18"/>
-        <v>3.3831018517958E-2</v>
+        <v>3.1655092592700385E-2</v>
       </c>
       <c r="N74" s="13">
-        <f t="shared" ref="N74:N133" si="25">24*60*SUM($M74:$M74)</f>
-        <v>48.71666666585952</v>
+        <f t="shared" si="5"/>
+        <v>45.583333333488554</v>
       </c>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
@@ -8830,7 +8845,7 @@
       <c r="R74" s="62"/>
       <c r="T74" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:27:55-0600',mode:absolute,to:'2016-05-22 14:20:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:00:18-0600',mode:absolute,to:'2016-05-22 14:49:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="74" t="str">
         <f t="shared" si="20"/>
@@ -8842,15 +8857,15 @@
       </c>
       <c r="W74" s="74">
         <f t="shared" si="22"/>
-        <v>4.53E-2</v>
+        <v>23.297999999999998</v>
       </c>
       <c r="X74" s="74">
         <f t="shared" si="23"/>
-        <v>23.331399999999999</v>
+        <v>1.41E-2</v>
       </c>
       <c r="Y74" s="74">
         <f t="shared" si="24"/>
-        <v>23.286099999999998</v>
+        <v>23.283899999999999</v>
       </c>
       <c r="Z74" s="75" t="e">
         <f>VLOOKUP(A74,Enforcements!$C$3:$J$55,8,0)</f>
@@ -8863,34 +8878,34 @@
     </row>
     <row r="75" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="B75" s="61">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C75" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="E75" s="30">
-        <v>42512.600254629629</v>
+        <v>42512.561747685184</v>
       </c>
       <c r="F75" s="30">
-        <v>42512.601030092592</v>
+        <v>42512.562974537039</v>
       </c>
       <c r="G75" s="38">
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="I75" s="30">
-        <v>42512.629814814813</v>
+        <v>42512.596805555557</v>
       </c>
       <c r="J75" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="61" t="str">
         <f t="shared" si="17"/>
@@ -8902,11 +8917,11 @@
       </c>
       <c r="M75" s="12">
         <f t="shared" si="18"/>
-        <v>2.8784722220734693E-2</v>
+        <v>3.3831018517958E-2</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" si="25"/>
-        <v>41.449999997857958</v>
+        <f t="shared" ref="N75:N134" si="25">24*60*SUM($M75:$M75)</f>
+        <v>48.71666666585952</v>
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
@@ -8914,7 +8929,7 @@
       <c r="R75" s="62"/>
       <c r="T75" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:23:22-0600',mode:absolute,to:'2016-05-22 15:07:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:27:55-0600',mode:absolute,to:'2016-05-22 14:20:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="74" t="str">
         <f t="shared" si="20"/>
@@ -8926,71 +8941,71 @@
       </c>
       <c r="W75" s="74">
         <f t="shared" si="22"/>
-        <v>23.3</v>
+        <v>4.53E-2</v>
       </c>
       <c r="X75" s="74">
         <f t="shared" si="23"/>
-        <v>1.4500000000000001E-2</v>
+        <v>23.331399999999999</v>
       </c>
       <c r="Y75" s="74">
         <f t="shared" si="24"/>
-        <v>23.285499999999999</v>
-      </c>
-      <c r="Z75" s="75">
+        <v>23.286099999999998</v>
+      </c>
+      <c r="Z75" s="75" t="e">
         <f>VLOOKUP(A75,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AA75" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA75" s="75" t="e">
         <f>VLOOKUP(A75,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B76" s="61">
-        <v>4007</v>
+        <v>4023</v>
       </c>
       <c r="C76" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D76" s="61" t="s">
-        <v>106</v>
+        <v>459</v>
       </c>
       <c r="E76" s="30">
-        <v>42512.570601851854</v>
+        <v>42512.600254629629</v>
       </c>
       <c r="F76" s="30">
-        <v>42512.57130787037</v>
+        <v>42512.601030092592</v>
       </c>
       <c r="G76" s="38">
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="I76" s="30">
-        <v>42512.59847222222</v>
+        <v>42512.629814814813</v>
       </c>
       <c r="J76" s="61">
         <v>1</v>
       </c>
       <c r="K76" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4007/4008</v>
+        <v>4023/4024</v>
       </c>
       <c r="L76" s="61" t="str">
         <f>VLOOKUP(A76,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>LOCKLEAR</v>
+        <v>BRUDER</v>
       </c>
       <c r="M76" s="12">
         <f t="shared" si="18"/>
-        <v>2.7164351849933155E-2</v>
+        <v>2.8784722220734693E-2</v>
       </c>
       <c r="N76" s="13">
         <f t="shared" si="25"/>
-        <v>39.116666663903743</v>
+        <v>41.449999997857958</v>
       </c>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
@@ -8998,7 +9013,7 @@
       <c r="R76" s="62"/>
       <c r="T76" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:40:40-0600',mode:absolute,to:'2016-05-22 14:22:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:23:22-0600',mode:absolute,to:'2016-05-22 15:07:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9010,19 +9025,19 @@
       </c>
       <c r="W76" s="74">
         <f t="shared" si="22"/>
-        <v>4.58E-2</v>
+        <v>23.3</v>
       </c>
       <c r="X76" s="74">
         <f t="shared" si="23"/>
-        <v>23.337</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y76" s="74">
         <f t="shared" si="24"/>
-        <v>23.2912</v>
+        <v>23.285499999999999</v>
       </c>
       <c r="Z76" s="75">
         <f>VLOOKUP(A76,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>233491</v>
+        <v>1</v>
       </c>
       <c r="AA76" s="75" t="str">
         <f>VLOOKUP(A76,Enforcements!$C$3:$J$55,3,0)</f>
@@ -9031,34 +9046,34 @@
     </row>
     <row r="77" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
-        <v>461</v>
+        <v>359</v>
       </c>
       <c r="B77" s="61">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C77" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="E77" s="30">
-        <v>42512.6093287037</v>
+        <v>42512.570601851854</v>
       </c>
       <c r="F77" s="30">
-        <v>42512.610335648147</v>
+        <v>42512.57130787037</v>
       </c>
       <c r="G77" s="38">
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="I77" s="30">
-        <v>42512.640555555554</v>
+        <v>42512.59847222222</v>
       </c>
       <c r="J77" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="61" t="str">
         <f t="shared" si="17"/>
@@ -9070,11 +9085,11 @@
       </c>
       <c r="M77" s="12">
         <f t="shared" si="18"/>
-        <v>3.0219907406717539E-2</v>
+        <v>2.7164351849933155E-2</v>
       </c>
       <c r="N77" s="13">
         <f t="shared" si="25"/>
-        <v>43.516666665673256</v>
+        <v>39.116666663903743</v>
       </c>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
@@ -9082,7 +9097,7 @@
       <c r="R77" s="62"/>
       <c r="T77" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:36:26-0600',mode:absolute,to:'2016-05-22 15:23:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:40:40-0600',mode:absolute,to:'2016-05-22 14:22:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9094,71 +9109,71 @@
       </c>
       <c r="W77" s="74">
         <f t="shared" si="22"/>
-        <v>23.305099999999999</v>
+        <v>4.58E-2</v>
       </c>
       <c r="X77" s="74">
         <f t="shared" si="23"/>
-        <v>1.2699999999999999E-2</v>
+        <v>23.337</v>
       </c>
       <c r="Y77" s="74">
         <f t="shared" si="24"/>
-        <v>23.292400000000001</v>
-      </c>
-      <c r="Z77" s="75" t="e">
+        <v>23.2912</v>
+      </c>
+      <c r="Z77" s="75">
         <f>VLOOKUP(A77,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA77" s="75" t="e">
+        <v>233491</v>
+      </c>
+      <c r="AA77" s="75" t="str">
         <f>VLOOKUP(A77,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="78" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B78" s="61">
-        <v>4002</v>
+        <v>4008</v>
       </c>
       <c r="C78" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D78" s="61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E78" s="30">
-        <v>42512.578182870369</v>
+        <v>42512.6093287037</v>
       </c>
       <c r="F78" s="30">
-        <v>42512.579201388886</v>
+        <v>42512.610335648147</v>
       </c>
       <c r="G78" s="38">
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>147</v>
+        <v>397</v>
       </c>
       <c r="I78" s="30">
-        <v>42512.609594907408</v>
+        <v>42512.640555555554</v>
       </c>
       <c r="J78" s="61">
         <v>0</v>
       </c>
       <c r="K78" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4001/4002</v>
+        <v>4007/4008</v>
       </c>
       <c r="L78" s="61" t="str">
         <f>VLOOKUP(A78,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>ACKERMAN</v>
+        <v>LOCKLEAR</v>
       </c>
       <c r="M78" s="12">
         <f t="shared" si="18"/>
-        <v>3.0393518522032537E-2</v>
+        <v>3.0219907406717539E-2</v>
       </c>
       <c r="N78" s="13">
         <f t="shared" si="25"/>
-        <v>43.766666671726853</v>
+        <v>43.516666665673256</v>
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -9166,7 +9181,7 @@
       <c r="R78" s="62"/>
       <c r="T78" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:51:35-0600',mode:absolute,to:'2016-05-22 14:38:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:36:26-0600',mode:absolute,to:'2016-05-22 15:23:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9178,15 +9193,15 @@
       </c>
       <c r="W78" s="74">
         <f t="shared" si="22"/>
-        <v>4.4200000000000003E-2</v>
+        <v>23.305099999999999</v>
       </c>
       <c r="X78" s="74">
         <f t="shared" si="23"/>
-        <v>23.331399999999999</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Y78" s="74">
         <f t="shared" si="24"/>
-        <v>23.287199999999999</v>
+        <v>23.292400000000001</v>
       </c>
       <c r="Z78" s="75" t="e">
         <f>VLOOKUP(A78,Enforcements!$C$3:$J$55,8,0)</f>
@@ -9199,31 +9214,31 @@
     </row>
     <row r="79" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B79" s="61">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C79" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D79" s="61" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="E79" s="30">
-        <v>42512.616319444445</v>
+        <v>42512.578182870369</v>
       </c>
       <c r="F79" s="30">
-        <v>42512.617465277777</v>
-      </c>
-      <c r="G79" s="30">
+        <v>42512.579201388886</v>
+      </c>
+      <c r="G79" s="38">
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I79" s="30">
-        <v>42512.654537037037</v>
+        <v>42512.609594907408</v>
       </c>
       <c r="J79" s="61">
         <v>0</v>
@@ -9238,11 +9253,11 @@
       </c>
       <c r="M79" s="12">
         <f t="shared" si="18"/>
-        <v>3.7071759259561077E-2</v>
+        <v>3.0393518522032537E-2</v>
       </c>
       <c r="N79" s="13">
         <f t="shared" si="25"/>
-        <v>53.383333333767951</v>
+        <v>43.766666671726853</v>
       </c>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -9250,7 +9265,7 @@
       <c r="R79" s="62"/>
       <c r="T79" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:46:30-0600',mode:absolute,to:'2016-05-22 15:43:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:51:35-0600',mode:absolute,to:'2016-05-22 14:38:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9262,15 +9277,15 @@
       </c>
       <c r="W79" s="74">
         <f t="shared" si="22"/>
-        <v>23.2987</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="X79" s="74">
         <f t="shared" si="23"/>
-        <v>1.6299999999999999E-2</v>
+        <v>23.331399999999999</v>
       </c>
       <c r="Y79" s="74">
         <f t="shared" si="24"/>
-        <v>23.282399999999999</v>
+        <v>23.287199999999999</v>
       </c>
       <c r="Z79" s="75" t="e">
         <f>VLOOKUP(A79,Enforcements!$C$3:$J$55,8,0)</f>
@@ -9283,90 +9298,86 @@
     </row>
     <row r="80" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
-        <v>361</v>
+        <v>463</v>
       </c>
       <c r="B80" s="61">
-        <v>4018</v>
+        <v>4001</v>
       </c>
       <c r="C80" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>158</v>
+        <v>396</v>
       </c>
       <c r="E80" s="30">
-        <v>42512.591261574074</v>
+        <v>42512.616319444445</v>
       </c>
       <c r="F80" s="30">
-        <v>42512.59337962963</v>
-      </c>
-      <c r="G80" s="38">
-        <v>3</v>
+        <v>42512.617465277777</v>
+      </c>
+      <c r="G80" s="30">
+        <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>464</v>
+        <v>146</v>
       </c>
       <c r="I80" s="30">
-        <v>42512.61105324074</v>
+        <v>42512.654537037037</v>
       </c>
       <c r="J80" s="61">
         <v>0</v>
       </c>
       <c r="K80" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4017/4018</v>
+        <v>4001/4002</v>
       </c>
       <c r="L80" s="61" t="str">
         <f>VLOOKUP(A80,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YORK</v>
+        <v>ACKERMAN</v>
       </c>
       <c r="M80" s="12">
         <f t="shared" si="18"/>
-        <v>1.767361110978527E-2</v>
-      </c>
-      <c r="N80" s="13"/>
+        <v>3.7071759259561077E-2</v>
+      </c>
+      <c r="N80" s="13">
+        <f t="shared" si="25"/>
+        <v>53.383333333767951</v>
+      </c>
       <c r="O80" s="13"/>
-      <c r="P80" s="13">
-        <f>24*60*SUM($M80:$M81)</f>
-        <v>48.100000001722947</v>
-      </c>
-      <c r="Q80" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="R80" s="62" t="s">
-        <v>538</v>
-      </c>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="62"/>
+      <c r="R80" s="62"/>
       <c r="T80" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:10:25-0600',mode:absolute,to:'2016-05-22 14:40:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:46:30-0600',mode:absolute,to:'2016-05-22 15:43:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="74" t="str">
         <f t="shared" si="20"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="V80" s="74">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W80" s="74">
         <f t="shared" si="22"/>
-        <v>4.6600000000000003E-2</v>
+        <v>23.2987</v>
       </c>
       <c r="X80" s="74">
         <f t="shared" si="23"/>
-        <v>3.7717000000000001</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y80" s="74">
         <f t="shared" si="24"/>
-        <v>3.7250999999999999</v>
-      </c>
-      <c r="Z80" s="75">
+        <v>23.282399999999999</v>
+      </c>
+      <c r="Z80" s="75" t="e">
         <f>VLOOKUP(A80,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AA80" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA80" s="75" t="e">
         <f>VLOOKUP(A80,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9380,25 +9391,25 @@
         <v>66</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>465</v>
+        <v>158</v>
       </c>
       <c r="E81" s="30">
-        <v>42512.616400462961</v>
+        <v>42512.591261574074</v>
       </c>
       <c r="F81" s="30">
-        <v>42512.617060185185</v>
+        <v>42512.59337962963</v>
       </c>
       <c r="G81" s="38">
+        <v>3</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="I81" s="30">
+        <v>42512.61105324074</v>
+      </c>
+      <c r="J81" s="61">
         <v>0</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I81" s="30">
-        <v>42512.632789351854</v>
-      </c>
-      <c r="J81" s="61">
-        <v>1</v>
       </c>
       <c r="K81" s="61" t="str">
         <f t="shared" si="17"/>
@@ -9410,16 +9421,23 @@
       </c>
       <c r="M81" s="12">
         <f t="shared" si="18"/>
-        <v>1.5729166669188999E-2</v>
+        <v>1.767361110978527E-2</v>
       </c>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="62"/>
-      <c r="R81" s="62"/>
+      <c r="P81" s="13">
+        <f>24*60*SUM($M81:$M82)</f>
+        <v>48.100000001722947</v>
+      </c>
+      <c r="Q81" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="R81" s="62" t="s">
+        <v>538</v>
+      </c>
       <c r="T81" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:46:37-0600',mode:absolute,to:'2016-05-22 15:12:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:10:25-0600',mode:absolute,to:'2016-05-22 14:40:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9427,19 +9445,19 @@
       </c>
       <c r="V81" s="74">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W81" s="74">
         <f t="shared" si="22"/>
-        <v>6.4753999999999996</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="X81" s="74">
         <f t="shared" si="23"/>
-        <v>23.330200000000001</v>
+        <v>3.7717000000000001</v>
       </c>
       <c r="Y81" s="74">
         <f t="shared" si="24"/>
-        <v>16.854800000000001</v>
+        <v>3.7250999999999999</v>
       </c>
       <c r="Z81" s="75">
         <f>VLOOKUP(A81,Enforcements!$C$3:$J$55,8,0)</f>
@@ -9452,34 +9470,34 @@
     </row>
     <row r="82" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B82" s="61">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C82" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>74</v>
+        <v>465</v>
       </c>
       <c r="E82" s="30">
-        <v>42512.639918981484</v>
+        <v>42512.616400462961</v>
       </c>
       <c r="F82" s="30">
-        <v>42512.640821759262</v>
+        <v>42512.617060185185</v>
       </c>
       <c r="G82" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="I82" s="30">
-        <v>42512.671851851854</v>
+        <v>42512.632789351854</v>
       </c>
       <c r="J82" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K82" s="61" t="str">
         <f t="shared" si="17"/>
@@ -9491,93 +9509,92 @@
       </c>
       <c r="M82" s="12">
         <f t="shared" si="18"/>
-        <v>3.1030092592118308E-2</v>
-      </c>
-      <c r="N82" s="13">
-        <f t="shared" ref="N82" si="26">24*60*SUM($M82:$M82)</f>
-        <v>44.683333332650363</v>
-      </c>
+        <v>1.5729166669188999E-2</v>
+      </c>
+      <c r="N82" s="13"/>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:20:29-0600',mode:absolute,to:'2016-05-22 16:08:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U82" s="74" t="s">
-        <v>88</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:46:37-0600',mode:absolute,to:'2016-05-22 15:12:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U82" s="74" t="str">
+        <f t="shared" si="20"/>
+        <v>Y</v>
       </c>
       <c r="V82" s="74">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" s="74">
         <f t="shared" si="22"/>
-        <v>23.2989</v>
+        <v>6.4753999999999996</v>
       </c>
       <c r="X82" s="74">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="23"/>
+        <v>23.330200000000001</v>
       </c>
       <c r="Y82" s="74">
         <f t="shared" si="24"/>
-        <v>23.283899999999999</v>
+        <v>16.854800000000001</v>
       </c>
       <c r="Z82" s="75">
         <f>VLOOKUP(A82,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>53155</v>
+        <v>233491</v>
       </c>
       <c r="AA82" s="75" t="str">
         <f>VLOOKUP(A82,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>GRADE CROSSING</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="83" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B83" s="61">
-        <v>4011</v>
+        <v>4017</v>
       </c>
       <c r="C83" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E83" s="30">
-        <v>42512.613576388889</v>
+        <v>42512.639918981484</v>
       </c>
       <c r="F83" s="30">
-        <v>42512.614675925928</v>
+        <v>42512.640821759262</v>
       </c>
       <c r="G83" s="38">
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="I83" s="30">
-        <v>42512.647986111115</v>
+        <v>42512.671851851854</v>
       </c>
       <c r="J83" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4011/4012</v>
+        <v>4017/4018</v>
       </c>
       <c r="L83" s="61" t="str">
         <f>VLOOKUP(A83,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>WEBSTER</v>
+        <v>YORK</v>
       </c>
       <c r="M83" s="12">
         <f t="shared" si="18"/>
-        <v>3.3310185186564922E-2</v>
+        <v>3.1030092592118308E-2</v>
       </c>
       <c r="N83" s="13">
-        <f t="shared" si="25"/>
-        <v>47.966666668653488</v>
+        <f t="shared" ref="N83" si="26">24*60*SUM($M83:$M83)</f>
+        <v>44.683333332650363</v>
       </c>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
@@ -9585,11 +9602,10 @@
       <c r="R83" s="62"/>
       <c r="T83" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:42:33-0600',mode:absolute,to:'2016-05-22 15:34:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U83" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>N</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:20:29-0600',mode:absolute,to:'2016-05-22 16:08:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U83" s="74" t="s">
+        <v>88</v>
       </c>
       <c r="V83" s="74">
         <f t="shared" si="21"/>
@@ -9597,55 +9613,54 @@
       </c>
       <c r="W83" s="74">
         <f t="shared" si="22"/>
-        <v>4.5499999999999999E-2</v>
+        <v>23.2989</v>
       </c>
       <c r="X83" s="74">
-        <f t="shared" si="23"/>
-        <v>23.3293</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y83" s="74">
         <f t="shared" si="24"/>
-        <v>23.283799999999999</v>
+        <v>23.283899999999999</v>
       </c>
       <c r="Z83" s="75">
         <f>VLOOKUP(A83,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>233491</v>
+        <v>53155</v>
       </c>
       <c r="AA83" s="75" t="str">
         <f>VLOOKUP(A83,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>GRADE CROSSING</v>
       </c>
     </row>
     <row r="84" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
       <c r="B84" s="61">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C84" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E84" s="30">
-        <v>42512.653645833336</v>
+        <v>42512.613576388889</v>
       </c>
       <c r="F84" s="30">
-        <v>42512.654756944445</v>
+        <v>42512.614675925928</v>
       </c>
       <c r="G84" s="38">
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="I84" s="30">
-        <v>42512.681493055556</v>
+        <v>42512.647986111115</v>
       </c>
       <c r="J84" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="61" t="str">
         <f t="shared" si="17"/>
@@ -9657,11 +9672,11 @@
       </c>
       <c r="M84" s="12">
         <f t="shared" si="18"/>
-        <v>2.6736111110949423E-2</v>
+        <v>3.3310185186564922E-2</v>
       </c>
       <c r="N84" s="13">
         <f t="shared" si="25"/>
-        <v>38.499999999767169</v>
+        <v>47.966666668653488</v>
       </c>
       <c r="O84" s="13"/>
       <c r="P84" s="13"/>
@@ -9669,7 +9684,7 @@
       <c r="R84" s="62"/>
       <c r="T84" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:40:15-0600',mode:absolute,to:'2016-05-22 16:22:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:42:33-0600',mode:absolute,to:'2016-05-22 15:34:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9681,71 +9696,71 @@
       </c>
       <c r="W84" s="74">
         <f t="shared" si="22"/>
-        <v>23.297499999999999</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="X84" s="74">
         <f t="shared" si="23"/>
-        <v>1.43E-2</v>
+        <v>23.3293</v>
       </c>
       <c r="Y84" s="74">
         <f t="shared" si="24"/>
-        <v>23.283200000000001</v>
-      </c>
-      <c r="Z84" s="75" t="e">
+        <v>23.283799999999999</v>
+      </c>
+      <c r="Z84" s="75">
         <f>VLOOKUP(A84,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA84" s="75" t="e">
+        <v>233491</v>
+      </c>
+      <c r="AA84" s="75" t="str">
         <f>VLOOKUP(A84,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="85" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B85" s="61">
-        <v>4042</v>
+        <v>4012</v>
       </c>
       <c r="C85" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E85" s="30">
-        <v>42512.618923611109</v>
+        <v>42512.653645833336</v>
       </c>
       <c r="F85" s="30">
-        <v>42512.621134259258</v>
+        <v>42512.654756944445</v>
       </c>
       <c r="G85" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>417</v>
+        <v>160</v>
       </c>
       <c r="I85" s="30">
-        <v>42512.650821759256</v>
+        <v>42512.681493055556</v>
       </c>
       <c r="J85" s="61">
         <v>0</v>
       </c>
       <c r="K85" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4041/4042</v>
+        <v>4011/4012</v>
       </c>
       <c r="L85" s="61" t="str">
         <f>VLOOKUP(A85,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BUTLER</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M85" s="12">
         <f t="shared" si="18"/>
-        <v>2.9687499998544808E-2</v>
+        <v>2.6736111110949423E-2</v>
       </c>
       <c r="N85" s="13">
         <f t="shared" si="25"/>
-        <v>42.749999997904524</v>
+        <v>38.499999999767169</v>
       </c>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
@@ -9753,7 +9768,7 @@
       <c r="R85" s="62"/>
       <c r="T85" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:50:15-0600',mode:absolute,to:'2016-05-22 15:38:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:40:15-0600',mode:absolute,to:'2016-05-22 16:22:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9765,15 +9780,15 @@
       </c>
       <c r="W85" s="74">
         <f t="shared" si="22"/>
-        <v>4.4699999999999997E-2</v>
+        <v>23.297499999999999</v>
       </c>
       <c r="X85" s="74">
         <f t="shared" si="23"/>
-        <v>23.329799999999999</v>
+        <v>1.43E-2</v>
       </c>
       <c r="Y85" s="74">
         <f t="shared" si="24"/>
-        <v>23.2851</v>
+        <v>23.283200000000001</v>
       </c>
       <c r="Z85" s="75" t="e">
         <f>VLOOKUP(A85,Enforcements!$C$3:$J$55,8,0)</f>
@@ -9786,34 +9801,34 @@
     </row>
     <row r="86" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="B86" s="61">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="C86" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="E86" s="30">
-        <v>42512.655034722222</v>
+        <v>42512.618923611109</v>
       </c>
       <c r="F86" s="30">
-        <v>42512.655960648146</v>
+        <v>42512.621134259258</v>
       </c>
       <c r="G86" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>86</v>
+        <v>417</v>
       </c>
       <c r="I86" s="30">
-        <v>42512.692071759258</v>
+        <v>42512.650821759256</v>
       </c>
       <c r="J86" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="61" t="str">
         <f t="shared" si="17"/>
@@ -9825,11 +9840,11 @@
       </c>
       <c r="M86" s="12">
         <f t="shared" si="18"/>
-        <v>3.6111111112404615E-2</v>
+        <v>2.9687499998544808E-2</v>
       </c>
       <c r="N86" s="13">
         <f t="shared" si="25"/>
-        <v>52.000000001862645</v>
+        <v>42.749999997904524</v>
       </c>
       <c r="O86" s="13"/>
       <c r="P86" s="13"/>
@@ -9837,7 +9852,7 @@
       <c r="R86" s="62"/>
       <c r="T86" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:42:15-0600',mode:absolute,to:'2016-05-22 16:37:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:50:15-0600',mode:absolute,to:'2016-05-22 15:38:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9849,71 +9864,71 @@
       </c>
       <c r="W86" s="74">
         <f t="shared" si="22"/>
-        <v>23.299800000000001</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="X86" s="74">
         <f t="shared" si="23"/>
-        <v>1.61E-2</v>
+        <v>23.329799999999999</v>
       </c>
       <c r="Y86" s="74">
         <f t="shared" si="24"/>
-        <v>23.2837</v>
-      </c>
-      <c r="Z86" s="75">
+        <v>23.2851</v>
+      </c>
+      <c r="Z86" s="75" t="e">
         <f>VLOOKUP(A86,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>127587</v>
-      </c>
-      <c r="AA86" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA86" s="75" t="e">
         <f>VLOOKUP(A86,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>SIGNAL</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B87" s="61">
-        <v>4024</v>
+        <v>4041</v>
       </c>
       <c r="C87" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>124</v>
+        <v>468</v>
       </c>
       <c r="E87" s="30">
-        <v>42512.632974537039</v>
+        <v>42512.655034722222</v>
       </c>
       <c r="F87" s="30">
-        <v>42512.634293981479</v>
+        <v>42512.655960648146</v>
       </c>
       <c r="G87" s="38">
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I87" s="30">
-        <v>42512.661666666667</v>
+        <v>42512.692071759258</v>
       </c>
       <c r="J87" s="61">
         <v>1</v>
       </c>
       <c r="K87" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4023/4024</v>
+        <v>4041/4042</v>
       </c>
       <c r="L87" s="61" t="str">
         <f>VLOOKUP(A87,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>BUTLER</v>
       </c>
       <c r="M87" s="12">
         <f t="shared" si="18"/>
-        <v>2.7372685188311152E-2</v>
+        <v>3.6111111112404615E-2</v>
       </c>
       <c r="N87" s="13">
         <f t="shared" si="25"/>
-        <v>39.416666671168059</v>
+        <v>52.000000001862645</v>
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
@@ -9921,7 +9936,7 @@
       <c r="R87" s="62"/>
       <c r="T87" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:10:29-0600',mode:absolute,to:'2016-05-22 15:53:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:42:15-0600',mode:absolute,to:'2016-05-22 16:37:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="74" t="str">
         <f t="shared" si="20"/>
@@ -9933,55 +9948,55 @@
       </c>
       <c r="W87" s="74">
         <f t="shared" si="22"/>
-        <v>4.4900000000000002E-2</v>
+        <v>23.299800000000001</v>
       </c>
       <c r="X87" s="74">
         <f t="shared" si="23"/>
-        <v>23.329499999999999</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Y87" s="74">
         <f t="shared" si="24"/>
-        <v>23.284600000000001</v>
+        <v>23.2837</v>
       </c>
       <c r="Z87" s="75">
         <f>VLOOKUP(A87,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>233491</v>
+        <v>127587</v>
       </c>
       <c r="AA87" s="75" t="str">
         <f>VLOOKUP(A87,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>SIGNAL</v>
       </c>
     </row>
     <row r="88" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
-        <v>469</v>
+        <v>363</v>
       </c>
       <c r="B88" s="61">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C88" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E88" s="30">
-        <v>42512.670138888891</v>
+        <v>42512.632974537039</v>
       </c>
       <c r="F88" s="30">
-        <v>42512.671307870369</v>
+        <v>42512.634293981479</v>
       </c>
       <c r="G88" s="38">
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>414</v>
+        <v>68</v>
       </c>
       <c r="I88" s="30">
-        <v>42512.707337962966</v>
+        <v>42512.661666666667</v>
       </c>
       <c r="J88" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="61" t="str">
         <f t="shared" si="17"/>
@@ -9993,11 +10008,11 @@
       </c>
       <c r="M88" s="12">
         <f t="shared" si="18"/>
-        <v>3.6030092596774921E-2</v>
+        <v>2.7372685188311152E-2</v>
       </c>
       <c r="N88" s="13">
         <f t="shared" si="25"/>
-        <v>51.883333339355886</v>
+        <v>39.416666671168059</v>
       </c>
       <c r="O88" s="13"/>
       <c r="P88" s="13"/>
@@ -10005,7 +10020,7 @@
       <c r="R88" s="62"/>
       <c r="T88" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:04:00-0600',mode:absolute,to:'2016-05-22 16:59:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:10:29-0600',mode:absolute,to:'2016-05-22 15:53:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10017,71 +10032,71 @@
       </c>
       <c r="W88" s="74">
         <f t="shared" si="22"/>
-        <v>23.297499999999999</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="X88" s="74">
         <f t="shared" si="23"/>
-        <v>1.38E-2</v>
+        <v>23.329499999999999</v>
       </c>
       <c r="Y88" s="74">
         <f t="shared" si="24"/>
-        <v>23.2837</v>
-      </c>
-      <c r="Z88" s="75" t="e">
+        <v>23.284600000000001</v>
+      </c>
+      <c r="Z88" s="75">
         <f>VLOOKUP(A88,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA88" s="75" t="e">
+        <v>233491</v>
+      </c>
+      <c r="AA88" s="75" t="str">
         <f>VLOOKUP(A88,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="89" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B89" s="61">
-        <v>4007</v>
+        <v>4023</v>
       </c>
       <c r="C89" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E89" s="30">
-        <v>42512.643726851849</v>
+        <v>42512.670138888891</v>
       </c>
       <c r="F89" s="30">
-        <v>42512.646041666667</v>
+        <v>42512.671307870369</v>
       </c>
       <c r="G89" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="I89" s="30">
-        <v>42512.670497685183</v>
+        <v>42512.707337962966</v>
       </c>
       <c r="J89" s="61">
         <v>0</v>
       </c>
       <c r="K89" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4007/4008</v>
+        <v>4023/4024</v>
       </c>
       <c r="L89" s="61" t="str">
         <f>VLOOKUP(A89,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>LOCKLEAR</v>
+        <v>BRUDER</v>
       </c>
       <c r="M89" s="12">
         <f t="shared" si="18"/>
-        <v>2.4456018516502809E-2</v>
+        <v>3.6030092596774921E-2</v>
       </c>
       <c r="N89" s="13">
         <f t="shared" si="25"/>
-        <v>35.216666663764045</v>
+        <v>51.883333339355886</v>
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13"/>
@@ -10089,7 +10104,7 @@
       <c r="R89" s="62"/>
       <c r="T89" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:25:58-0600',mode:absolute,to:'2016-05-22 16:06:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:04:00-0600',mode:absolute,to:'2016-05-22 16:59:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10101,15 +10116,15 @@
       </c>
       <c r="W89" s="74">
         <f t="shared" si="22"/>
-        <v>4.53E-2</v>
+        <v>23.297499999999999</v>
       </c>
       <c r="X89" s="74">
         <f t="shared" si="23"/>
-        <v>23.338899999999999</v>
+        <v>1.38E-2</v>
       </c>
       <c r="Y89" s="74">
         <f t="shared" si="24"/>
-        <v>23.293599999999998</v>
+        <v>23.2837</v>
       </c>
       <c r="Z89" s="75" t="e">
         <f>VLOOKUP(A89,Enforcements!$C$3:$J$55,8,0)</f>
@@ -10122,31 +10137,31 @@
     </row>
     <row r="90" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B90" s="61">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C90" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="E90" s="30">
-        <v>42512.67931712963</v>
+        <v>42512.643726851849</v>
       </c>
       <c r="F90" s="30">
-        <v>42512.680023148147</v>
+        <v>42512.646041666667</v>
       </c>
       <c r="G90" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>314</v>
+        <v>471</v>
       </c>
       <c r="I90" s="30">
-        <v>42512.711886574078</v>
+        <v>42512.670497685183</v>
       </c>
       <c r="J90" s="61">
         <v>0</v>
@@ -10161,11 +10176,11 @@
       </c>
       <c r="M90" s="12">
         <f t="shared" si="18"/>
-        <v>3.1863425931078382E-2</v>
+        <v>2.4456018516502809E-2</v>
       </c>
       <c r="N90" s="13">
         <f t="shared" si="25"/>
-        <v>45.88333334075287</v>
+        <v>35.216666663764045</v>
       </c>
       <c r="O90" s="13"/>
       <c r="P90" s="13"/>
@@ -10173,7 +10188,7 @@
       <c r="R90" s="62"/>
       <c r="T90" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:17:13-0600',mode:absolute,to:'2016-05-22 17:06:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:25:58-0600',mode:absolute,to:'2016-05-22 16:06:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10185,15 +10200,15 @@
       </c>
       <c r="W90" s="74">
         <f t="shared" si="22"/>
-        <v>23.307200000000002</v>
+        <v>4.53E-2</v>
       </c>
       <c r="X90" s="74">
         <f t="shared" si="23"/>
-        <v>1.67E-2</v>
+        <v>23.338899999999999</v>
       </c>
       <c r="Y90" s="74">
         <f t="shared" si="24"/>
-        <v>23.290500000000002</v>
+        <v>23.293599999999998</v>
       </c>
       <c r="Z90" s="75" t="e">
         <f>VLOOKUP(A90,Enforcements!$C$3:$J$55,8,0)</f>
@@ -10206,50 +10221,50 @@
     </row>
     <row r="91" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B91" s="61">
-        <v>4002</v>
+        <v>4008</v>
       </c>
       <c r="C91" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="E91" s="30">
-        <v>42512.657581018517</v>
+        <v>42512.67931712963</v>
       </c>
       <c r="F91" s="30">
-        <v>42512.65829861111</v>
+        <v>42512.680023148147</v>
       </c>
       <c r="G91" s="38">
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I91" s="30">
-        <v>42512.687222222223</v>
+        <v>42512.711886574078</v>
       </c>
       <c r="J91" s="61">
         <v>0</v>
       </c>
       <c r="K91" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4001/4002</v>
+        <v>4007/4008</v>
       </c>
       <c r="L91" s="61" t="str">
         <f>VLOOKUP(A91,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>ACKERMAN</v>
+        <v>LOCKLEAR</v>
       </c>
       <c r="M91" s="12">
         <f t="shared" si="18"/>
-        <v>2.8923611112986691E-2</v>
+        <v>3.1863425931078382E-2</v>
       </c>
       <c r="N91" s="13">
         <f t="shared" si="25"/>
-        <v>41.650000002700835</v>
+        <v>45.88333334075287</v>
       </c>
       <c r="O91" s="13"/>
       <c r="P91" s="13"/>
@@ -10257,7 +10272,7 @@
       <c r="R91" s="62"/>
       <c r="T91" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:45:55-0600',mode:absolute,to:'2016-05-22 16:30:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:17:13-0600',mode:absolute,to:'2016-05-22 17:06:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10269,15 +10284,15 @@
       </c>
       <c r="W91" s="74">
         <f t="shared" si="22"/>
-        <v>4.6600000000000003E-2</v>
+        <v>23.307200000000002</v>
       </c>
       <c r="X91" s="74">
         <f t="shared" si="23"/>
-        <v>23.330100000000002</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Y91" s="74">
         <f t="shared" si="24"/>
-        <v>23.2835</v>
+        <v>23.290500000000002</v>
       </c>
       <c r="Z91" s="75" t="e">
         <f>VLOOKUP(A91,Enforcements!$C$3:$J$55,8,0)</f>
@@ -10290,34 +10305,34 @@
     </row>
     <row r="92" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
-        <v>367</v>
+        <v>474</v>
       </c>
       <c r="B92" s="61">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C92" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="E92" s="30">
-        <v>42512.691851851851</v>
+        <v>42512.657581018517</v>
       </c>
       <c r="F92" s="30">
-        <v>42512.692881944444</v>
+        <v>42512.65829861111</v>
       </c>
       <c r="G92" s="38">
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>95</v>
+        <v>323</v>
       </c>
       <c r="I92" s="30">
-        <v>42512.725138888891</v>
+        <v>42512.687222222223</v>
       </c>
       <c r="J92" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="61" t="str">
         <f t="shared" si="17"/>
@@ -10329,11 +10344,11 @@
       </c>
       <c r="M92" s="12">
         <f t="shared" si="18"/>
-        <v>3.2256944446999114E-2</v>
+        <v>2.8923611112986691E-2</v>
       </c>
       <c r="N92" s="13">
         <f t="shared" si="25"/>
-        <v>46.450000003678724</v>
+        <v>41.650000002700835</v>
       </c>
       <c r="O92" s="13"/>
       <c r="P92" s="13"/>
@@ -10341,7 +10356,7 @@
       <c r="R92" s="62"/>
       <c r="T92" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:35:16-0600',mode:absolute,to:'2016-05-22 17:25:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:45:55-0600',mode:absolute,to:'2016-05-22 16:30:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10353,71 +10368,71 @@
       </c>
       <c r="W92" s="74">
         <f t="shared" si="22"/>
-        <v>23.2973</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="X92" s="74">
         <f t="shared" si="23"/>
-        <v>1.4999999999999999E-2</v>
+        <v>23.330100000000002</v>
       </c>
       <c r="Y92" s="74">
         <f t="shared" si="24"/>
-        <v>23.282299999999999</v>
-      </c>
-      <c r="Z92" s="75">
+        <v>23.2835</v>
+      </c>
+      <c r="Z92" s="75" t="e">
         <f>VLOOKUP(A92,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AA92" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA92" s="75" t="e">
         <f>VLOOKUP(A92,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
-        <v>475</v>
+        <v>367</v>
       </c>
       <c r="B93" s="61">
-        <v>4018</v>
+        <v>4001</v>
       </c>
       <c r="C93" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E93" s="30">
-        <v>42512.673576388886</v>
+        <v>42512.691851851851</v>
       </c>
       <c r="F93" s="30">
-        <v>42512.674513888887</v>
+        <v>42512.692881944444</v>
       </c>
       <c r="G93" s="38">
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>312</v>
+        <v>95</v>
       </c>
       <c r="I93" s="30">
-        <v>42512.70517361111</v>
+        <v>42512.725138888891</v>
       </c>
       <c r="J93" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4017/4018</v>
+        <v>4001/4002</v>
       </c>
       <c r="L93" s="61" t="str">
         <f>VLOOKUP(A93,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YORK</v>
+        <v>ACKERMAN</v>
       </c>
       <c r="M93" s="12">
         <f t="shared" si="18"/>
-        <v>3.0659722222480923E-2</v>
+        <v>3.2256944446999114E-2</v>
       </c>
       <c r="N93" s="13">
         <f t="shared" si="25"/>
-        <v>44.150000000372529</v>
+        <v>46.450000003678724</v>
       </c>
       <c r="O93" s="13"/>
       <c r="P93" s="13"/>
@@ -10425,7 +10440,7 @@
       <c r="R93" s="62"/>
       <c r="T93" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:08:57-0600',mode:absolute,to:'2016-05-22 16:56:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:35:16-0600',mode:absolute,to:'2016-05-22 17:25:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10433,56 +10448,56 @@
       </c>
       <c r="V93" s="74">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W93" s="74">
         <f t="shared" si="22"/>
-        <v>4.5999999999999999E-2</v>
+        <v>23.2973</v>
       </c>
       <c r="X93" s="74">
         <f t="shared" si="23"/>
-        <v>23.328900000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y93" s="74">
         <f t="shared" si="24"/>
-        <v>23.282900000000001</v>
-      </c>
-      <c r="Z93" s="75" t="e">
+        <v>23.282299999999999</v>
+      </c>
+      <c r="Z93" s="75">
         <f>VLOOKUP(A93,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA93" s="75" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="75" t="str">
         <f>VLOOKUP(A93,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="94" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B94" s="61">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C94" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E94" s="30">
-        <v>42512.706620370373</v>
+        <v>42512.673576388886</v>
       </c>
       <c r="F94" s="30">
-        <v>42512.70752314815</v>
+        <v>42512.674513888887</v>
       </c>
       <c r="G94" s="38">
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="I94" s="30">
-        <v>42512.747465277775</v>
+        <v>42512.70517361111</v>
       </c>
       <c r="J94" s="61">
         <v>0</v>
@@ -10497,11 +10512,11 @@
       </c>
       <c r="M94" s="12">
         <f t="shared" si="18"/>
-        <v>3.9942129624250811E-2</v>
+        <v>3.0659722222480923E-2</v>
       </c>
       <c r="N94" s="13">
         <f t="shared" si="25"/>
-        <v>57.516666658921167</v>
+        <v>44.150000000372529</v>
       </c>
       <c r="O94" s="13"/>
       <c r="P94" s="13"/>
@@ -10509,7 +10524,7 @@
       <c r="R94" s="62"/>
       <c r="T94" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:56:32-0600',mode:absolute,to:'2016-05-22 17:57:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:08:57-0600',mode:absolute,to:'2016-05-22 16:56:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10517,19 +10532,19 @@
       </c>
       <c r="V94" s="74">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W94" s="74">
         <f t="shared" si="22"/>
-        <v>23.296900000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="X94" s="74">
         <f t="shared" si="23"/>
-        <v>1.52E-2</v>
+        <v>23.328900000000001</v>
       </c>
       <c r="Y94" s="74">
         <f t="shared" si="24"/>
-        <v>23.281700000000001</v>
+        <v>23.282900000000001</v>
       </c>
       <c r="Z94" s="75" t="e">
         <f>VLOOKUP(A94,Enforcements!$C$3:$J$55,8,0)</f>
@@ -10542,50 +10557,50 @@
     </row>
     <row r="95" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B95" s="61">
-        <v>4011</v>
+        <v>4017</v>
       </c>
       <c r="C95" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>478</v>
+        <v>169</v>
       </c>
       <c r="E95" s="30">
-        <v>42512.68310185185</v>
+        <v>42512.706620370373</v>
       </c>
       <c r="F95" s="30">
-        <v>42512.687314814815</v>
+        <v>42512.70752314815</v>
       </c>
       <c r="G95" s="38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>454</v>
+        <v>83</v>
       </c>
       <c r="I95" s="30">
-        <v>42512.716527777775</v>
+        <v>42512.747465277775</v>
       </c>
       <c r="J95" s="61">
         <v>0</v>
       </c>
       <c r="K95" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4011/4012</v>
+        <v>4017/4018</v>
       </c>
       <c r="L95" s="61" t="str">
         <f>VLOOKUP(A95,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>WEBSTER</v>
+        <v>YORK</v>
       </c>
       <c r="M95" s="12">
         <f t="shared" si="18"/>
-        <v>2.9212962959718425E-2</v>
+        <v>3.9942129624250811E-2</v>
       </c>
       <c r="N95" s="13">
         <f t="shared" si="25"/>
-        <v>42.066666661994532</v>
+        <v>57.516666658921167</v>
       </c>
       <c r="O95" s="13"/>
       <c r="P95" s="13"/>
@@ -10593,7 +10608,7 @@
       <c r="R95" s="62"/>
       <c r="T95" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:22:40-0600',mode:absolute,to:'2016-05-22 17:12:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:56:32-0600',mode:absolute,to:'2016-05-22 17:57:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10605,15 +10620,15 @@
       </c>
       <c r="W95" s="74">
         <f t="shared" si="22"/>
-        <v>4.3799999999999999E-2</v>
+        <v>23.296900000000001</v>
       </c>
       <c r="X95" s="74">
         <f t="shared" si="23"/>
-        <v>23.33</v>
+        <v>1.52E-2</v>
       </c>
       <c r="Y95" s="74">
         <f t="shared" si="24"/>
-        <v>23.286199999999997</v>
+        <v>23.281700000000001</v>
       </c>
       <c r="Z95" s="75" t="e">
         <f>VLOOKUP(A95,Enforcements!$C$3:$J$55,8,0)</f>
@@ -10626,31 +10641,31 @@
     </row>
     <row r="96" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B96" s="61">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C96" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>315</v>
+        <v>478</v>
       </c>
       <c r="E96" s="30">
-        <v>42512.724039351851</v>
+        <v>42512.68310185185</v>
       </c>
       <c r="F96" s="30">
-        <v>42512.725185185183</v>
+        <v>42512.687314814815</v>
       </c>
       <c r="G96" s="38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>71</v>
+        <v>454</v>
       </c>
       <c r="I96" s="30">
-        <v>42512.757511574076</v>
+        <v>42512.716527777775</v>
       </c>
       <c r="J96" s="61">
         <v>0</v>
@@ -10665,11 +10680,11 @@
       </c>
       <c r="M96" s="12">
         <f t="shared" si="18"/>
-        <v>3.2326388893125113E-2</v>
+        <v>2.9212962959718425E-2</v>
       </c>
       <c r="N96" s="13">
         <f t="shared" si="25"/>
-        <v>46.550000006100163</v>
+        <v>42.066666661994532</v>
       </c>
       <c r="O96" s="13"/>
       <c r="P96" s="13"/>
@@ -10677,7 +10692,7 @@
       <c r="R96" s="62"/>
       <c r="T96" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:21:37-0600',mode:absolute,to:'2016-05-22 18:11:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:22:40-0600',mode:absolute,to:'2016-05-22 17:12:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10689,15 +10704,15 @@
       </c>
       <c r="W96" s="74">
         <f t="shared" si="22"/>
-        <v>23.298300000000001</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="X96" s="74">
         <f t="shared" si="23"/>
-        <v>1.49E-2</v>
+        <v>23.33</v>
       </c>
       <c r="Y96" s="74">
         <f t="shared" si="24"/>
-        <v>23.2834</v>
+        <v>23.286199999999997</v>
       </c>
       <c r="Z96" s="75" t="e">
         <f>VLOOKUP(A96,Enforcements!$C$3:$J$55,8,0)</f>
@@ -10710,50 +10725,50 @@
     </row>
     <row r="97" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B97" s="61">
-        <v>4042</v>
+        <v>4012</v>
       </c>
       <c r="C97" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="E97" s="30">
-        <v>42512.693796296298</v>
+        <v>42512.724039351851</v>
       </c>
       <c r="F97" s="30">
-        <v>42512.694976851853</v>
+        <v>42512.725185185183</v>
       </c>
       <c r="G97" s="38">
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I97" s="30">
-        <v>42512.722812499997</v>
+        <v>42512.757511574076</v>
       </c>
       <c r="J97" s="61">
         <v>0</v>
       </c>
       <c r="K97" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4041/4042</v>
+        <v>4011/4012</v>
       </c>
       <c r="L97" s="61" t="str">
         <f>VLOOKUP(A97,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BUTLER</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M97" s="12">
         <f t="shared" si="18"/>
-        <v>2.7835648143081926E-2</v>
+        <v>3.2326388893125113E-2</v>
       </c>
       <c r="N97" s="13">
         <f t="shared" si="25"/>
-        <v>40.083333326037973</v>
+        <v>46.550000006100163</v>
       </c>
       <c r="O97" s="13"/>
       <c r="P97" s="13"/>
@@ -10761,7 +10776,7 @@
       <c r="R97" s="62"/>
       <c r="T97" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:38:04-0600',mode:absolute,to:'2016-05-22 17:21:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:21:37-0600',mode:absolute,to:'2016-05-22 18:11:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10773,15 +10788,15 @@
       </c>
       <c r="W97" s="74">
         <f t="shared" si="22"/>
-        <v>4.5100000000000001E-2</v>
+        <v>23.298300000000001</v>
       </c>
       <c r="X97" s="74">
         <f t="shared" si="23"/>
-        <v>23.330300000000001</v>
+        <v>1.49E-2</v>
       </c>
       <c r="Y97" s="74">
         <f t="shared" si="24"/>
-        <v>23.2852</v>
+        <v>23.2834</v>
       </c>
       <c r="Z97" s="75" t="e">
         <f>VLOOKUP(A97,Enforcements!$C$3:$J$55,8,0)</f>
@@ -10794,31 +10809,31 @@
     </row>
     <row r="98" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B98" s="61">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="C98" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="E98" s="30">
-        <v>42512.727256944447</v>
+        <v>42512.693796296298</v>
       </c>
       <c r="F98" s="30">
-        <v>42512.728043981479</v>
+        <v>42512.694976851853</v>
       </c>
       <c r="G98" s="38">
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="I98" s="30">
-        <v>42512.765069444446</v>
+        <v>42512.722812499997</v>
       </c>
       <c r="J98" s="61">
         <v>0</v>
@@ -10833,11 +10848,11 @@
       </c>
       <c r="M98" s="12">
         <f t="shared" si="18"/>
-        <v>3.7025462966994382E-2</v>
+        <v>2.7835648143081926E-2</v>
       </c>
       <c r="N98" s="13">
         <f t="shared" si="25"/>
-        <v>53.316666672471911</v>
+        <v>40.083333326037973</v>
       </c>
       <c r="O98" s="13"/>
       <c r="P98" s="13"/>
@@ -10845,7 +10860,7 @@
       <c r="R98" s="62"/>
       <c r="T98" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:26:15-0600',mode:absolute,to:'2016-05-22 18:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:38:04-0600',mode:absolute,to:'2016-05-22 17:21:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10857,15 +10872,15 @@
       </c>
       <c r="W98" s="74">
         <f t="shared" si="22"/>
-        <v>23.296500000000002</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="X98" s="74">
         <f t="shared" si="23"/>
-        <v>1.32E-2</v>
+        <v>23.330300000000001</v>
       </c>
       <c r="Y98" s="74">
         <f t="shared" si="24"/>
-        <v>23.283300000000001</v>
+        <v>23.2852</v>
       </c>
       <c r="Z98" s="75" t="e">
         <f>VLOOKUP(A98,Enforcements!$C$3:$J$55,8,0)</f>
@@ -10878,50 +10893,50 @@
     </row>
     <row r="99" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
-        <v>366</v>
+        <v>481</v>
       </c>
       <c r="B99" s="61">
-        <v>4024</v>
+        <v>4041</v>
       </c>
       <c r="C99" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="E99" s="30">
-        <v>42512.708692129629</v>
+        <v>42512.727256944447</v>
       </c>
       <c r="F99" s="30">
-        <v>42512.709722222222</v>
+        <v>42512.728043981479</v>
       </c>
       <c r="G99" s="38">
         <v>1</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="I99" s="30">
-        <v>42512.736805555556</v>
+        <v>42512.765069444446</v>
       </c>
       <c r="J99" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4023/4024</v>
+        <v>4041/4042</v>
       </c>
       <c r="L99" s="61" t="str">
         <f>VLOOKUP(A99,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>BUTLER</v>
       </c>
       <c r="M99" s="12">
         <f t="shared" si="18"/>
-        <v>2.7083333334303461E-2</v>
+        <v>3.7025462966994382E-2</v>
       </c>
       <c r="N99" s="13">
         <f t="shared" si="25"/>
-        <v>39.000000001396984</v>
+        <v>53.316666672471911</v>
       </c>
       <c r="O99" s="13"/>
       <c r="P99" s="13"/>
@@ -10929,7 +10944,7 @@
       <c r="R99" s="62"/>
       <c r="T99" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:59:31-0600',mode:absolute,to:'2016-05-22 17:42:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:26:15-0600',mode:absolute,to:'2016-05-22 18:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="74" t="str">
         <f t="shared" si="20"/>
@@ -10941,55 +10956,55 @@
       </c>
       <c r="W99" s="74">
         <f t="shared" si="22"/>
-        <v>4.6199999999999998E-2</v>
+        <v>23.296500000000002</v>
       </c>
       <c r="X99" s="74">
         <f t="shared" si="23"/>
-        <v>23.329799999999999</v>
+        <v>1.32E-2</v>
       </c>
       <c r="Y99" s="74">
         <f t="shared" si="24"/>
-        <v>23.2836</v>
-      </c>
-      <c r="Z99" s="75">
+        <v>23.283300000000001</v>
+      </c>
+      <c r="Z99" s="75" t="e">
         <f>VLOOKUP(A99,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>53155</v>
-      </c>
-      <c r="AA99" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA99" s="75" t="e">
         <f>VLOOKUP(A99,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>GRADE CROSSING</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B100" s="61">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C100" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E100" s="30">
-        <v>42512.743750000001</v>
+        <v>42512.708692129629</v>
       </c>
       <c r="F100" s="30">
-        <v>42512.744780092595</v>
+        <v>42512.709722222222</v>
       </c>
       <c r="G100" s="38">
         <v>1</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>482</v>
+        <v>417</v>
       </c>
       <c r="I100" s="30">
-        <v>42512.776134259257</v>
+        <v>42512.736805555556</v>
       </c>
       <c r="J100" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K100" s="61" t="str">
         <f t="shared" si="17"/>
@@ -11001,11 +11016,11 @@
       </c>
       <c r="M100" s="12">
         <f t="shared" si="18"/>
-        <v>3.1354166661913041E-2</v>
+        <v>2.7083333334303461E-2</v>
       </c>
       <c r="N100" s="13">
         <f t="shared" si="25"/>
-        <v>45.149999993154779</v>
+        <v>39.000000001396984</v>
       </c>
       <c r="O100" s="13"/>
       <c r="P100" s="13"/>
@@ -11013,7 +11028,7 @@
       <c r="R100" s="62"/>
       <c r="T100" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:50:00-0600',mode:absolute,to:'2016-05-22 18:38:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:59:31-0600',mode:absolute,to:'2016-05-22 17:42:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="74" t="str">
         <f t="shared" si="20"/>
@@ -11025,71 +11040,71 @@
       </c>
       <c r="W100" s="74">
         <f t="shared" si="22"/>
-        <v>23.299299999999999</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="X100" s="74">
         <f t="shared" si="23"/>
-        <v>1.9099999999999999E-2</v>
+        <v>23.329799999999999</v>
       </c>
       <c r="Y100" s="74">
         <f t="shared" si="24"/>
-        <v>23.280199999999997</v>
+        <v>23.2836</v>
       </c>
       <c r="Z100" s="75">
         <f>VLOOKUP(A100,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>133166</v>
+        <v>53155</v>
       </c>
       <c r="AA100" s="75" t="str">
         <f>VLOOKUP(A100,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>SIGNAL</v>
+        <v>GRADE CROSSING</v>
       </c>
     </row>
     <row r="101" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
-        <v>483</v>
+        <v>369</v>
       </c>
       <c r="B101" s="61">
-        <v>4007</v>
+        <v>4023</v>
       </c>
       <c r="C101" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="E101" s="30">
-        <v>42512.718935185185</v>
+        <v>42512.743750000001</v>
       </c>
       <c r="F101" s="30">
-        <v>42512.719872685186</v>
+        <v>42512.744780092595</v>
       </c>
       <c r="G101" s="38">
         <v>1</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>152</v>
+        <v>482</v>
       </c>
       <c r="I101" s="30">
-        <v>42512.74722222222</v>
+        <v>42512.776134259257</v>
       </c>
       <c r="J101" s="61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K101" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4007/4008</v>
+        <v>4023/4024</v>
       </c>
       <c r="L101" s="61" t="str">
         <f>VLOOKUP(A101,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>JACKSON</v>
+        <v>BRUDER</v>
       </c>
       <c r="M101" s="12">
         <f t="shared" si="18"/>
-        <v>2.7349537034751847E-2</v>
+        <v>3.1354166661913041E-2</v>
       </c>
       <c r="N101" s="13">
         <f t="shared" si="25"/>
-        <v>39.38333333004266</v>
+        <v>45.149999993154779</v>
       </c>
       <c r="O101" s="13"/>
       <c r="P101" s="13"/>
@@ -11097,7 +11112,7 @@
       <c r="R101" s="62"/>
       <c r="T101" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:14:16-0600',mode:absolute,to:'2016-05-22 17:57:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:50:00-0600',mode:absolute,to:'2016-05-22 18:38:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="74" t="str">
         <f t="shared" si="20"/>
@@ -11109,52 +11124,52 @@
       </c>
       <c r="W101" s="74">
         <f t="shared" si="22"/>
-        <v>4.6899999999999997E-2</v>
+        <v>23.299299999999999</v>
       </c>
       <c r="X101" s="74">
         <f t="shared" si="23"/>
-        <v>23.327400000000001</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="Y101" s="74">
         <f t="shared" si="24"/>
-        <v>23.2805</v>
-      </c>
-      <c r="Z101" s="75" t="e">
+        <v>23.280199999999997</v>
+      </c>
+      <c r="Z101" s="75">
         <f>VLOOKUP(A101,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA101" s="75" t="e">
+        <v>133166</v>
+      </c>
+      <c r="AA101" s="75" t="str">
         <f>VLOOKUP(A101,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>SIGNAL</v>
       </c>
     </row>
     <row r="102" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B102" s="61">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C102" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E102" s="30">
-        <v>42512.749837962961</v>
+        <v>42512.718935185185</v>
       </c>
       <c r="F102" s="30">
-        <v>42512.75099537037</v>
+        <v>42512.719872685186</v>
       </c>
       <c r="G102" s="38">
         <v>1</v>
       </c>
       <c r="H102" s="30" t="s">
-        <v>414</v>
+        <v>152</v>
       </c>
       <c r="I102" s="30">
-        <v>42512.786307870374</v>
+        <v>42512.74722222222</v>
       </c>
       <c r="J102" s="61">
         <v>0</v>
@@ -11169,11 +11184,11 @@
       </c>
       <c r="M102" s="12">
         <f t="shared" si="18"/>
-        <v>3.5312500003783498E-2</v>
+        <v>2.7349537034751847E-2</v>
       </c>
       <c r="N102" s="13">
         <f t="shared" si="25"/>
-        <v>50.850000005448237</v>
+        <v>39.38333333004266</v>
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
@@ -11181,7 +11196,7 @@
       <c r="R102" s="62"/>
       <c r="T102" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:58:46-0600',mode:absolute,to:'2016-05-22 18:53:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:14:16-0600',mode:absolute,to:'2016-05-22 17:57:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="74" t="str">
         <f t="shared" si="20"/>
@@ -11193,15 +11208,15 @@
       </c>
       <c r="W102" s="74">
         <f t="shared" si="22"/>
-        <v>23.297999999999998</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="X102" s="74">
         <f t="shared" si="23"/>
-        <v>1.38E-2</v>
+        <v>23.327400000000001</v>
       </c>
       <c r="Y102" s="74">
         <f t="shared" si="24"/>
-        <v>23.284199999999998</v>
+        <v>23.2805</v>
       </c>
       <c r="Z102" s="75" t="e">
         <f>VLOOKUP(A102,Enforcements!$C$3:$J$55,8,0)</f>
@@ -11214,118 +11229,118 @@
     </row>
     <row r="103" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="B103" s="61">
-        <v>4031</v>
+        <v>4008</v>
       </c>
       <c r="C103" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>485</v>
+        <v>87</v>
       </c>
       <c r="E103" s="30">
-        <v>42512.733518518522</v>
+        <v>42512.749837962961</v>
       </c>
       <c r="F103" s="30">
-        <v>42512.73537037037</v>
+        <v>42512.75099537037</v>
       </c>
       <c r="G103" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" s="30" t="s">
-        <v>123</v>
+        <v>414</v>
       </c>
       <c r="I103" s="30">
-        <v>42512.764756944445</v>
+        <v>42512.786307870374</v>
       </c>
       <c r="J103" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4031/4032</v>
+        <v>4007/4008</v>
       </c>
       <c r="L103" s="61" t="str">
         <f>VLOOKUP(A103,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YOUNG</v>
+        <v>JACKSON</v>
       </c>
       <c r="M103" s="12">
         <f t="shared" si="18"/>
-        <v>2.9386574075033423E-2</v>
+        <v>3.5312500003783498E-2</v>
       </c>
       <c r="N103" s="13">
         <f t="shared" si="25"/>
-        <v>42.316666668048128</v>
+        <v>50.850000005448237</v>
       </c>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
       <c r="T103" s="74" t="str">
-        <f t="shared" ref="T103:T113" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:35:16-0600',mode:absolute,to:'2016-05-22 18:22:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="19"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:58:46-0600',mode:absolute,to:'2016-05-22 18:53:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="74" t="str">
-        <f t="shared" ref="U103:U113" si="28">IF(Y103&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V103" s="74">
-        <f t="shared" ref="V103:V113" si="29">VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W103" s="74">
-        <f t="shared" ref="W103:W113" si="30">RIGHT(D103,LEN(D103)-4)/10000</f>
-        <v>0.16919999999999999</v>
+        <f t="shared" si="22"/>
+        <v>23.297999999999998</v>
       </c>
       <c r="X103" s="74">
-        <f t="shared" ref="X103:X113" si="31">RIGHT(H103,LEN(H103)-4)/10000</f>
-        <v>23.330200000000001</v>
+        <f t="shared" si="23"/>
+        <v>1.38E-2</v>
       </c>
       <c r="Y103" s="74">
-        <f t="shared" ref="Y103:Y113" si="32">ABS(X103-W103)</f>
-        <v>23.161000000000001</v>
-      </c>
-      <c r="Z103" s="75">
+        <f t="shared" si="24"/>
+        <v>23.284199999999998</v>
+      </c>
+      <c r="Z103" s="75" t="e">
         <f>VLOOKUP(A103,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>20338</v>
-      </c>
-      <c r="AA103" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA103" s="75" t="e">
         <f>VLOOKUP(A103,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>PERMANENT SPEED RESTRICTION</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
-        <v>486</v>
+        <v>368</v>
       </c>
       <c r="B104" s="61">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="C104" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="E104" s="30">
-        <v>42512.766134259262</v>
+        <v>42512.733518518522</v>
       </c>
       <c r="F104" s="30">
-        <v>42512.767916666664</v>
+        <v>42512.73537037037</v>
       </c>
       <c r="G104" s="38">
         <v>2</v>
       </c>
       <c r="H104" s="30" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="I104" s="30">
-        <v>42512.798055555555</v>
+        <v>42512.764756944445</v>
       </c>
       <c r="J104" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="61" t="str">
         <f t="shared" si="17"/>
@@ -11337,95 +11352,95 @@
       </c>
       <c r="M104" s="12">
         <f t="shared" si="18"/>
-        <v>3.0138888891087845E-2</v>
+        <v>2.9386574075033423E-2</v>
       </c>
       <c r="N104" s="13">
         <f t="shared" si="25"/>
-        <v>43.400000003166497</v>
+        <v>42.316666668048128</v>
       </c>
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
       <c r="T104" s="74" t="str">
-        <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:22:14-0600',mode:absolute,to:'2016-05-22 19:10:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <f t="shared" ref="T104:T114" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:35:16-0600',mode:absolute,to:'2016-05-22 18:22:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="U104:U114" si="28">IF(Y104&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V104" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="V104:V114" si="29">VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
         <v>1</v>
       </c>
       <c r="W104" s="74">
-        <f t="shared" si="30"/>
-        <v>23.299099999999999</v>
+        <f t="shared" ref="W104:W114" si="30">RIGHT(D104,LEN(D104)-4)/10000</f>
+        <v>0.16919999999999999</v>
       </c>
       <c r="X104" s="74">
-        <f t="shared" si="31"/>
-        <v>1.41E-2</v>
+        <f t="shared" ref="X104:X114" si="31">RIGHT(H104,LEN(H104)-4)/10000</f>
+        <v>23.330200000000001</v>
       </c>
       <c r="Y104" s="74">
-        <f t="shared" si="32"/>
-        <v>23.285</v>
-      </c>
-      <c r="Z104" s="75" t="e">
+        <f t="shared" ref="Y104:Y114" si="32">ABS(X104-W104)</f>
+        <v>23.161000000000001</v>
+      </c>
+      <c r="Z104" s="75">
         <f>VLOOKUP(A104,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA104" s="75" t="e">
+        <v>20338</v>
+      </c>
+      <c r="AA104" s="75" t="str">
         <f>VLOOKUP(A104,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
     <row r="105" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
-        <v>371</v>
+        <v>486</v>
       </c>
       <c r="B105" s="61">
-        <v>4018</v>
+        <v>4032</v>
       </c>
       <c r="C105" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>478</v>
+        <v>389</v>
       </c>
       <c r="E105" s="30">
-        <v>42512.752986111111</v>
+        <v>42512.766134259262</v>
       </c>
       <c r="F105" s="30">
-        <v>42512.754363425927</v>
+        <v>42512.767916666664</v>
       </c>
       <c r="G105" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>488</v>
+        <v>94</v>
       </c>
       <c r="I105" s="30">
-        <v>42512.784166666665</v>
+        <v>42512.798055555555</v>
       </c>
       <c r="J105" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4017/4018</v>
+        <v>4031/4032</v>
       </c>
       <c r="L105" s="61" t="str">
         <f>VLOOKUP(A105,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>GOODNIGHT</v>
+        <v>YOUNG</v>
       </c>
       <c r="M105" s="12">
         <f t="shared" si="18"/>
-        <v>2.9803240737237502E-2</v>
+        <v>3.0138888891087845E-2</v>
       </c>
       <c r="N105" s="13">
         <f t="shared" si="25"/>
-        <v>42.916666661622003</v>
+        <v>43.400000003166497</v>
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
@@ -11433,7 +11448,7 @@
       <c r="R105" s="62"/>
       <c r="T105" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:03:18-0600',mode:absolute,to:'2016-05-22 18:50:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:22:14-0600',mode:absolute,to:'2016-05-22 19:10:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="74" t="str">
         <f t="shared" si="28"/>
@@ -11441,59 +11456,59 @@
       </c>
       <c r="V105" s="74">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W105" s="74">
         <f t="shared" si="30"/>
-        <v>4.3799999999999999E-2</v>
+        <v>23.299099999999999</v>
       </c>
       <c r="X105" s="74">
         <f t="shared" si="31"/>
-        <v>23.332100000000001</v>
+        <v>1.41E-2</v>
       </c>
       <c r="Y105" s="74">
         <f t="shared" si="32"/>
-        <v>23.2883</v>
-      </c>
-      <c r="Z105" s="75">
+        <v>23.285</v>
+      </c>
+      <c r="Z105" s="75" t="e">
         <f>VLOOKUP(A105,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>198242</v>
-      </c>
-      <c r="AA105" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA105" s="75" t="e">
         <f>VLOOKUP(A105,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>SIGNAL</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="B106" s="61">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C106" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>173</v>
+        <v>478</v>
       </c>
       <c r="E106" s="30">
-        <v>42512.78696759259</v>
+        <v>42512.752986111111</v>
       </c>
       <c r="F106" s="30">
-        <v>42512.788101851853</v>
+        <v>42512.754363425927</v>
       </c>
       <c r="G106" s="38">
         <v>1</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>99</v>
+        <v>488</v>
       </c>
       <c r="I106" s="30">
-        <v>42512.81763888889</v>
+        <v>42512.784166666665</v>
       </c>
       <c r="J106" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="61" t="str">
         <f t="shared" si="17"/>
@@ -11505,11 +11520,11 @@
       </c>
       <c r="M106" s="12">
         <f t="shared" si="18"/>
-        <v>2.9537037036789116E-2</v>
+        <v>2.9803240737237502E-2</v>
       </c>
       <c r="N106" s="13">
         <f t="shared" si="25"/>
-        <v>42.533333332976326</v>
+        <v>42.916666661622003</v>
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
@@ -11517,7 +11532,7 @@
       <c r="R106" s="62"/>
       <c r="T106" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:52:14-0600',mode:absolute,to:'2016-05-22 19:38:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:03:18-0600',mode:absolute,to:'2016-05-22 18:50:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="74" t="str">
         <f t="shared" si="28"/>
@@ -11525,75 +11540,75 @@
       </c>
       <c r="V106" s="74">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W106" s="74">
         <f t="shared" si="30"/>
-        <v>23.300599999999999</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="X106" s="74">
         <f t="shared" si="31"/>
-        <v>1.47E-2</v>
+        <v>23.332100000000001</v>
       </c>
       <c r="Y106" s="74">
         <f t="shared" si="32"/>
-        <v>23.285899999999998</v>
-      </c>
-      <c r="Z106" s="75" t="e">
+        <v>23.2883</v>
+      </c>
+      <c r="Z106" s="75">
         <f>VLOOKUP(A106,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA106" s="75" t="e">
+        <v>198242</v>
+      </c>
+      <c r="AA106" s="75" t="str">
         <f>VLOOKUP(A106,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>SIGNAL</v>
       </c>
     </row>
     <row r="107" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
-        <v>370</v>
+        <v>489</v>
       </c>
       <c r="B107" s="61">
-        <v>4011</v>
+        <v>4017</v>
       </c>
       <c r="C107" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D107" s="61" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E107" s="30">
-        <v>42512.759328703702</v>
+        <v>42512.78696759259</v>
       </c>
       <c r="F107" s="30">
-        <v>42512.760659722226</v>
+        <v>42512.788101851853</v>
       </c>
       <c r="G107" s="38">
         <v>1</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>417</v>
+        <v>99</v>
       </c>
       <c r="I107" s="30">
-        <v>42512.794293981482</v>
+        <v>42512.81763888889</v>
       </c>
       <c r="J107" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4011/4012</v>
+        <v>4017/4018</v>
       </c>
       <c r="L107" s="61" t="str">
         <f>VLOOKUP(A107,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>GOODNIGHT</v>
       </c>
       <c r="M107" s="12">
         <f t="shared" si="18"/>
-        <v>3.3634259256359655E-2</v>
+        <v>2.9537037036789116E-2</v>
       </c>
       <c r="N107" s="13">
         <f t="shared" si="25"/>
-        <v>48.433333329157904</v>
+        <v>42.533333332976326</v>
       </c>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
@@ -11601,7 +11616,7 @@
       <c r="R107" s="62"/>
       <c r="T107" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:12:26-0600',mode:absolute,to:'2016-05-22 19:04:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:52:14-0600',mode:absolute,to:'2016-05-22 19:38:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="74" t="str">
         <f t="shared" si="28"/>
@@ -11613,52 +11628,52 @@
       </c>
       <c r="W107" s="74">
         <f t="shared" si="30"/>
-        <v>4.4699999999999997E-2</v>
+        <v>23.300599999999999</v>
       </c>
       <c r="X107" s="74">
         <f t="shared" si="31"/>
-        <v>23.329799999999999</v>
+        <v>1.47E-2</v>
       </c>
       <c r="Y107" s="74">
         <f t="shared" si="32"/>
-        <v>23.2851</v>
-      </c>
-      <c r="Z107" s="75">
+        <v>23.285899999999998</v>
+      </c>
+      <c r="Z107" s="75" t="e">
         <f>VLOOKUP(A107,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>53155</v>
-      </c>
-      <c r="AA107" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA107" s="75" t="e">
         <f>VLOOKUP(A107,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>GRADE CROSSING</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B108" s="61">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C108" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D108" s="61" t="s">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="E108" s="30">
-        <v>42512.800138888888</v>
+        <v>42512.759328703702</v>
       </c>
       <c r="F108" s="30">
-        <v>42512.800891203704</v>
+        <v>42512.760659722226</v>
       </c>
       <c r="G108" s="38">
         <v>1</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="I108" s="30">
-        <v>42512.82916666667</v>
+        <v>42512.794293981482</v>
       </c>
       <c r="J108" s="61">
         <v>1</v>
@@ -11673,11 +11688,11 @@
       </c>
       <c r="M108" s="12">
         <f t="shared" si="18"/>
-        <v>2.8275462966121268E-2</v>
+        <v>3.3634259256359655E-2</v>
       </c>
       <c r="N108" s="13">
         <f t="shared" si="25"/>
-        <v>40.716666671214625</v>
+        <v>48.433333329157904</v>
       </c>
       <c r="O108" s="13"/>
       <c r="P108" s="13"/>
@@ -11685,7 +11700,7 @@
       <c r="R108" s="62"/>
       <c r="T108" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:12-0600',mode:absolute,to:'2016-05-22 19:55:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:12:26-0600',mode:absolute,to:'2016-05-22 19:04:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="74" t="str">
         <f t="shared" si="28"/>
@@ -11697,87 +11712,83 @@
       </c>
       <c r="W108" s="74">
         <f t="shared" si="30"/>
-        <v>23.299099999999999</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="X108" s="74">
         <f t="shared" si="31"/>
-        <v>2.1399999999999999E-2</v>
+        <v>23.329799999999999</v>
       </c>
       <c r="Y108" s="74">
         <f t="shared" si="32"/>
-        <v>23.277699999999999</v>
+        <v>23.2851</v>
       </c>
       <c r="Z108" s="75">
         <f>VLOOKUP(A108,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>1</v>
+        <v>53155</v>
       </c>
       <c r="AA108" s="75" t="str">
         <f>VLOOKUP(A108,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>GRADE CROSSING</v>
       </c>
     </row>
     <row r="109" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
-        <v>491</v>
+        <v>372</v>
       </c>
       <c r="B109" s="61">
-        <v>4042</v>
+        <v>4012</v>
       </c>
       <c r="C109" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D109" s="61" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="E109" s="30">
-        <v>42512.766898148147</v>
+        <v>42512.800138888888</v>
       </c>
       <c r="F109" s="30">
-        <v>42512.768136574072</v>
+        <v>42512.800891203704</v>
       </c>
       <c r="G109" s="38">
         <v>1</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>158</v>
+        <v>490</v>
       </c>
       <c r="I109" s="30">
-        <v>42512.769328703704</v>
+        <v>42512.82916666667</v>
       </c>
       <c r="J109" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4041/4042</v>
+        <v>4011/4012</v>
       </c>
       <c r="L109" s="61" t="str">
         <f>VLOOKUP(A109,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>HELVIE</v>
       </c>
       <c r="M109" s="12">
         <f t="shared" si="18"/>
-        <v>1.1921296318178065E-3</v>
-      </c>
-      <c r="N109" s="13"/>
+        <v>2.8275462966121268E-2</v>
+      </c>
+      <c r="N109" s="13">
+        <f t="shared" si="25"/>
+        <v>40.716666671214625</v>
+      </c>
       <c r="O109" s="13"/>
-      <c r="P109" s="13">
-        <f t="shared" ref="P109" si="33">24*60*SUM($M109:$M109)</f>
-        <v>1.7166666698176414</v>
-      </c>
-      <c r="Q109" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="R109" s="62" t="s">
-        <v>538</v>
-      </c>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="62"/>
+      <c r="R109" s="62"/>
       <c r="T109" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:23:20-0600',mode:absolute,to:'2016-05-22 18:28:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:12-0600',mode:absolute,to:'2016-05-22 19:55:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="74" t="str">
         <f t="shared" si="28"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="V109" s="74">
         <f t="shared" si="29"/>
@@ -11785,52 +11796,52 @@
       </c>
       <c r="W109" s="74">
         <f t="shared" si="30"/>
-        <v>4.5699999999999998E-2</v>
+        <v>23.299099999999999</v>
       </c>
       <c r="X109" s="74">
         <f t="shared" si="31"/>
-        <v>4.6600000000000003E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="Y109" s="74">
         <f t="shared" si="32"/>
-        <v>9.0000000000000496E-4</v>
-      </c>
-      <c r="Z109" s="75" t="e">
+        <v>23.277699999999999</v>
+      </c>
+      <c r="Z109" s="75">
         <f>VLOOKUP(A109,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA109" s="75" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA109" s="75" t="str">
         <f>VLOOKUP(A109,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="110" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B110" s="61">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="C110" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D110" s="61" t="s">
-        <v>87</v>
+        <v>324</v>
       </c>
       <c r="E110" s="30">
-        <v>42512.803576388891</v>
+        <v>42512.766898148147</v>
       </c>
       <c r="F110" s="30">
-        <v>42512.804976851854</v>
+        <v>42512.768136574072</v>
       </c>
       <c r="G110" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" s="30" t="s">
-        <v>493</v>
+        <v>158</v>
       </c>
       <c r="I110" s="30">
-        <v>42512.836724537039</v>
+        <v>42512.769328703704</v>
       </c>
       <c r="J110" s="61">
         <v>0</v>
@@ -11845,23 +11856,27 @@
       </c>
       <c r="M110" s="12">
         <f t="shared" si="18"/>
-        <v>3.1747685185109731E-2</v>
-      </c>
-      <c r="N110" s="13">
-        <f t="shared" si="25"/>
-        <v>45.716666666558012</v>
-      </c>
+        <v>1.1921296318178065E-3</v>
+      </c>
+      <c r="N110" s="13"/>
       <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="62"/>
-      <c r="R110" s="62"/>
+      <c r="P110" s="13">
+        <f t="shared" ref="P110" si="33">24*60*SUM($M110:$M110)</f>
+        <v>1.7166666698176414</v>
+      </c>
+      <c r="Q110" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="R110" s="62" t="s">
+        <v>538</v>
+      </c>
       <c r="T110" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:16:09-0600',mode:absolute,to:'2016-05-22 20:05:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:23:20-0600',mode:absolute,to:'2016-05-22 18:28:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="74" t="str">
         <f t="shared" si="28"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="V110" s="74">
         <f t="shared" si="29"/>
@@ -11869,15 +11884,15 @@
       </c>
       <c r="W110" s="74">
         <f t="shared" si="30"/>
-        <v>23.297999999999998</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="X110" s="74">
         <f t="shared" si="31"/>
-        <v>0.17269999999999999</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="Y110" s="74">
         <f t="shared" si="32"/>
-        <v>23.125299999999999</v>
+        <v>9.0000000000000496E-4</v>
       </c>
       <c r="Z110" s="75" t="e">
         <f>VLOOKUP(A110,Enforcements!$C$3:$J$55,8,0)</f>
@@ -11890,50 +11905,50 @@
     </row>
     <row r="111" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B111" s="61">
-        <v>4007</v>
+        <v>4041</v>
       </c>
       <c r="C111" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D111" s="61" t="s">
-        <v>313</v>
+        <v>87</v>
       </c>
       <c r="E111" s="30">
-        <v>42512.789340277777</v>
+        <v>42512.803576388891</v>
       </c>
       <c r="F111" s="30">
-        <v>42512.790300925924</v>
+        <v>42512.804976851854</v>
       </c>
       <c r="G111" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" s="30" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
       <c r="I111" s="30">
-        <v>42512.817789351851</v>
+        <v>42512.836724537039</v>
       </c>
       <c r="J111" s="61">
         <v>0</v>
       </c>
       <c r="K111" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4007/4008</v>
+        <v>4041/4042</v>
       </c>
       <c r="L111" s="61" t="str">
         <f>VLOOKUP(A111,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>JACKSON</v>
+        <v>BARTLETT</v>
       </c>
       <c r="M111" s="12">
         <f t="shared" si="18"/>
-        <v>2.7488425927003846E-2</v>
+        <v>3.1747685185109731E-2</v>
       </c>
       <c r="N111" s="13">
         <f t="shared" si="25"/>
-        <v>39.583333334885538</v>
+        <v>45.716666666558012</v>
       </c>
       <c r="O111" s="13"/>
       <c r="P111" s="13"/>
@@ -11941,7 +11956,7 @@
       <c r="R111" s="62"/>
       <c r="T111" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:55:39-0600',mode:absolute,to:'2016-05-22 19:38:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:16:09-0600',mode:absolute,to:'2016-05-22 20:05:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="74" t="str">
         <f t="shared" si="28"/>
@@ -11953,15 +11968,15 @@
       </c>
       <c r="W111" s="74">
         <f t="shared" si="30"/>
-        <v>4.7100000000000003E-2</v>
+        <v>23.297999999999998</v>
       </c>
       <c r="X111" s="74">
         <f t="shared" si="31"/>
-        <v>23.328900000000001</v>
+        <v>0.17269999999999999</v>
       </c>
       <c r="Y111" s="74">
         <f t="shared" si="32"/>
-        <v>23.2818</v>
+        <v>23.125299999999999</v>
       </c>
       <c r="Z111" s="75" t="e">
         <f>VLOOKUP(A111,Enforcements!$C$3:$J$55,8,0)</f>
@@ -11974,50 +11989,50 @@
     </row>
     <row r="112" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B112" s="61">
-        <v>4031</v>
+        <v>4007</v>
       </c>
       <c r="C112" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D112" s="61" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="E112" s="30">
-        <v>42512.800185185188</v>
+        <v>42512.789340277777</v>
       </c>
       <c r="F112" s="30">
-        <v>42512.801238425927</v>
+        <v>42512.790300925924</v>
       </c>
       <c r="G112" s="38">
         <v>1</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I112" s="30">
-        <v>42512.842280092591</v>
+        <v>42512.817789351851</v>
       </c>
       <c r="J112" s="61">
         <v>0</v>
       </c>
       <c r="K112" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4031/4032</v>
+        <v>4007/4008</v>
       </c>
       <c r="L112" s="61" t="str">
         <f>VLOOKUP(A112,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YOUNG</v>
+        <v>JACKSON</v>
       </c>
       <c r="M112" s="12">
         <f t="shared" si="18"/>
-        <v>4.1041666663659271E-2</v>
+        <v>2.7488425927003846E-2</v>
       </c>
       <c r="N112" s="13">
         <f t="shared" si="25"/>
-        <v>59.09999999566935</v>
+        <v>39.583333334885538</v>
       </c>
       <c r="O112" s="13"/>
       <c r="P112" s="13"/>
@@ -12025,7 +12040,7 @@
       <c r="R112" s="62"/>
       <c r="T112" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:16-0600',mode:absolute,to:'2016-05-22 20:13:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:55:39-0600',mode:absolute,to:'2016-05-22 19:38:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="74" t="str">
         <f t="shared" si="28"/>
@@ -12033,19 +12048,19 @@
       </c>
       <c r="V112" s="74">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W112" s="74">
         <f t="shared" si="30"/>
-        <v>4.8399999999999999E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="X112" s="74">
         <f t="shared" si="31"/>
-        <v>23.327200000000001</v>
+        <v>23.328900000000001</v>
       </c>
       <c r="Y112" s="74">
         <f t="shared" si="32"/>
-        <v>23.2788</v>
+        <v>23.2818</v>
       </c>
       <c r="Z112" s="75" t="e">
         <f>VLOOKUP(A112,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12058,31 +12073,31 @@
     </row>
     <row r="113" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B113" s="61">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="C113" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D113" s="61" t="s">
-        <v>406</v>
+        <v>168</v>
       </c>
       <c r="E113" s="30">
-        <v>42512.849050925928</v>
+        <v>42512.800185185188</v>
       </c>
       <c r="F113" s="30">
-        <v>42512.851689814815</v>
+        <v>42512.801238425927</v>
       </c>
       <c r="G113" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="I113" s="30">
-        <v>42512.886064814818</v>
+        <v>42512.842280092591</v>
       </c>
       <c r="J113" s="61">
         <v>0</v>
@@ -12097,11 +12112,11 @@
       </c>
       <c r="M113" s="12">
         <f t="shared" si="18"/>
-        <v>3.4375000002910383E-2</v>
+        <v>4.1041666663659271E-2</v>
       </c>
       <c r="N113" s="13">
         <f t="shared" si="25"/>
-        <v>49.500000004190952</v>
+        <v>59.09999999566935</v>
       </c>
       <c r="O113" s="13"/>
       <c r="P113" s="13"/>
@@ -12109,7 +12124,7 @@
       <c r="R113" s="62"/>
       <c r="T113" s="74" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:21:38-0600',mode:absolute,to:'2016-05-22 21:16:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:16-0600',mode:absolute,to:'2016-05-22 20:13:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="74" t="str">
         <f t="shared" si="28"/>
@@ -12117,19 +12132,19 @@
       </c>
       <c r="V113" s="74">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W113" s="74">
         <f t="shared" si="30"/>
-        <v>23.2974</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="X113" s="74">
         <f t="shared" si="31"/>
-        <v>1.4500000000000001E-2</v>
+        <v>23.327200000000001</v>
       </c>
       <c r="Y113" s="74">
         <f t="shared" si="32"/>
-        <v>23.282899999999998</v>
+        <v>23.2788</v>
       </c>
       <c r="Z113" s="75" t="e">
         <f>VLOOKUP(A113,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12142,78 +12157,78 @@
     </row>
     <row r="114" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B114" s="61">
-        <v>4011</v>
+        <v>4032</v>
       </c>
       <c r="C114" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D114" s="61" t="s">
-        <v>498</v>
+        <v>406</v>
       </c>
       <c r="E114" s="30">
-        <v>42512.831087962964</v>
+        <v>42512.849050925928</v>
       </c>
       <c r="F114" s="30">
-        <v>42512.83221064815</v>
+        <v>42512.851689814815</v>
       </c>
       <c r="G114" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I114" s="30">
-        <v>42512.862893518519</v>
+        <v>42512.886064814818</v>
       </c>
       <c r="J114" s="61">
         <v>0</v>
       </c>
       <c r="K114" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4011/4012</v>
+        <v>4031/4032</v>
       </c>
       <c r="L114" s="61" t="str">
         <f>VLOOKUP(A114,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>YOUNG</v>
       </c>
       <c r="M114" s="12">
         <f t="shared" si="18"/>
-        <v>3.068287036876427E-2</v>
+        <v>3.4375000002910383E-2</v>
       </c>
       <c r="N114" s="13">
         <f t="shared" si="25"/>
-        <v>44.183333331020549</v>
+        <v>49.500000004190952</v>
       </c>
       <c r="O114" s="13"/>
       <c r="P114" s="13"/>
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
       <c r="T114" s="74" t="str">
-        <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:55:46-0600',mode:absolute,to:'2016-05-22 20:43:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="27"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:21:38-0600',mode:absolute,to:'2016-05-22 21:16:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V114" s="74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="W114" s="74">
-        <f t="shared" si="22"/>
-        <v>5.1900000000000002E-2</v>
+        <f t="shared" si="30"/>
+        <v>23.2974</v>
       </c>
       <c r="X114" s="74">
-        <f t="shared" si="23"/>
-        <v>23.331</v>
+        <f t="shared" si="31"/>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y114" s="74">
-        <f t="shared" si="24"/>
-        <v>23.2791</v>
+        <f t="shared" si="32"/>
+        <v>23.282899999999998</v>
       </c>
       <c r="Z114" s="75" t="e">
         <f>VLOOKUP(A114,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12226,31 +12241,31 @@
     </row>
     <row r="115" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B115" s="61">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C115" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D115" s="61" t="s">
-        <v>149</v>
+        <v>498</v>
       </c>
       <c r="E115" s="30">
-        <v>42512.868495370371</v>
+        <v>42512.831087962964</v>
       </c>
       <c r="F115" s="30">
-        <v>42512.869155092594</v>
+        <v>42512.83221064815</v>
       </c>
       <c r="G115" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I115" s="30">
-        <v>42512.902870370373</v>
+        <v>42512.862893518519</v>
       </c>
       <c r="J115" s="61">
         <v>0</v>
@@ -12265,11 +12280,11 @@
       </c>
       <c r="M115" s="12">
         <f t="shared" si="18"/>
-        <v>3.3715277779265307E-2</v>
+        <v>3.068287036876427E-2</v>
       </c>
       <c r="N115" s="13">
         <f t="shared" si="25"/>
-        <v>48.550000002142042</v>
+        <v>44.183333331020549</v>
       </c>
       <c r="O115" s="13"/>
       <c r="P115" s="13"/>
@@ -12277,7 +12292,7 @@
       <c r="R115" s="62"/>
       <c r="T115" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:49:38-0600',mode:absolute,to:'2016-05-22 21:41:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:55:46-0600',mode:absolute,to:'2016-05-22 20:43:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="74" t="str">
         <f t="shared" si="20"/>
@@ -12289,15 +12304,15 @@
       </c>
       <c r="W115" s="74">
         <f t="shared" si="22"/>
-        <v>23.299299999999999</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="X115" s="74">
         <f t="shared" si="23"/>
-        <v>1.54E-2</v>
+        <v>23.331</v>
       </c>
       <c r="Y115" s="74">
         <f t="shared" si="24"/>
-        <v>23.283899999999999</v>
+        <v>23.2791</v>
       </c>
       <c r="Z115" s="75" t="e">
         <f>VLOOKUP(A115,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12310,50 +12325,50 @@
     </row>
     <row r="116" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B116" s="61">
-        <v>4024</v>
+        <v>4012</v>
       </c>
       <c r="C116" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D116" s="61" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="E116" s="30">
-        <v>42512.844270833331</v>
+        <v>42512.868495370371</v>
       </c>
       <c r="F116" s="30">
-        <v>42512.845462962963</v>
+        <v>42512.869155092594</v>
       </c>
       <c r="G116" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>501</v>
+        <v>73</v>
       </c>
       <c r="I116" s="30">
-        <v>42512.881655092591</v>
+        <v>42512.902870370373</v>
       </c>
       <c r="J116" s="61">
         <v>0</v>
       </c>
       <c r="K116" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="L116" s="61" t="str">
         <f>VLOOKUP(A116,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>HELVIE</v>
       </c>
       <c r="M116" s="12">
         <f t="shared" si="18"/>
-        <v>3.6192129628034309E-2</v>
+        <v>3.3715277779265307E-2</v>
       </c>
       <c r="N116" s="13">
         <f t="shared" si="25"/>
-        <v>52.116666664369404</v>
+        <v>48.550000002142042</v>
       </c>
       <c r="O116" s="13"/>
       <c r="P116" s="13"/>
@@ -12361,7 +12376,7 @@
       <c r="R116" s="62"/>
       <c r="T116" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:14:45-0600',mode:absolute,to:'2016-05-22 21:10:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:49:38-0600',mode:absolute,to:'2016-05-22 21:41:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="74" t="str">
         <f t="shared" si="20"/>
@@ -12373,15 +12388,15 @@
       </c>
       <c r="W116" s="74">
         <f t="shared" si="22"/>
-        <v>4.5499999999999999E-2</v>
+        <v>23.299299999999999</v>
       </c>
       <c r="X116" s="74">
         <f t="shared" si="23"/>
-        <v>23.331900000000001</v>
+        <v>1.54E-2</v>
       </c>
       <c r="Y116" s="74">
         <f t="shared" si="24"/>
-        <v>23.2864</v>
+        <v>23.283899999999999</v>
       </c>
       <c r="Z116" s="75" t="e">
         <f>VLOOKUP(A116,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12394,31 +12409,31 @@
     </row>
     <row r="117" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="61" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B117" s="61">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C117" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="E117" s="30">
-        <v>42512.89</v>
+        <v>42512.844270833331</v>
       </c>
       <c r="F117" s="30">
-        <v>42512.890960648147</v>
+        <v>42512.845462962963</v>
       </c>
       <c r="G117" s="38">
         <v>1</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>103</v>
+        <v>501</v>
       </c>
       <c r="I117" s="30">
-        <v>42512.922569444447</v>
+        <v>42512.881655092591</v>
       </c>
       <c r="J117" s="61">
         <v>0</v>
@@ -12433,11 +12448,11 @@
       </c>
       <c r="M117" s="12">
         <f t="shared" si="18"/>
-        <v>3.160879630013369E-2</v>
+        <v>3.6192129628034309E-2</v>
       </c>
       <c r="N117" s="13">
         <f t="shared" si="25"/>
-        <v>45.516666672192514</v>
+        <v>52.116666664369404</v>
       </c>
       <c r="O117" s="13"/>
       <c r="P117" s="13"/>
@@ -12445,7 +12460,7 @@
       <c r="R117" s="62"/>
       <c r="T117" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:20:36-0600',mode:absolute,to:'2016-05-22 22:09:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:14:45-0600',mode:absolute,to:'2016-05-22 21:10:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="74" t="str">
         <f t="shared" si="20"/>
@@ -12457,15 +12472,15 @@
       </c>
       <c r="W117" s="74">
         <f t="shared" si="22"/>
-        <v>23.300799999999999</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="X117" s="74">
         <f t="shared" si="23"/>
-        <v>1.5800000000000002E-2</v>
+        <v>23.331900000000001</v>
       </c>
       <c r="Y117" s="74">
         <f t="shared" si="24"/>
-        <v>23.285</v>
+        <v>23.2864</v>
       </c>
       <c r="Z117" s="75" t="e">
         <f>VLOOKUP(A117,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12478,50 +12493,50 @@
     </row>
     <row r="118" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="61" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B118" s="61">
-        <v>4007</v>
+        <v>4023</v>
       </c>
       <c r="C118" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D118" s="61" t="s">
-        <v>319</v>
+        <v>503</v>
       </c>
       <c r="E118" s="30">
-        <v>42512.870254629626</v>
+        <v>42512.89</v>
       </c>
       <c r="F118" s="30">
-        <v>42512.872060185182</v>
+        <v>42512.890960648147</v>
       </c>
       <c r="G118" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="I118" s="30">
-        <v>42512.903773148151</v>
+        <v>42512.922569444447</v>
       </c>
       <c r="J118" s="61">
         <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4007/4008</v>
+        <v>4023/4024</v>
       </c>
       <c r="L118" s="61" t="str">
         <f>VLOOKUP(A118,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>JACKSON</v>
+        <v>BARTLETT</v>
       </c>
       <c r="M118" s="12">
         <f t="shared" si="18"/>
-        <v>3.1712962969322689E-2</v>
+        <v>3.160879630013369E-2</v>
       </c>
       <c r="N118" s="13">
         <f t="shared" si="25"/>
-        <v>45.666666675824672</v>
+        <v>45.516666672192514</v>
       </c>
       <c r="O118" s="13"/>
       <c r="P118" s="13"/>
@@ -12529,7 +12544,7 @@
       <c r="R118" s="62"/>
       <c r="T118" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:52:10-0600',mode:absolute,to:'2016-05-22 21:42:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:20:36-0600',mode:absolute,to:'2016-05-22 22:09:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="74" t="str">
         <f t="shared" si="20"/>
@@ -12541,15 +12556,15 @@
       </c>
       <c r="W118" s="74">
         <f t="shared" si="22"/>
-        <v>4.3299999999999998E-2</v>
+        <v>23.300799999999999</v>
       </c>
       <c r="X118" s="74">
         <f t="shared" si="23"/>
-        <v>23.331</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y118" s="74">
         <f t="shared" si="24"/>
-        <v>23.287700000000001</v>
+        <v>23.285</v>
       </c>
       <c r="Z118" s="75" t="e">
         <f>VLOOKUP(A118,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12562,31 +12577,31 @@
     </row>
     <row r="119" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B119" s="61">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C119" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D119" s="61" t="s">
-        <v>506</v>
+        <v>319</v>
       </c>
       <c r="E119" s="30">
-        <v>42512.949664351851</v>
+        <v>42512.870254629626</v>
       </c>
       <c r="F119" s="30">
-        <v>42512.950520833336</v>
+        <v>42512.872060185182</v>
       </c>
       <c r="G119" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>506</v>
+        <v>67</v>
       </c>
       <c r="I119" s="30">
-        <v>42512.950520833336</v>
+        <v>42512.903773148151</v>
       </c>
       <c r="J119" s="61">
         <v>0</v>
@@ -12601,27 +12616,23 @@
       </c>
       <c r="M119" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N119" s="13"/>
+        <v>3.1712962969322689E-2</v>
+      </c>
+      <c r="N119" s="13">
+        <f t="shared" si="25"/>
+        <v>45.666666675824672</v>
+      </c>
       <c r="O119" s="13"/>
-      <c r="P119" s="13">
-        <f>24*60*SUM($M119:$M119)+1</f>
-        <v>1</v>
-      </c>
-      <c r="Q119" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="R119" s="62" t="s">
-        <v>543</v>
-      </c>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="62"/>
+      <c r="R119" s="62"/>
       <c r="T119" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:46:31-0600',mode:absolute,to:'2016-05-22 22:49:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:52:10-0600',mode:absolute,to:'2016-05-22 21:42:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="74" t="str">
         <f t="shared" si="20"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="V119" s="74">
         <f t="shared" si="21"/>
@@ -12629,15 +12640,15 @@
       </c>
       <c r="W119" s="74">
         <f t="shared" si="22"/>
-        <v>1.83E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="X119" s="74">
         <f t="shared" si="23"/>
-        <v>1.83E-2</v>
+        <v>23.331</v>
       </c>
       <c r="Y119" s="74">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>23.287700000000001</v>
       </c>
       <c r="Z119" s="75" t="e">
         <f>VLOOKUP(A119,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12650,62 +12661,66 @@
     </row>
     <row r="120" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B120" s="61">
-        <v>4031</v>
+        <v>4008</v>
       </c>
       <c r="C120" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D120" s="61" t="s">
-        <v>154</v>
+        <v>506</v>
       </c>
       <c r="E120" s="30">
-        <v>42512.889351851853</v>
+        <v>42512.949664351851</v>
       </c>
       <c r="F120" s="30">
-        <v>42512.890300925923</v>
+        <v>42512.950520833336</v>
       </c>
       <c r="G120" s="38">
         <v>1</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>123</v>
+        <v>506</v>
       </c>
       <c r="I120" s="30">
-        <v>42512.925856481481</v>
+        <v>42512.950520833336</v>
       </c>
       <c r="J120" s="61">
         <v>0</v>
       </c>
       <c r="K120" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4031/4032</v>
+        <v>4007/4008</v>
       </c>
       <c r="L120" s="61" t="str">
         <f>VLOOKUP(A120,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YOUNG</v>
+        <v>JACKSON</v>
       </c>
       <c r="M120" s="12">
         <f t="shared" si="18"/>
-        <v>3.5555555557948537E-2</v>
-      </c>
-      <c r="N120" s="13">
-        <f t="shared" si="25"/>
-        <v>51.200000003445894</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N120" s="13"/>
       <c r="O120" s="13"/>
-      <c r="P120" s="13"/>
-      <c r="Q120" s="62"/>
-      <c r="R120" s="62"/>
+      <c r="P120" s="13">
+        <f>24*60*SUM($M120:$M120)+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q120" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="R120" s="62" t="s">
+        <v>543</v>
+      </c>
       <c r="T120" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:19:40-0600',mode:absolute,to:'2016-05-22 22:14:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:46:31-0600',mode:absolute,to:'2016-05-22 22:49:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="74" t="str">
         <f t="shared" si="20"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="V120" s="74">
         <f t="shared" si="21"/>
@@ -12713,15 +12728,15 @@
       </c>
       <c r="W120" s="74">
         <f t="shared" si="22"/>
-        <v>4.7699999999999999E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="X120" s="74">
         <f t="shared" si="23"/>
-        <v>23.330200000000001</v>
+        <v>1.83E-2</v>
       </c>
       <c r="Y120" s="74">
         <f t="shared" si="24"/>
-        <v>23.282500000000002</v>
+        <v>0</v>
       </c>
       <c r="Z120" s="75" t="e">
         <f>VLOOKUP(A120,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12734,31 +12749,31 @@
     </row>
     <row r="121" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B121" s="61">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="C121" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E121" s="30">
-        <v>42512.928553240738</v>
+        <v>42512.889351851853</v>
       </c>
       <c r="F121" s="30">
-        <v>42512.929560185185</v>
+        <v>42512.890300925923</v>
       </c>
       <c r="G121" s="38">
         <v>1</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="I121" s="30">
-        <v>42512.975324074076</v>
+        <v>42512.925856481481</v>
       </c>
       <c r="J121" s="61">
         <v>0</v>
@@ -12773,11 +12788,11 @@
       </c>
       <c r="M121" s="12">
         <f t="shared" si="18"/>
-        <v>4.5763888891087845E-2</v>
+        <v>3.5555555557948537E-2</v>
       </c>
       <c r="N121" s="13">
         <f t="shared" si="25"/>
-        <v>65.900000003166497</v>
+        <v>51.200000003445894</v>
       </c>
       <c r="O121" s="13"/>
       <c r="P121" s="13"/>
@@ -12785,7 +12800,7 @@
       <c r="R121" s="62"/>
       <c r="T121" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:16:07-0600',mode:absolute,to:'2016-05-22 23:25:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:19:40-0600',mode:absolute,to:'2016-05-22 22:14:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="74" t="str">
         <f t="shared" si="20"/>
@@ -12797,15 +12812,15 @@
       </c>
       <c r="W121" s="74">
         <f t="shared" si="22"/>
-        <v>23.297699999999999</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="X121" s="74">
         <f t="shared" si="23"/>
-        <v>1.52E-2</v>
+        <v>23.330200000000001</v>
       </c>
       <c r="Y121" s="74">
         <f t="shared" si="24"/>
-        <v>23.282499999999999</v>
+        <v>23.282500000000002</v>
       </c>
       <c r="Z121" s="75" t="e">
         <f>VLOOKUP(A121,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12818,50 +12833,50 @@
     </row>
     <row r="122" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B122" s="61">
-        <v>4011</v>
+        <v>4032</v>
       </c>
       <c r="C122" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E122" s="30">
-        <v>42512.910798611112</v>
+        <v>42512.928553240738</v>
       </c>
       <c r="F122" s="30">
-        <v>42512.911944444444</v>
+        <v>42512.929560185185</v>
       </c>
       <c r="G122" s="38">
         <v>1</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="I122" s="30">
-        <v>42512.943043981482</v>
+        <v>42512.975324074076</v>
       </c>
       <c r="J122" s="61">
         <v>0</v>
       </c>
       <c r="K122" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4011/4012</v>
+        <v>4031/4032</v>
       </c>
       <c r="L122" s="61" t="str">
         <f>VLOOKUP(A122,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>YOUNG</v>
       </c>
       <c r="M122" s="12">
         <f t="shared" si="18"/>
-        <v>3.1099537038244307E-2</v>
+        <v>4.5763888891087845E-2</v>
       </c>
       <c r="N122" s="13">
         <f t="shared" si="25"/>
-        <v>44.783333335071802</v>
+        <v>65.900000003166497</v>
       </c>
       <c r="O122" s="13"/>
       <c r="P122" s="13"/>
@@ -12869,7 +12884,7 @@
       <c r="R122" s="62"/>
       <c r="T122" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:50:33-0600',mode:absolute,to:'2016-05-22 22:38:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:16:07-0600',mode:absolute,to:'2016-05-22 23:25:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="74" t="str">
         <f t="shared" si="20"/>
@@ -12881,15 +12896,15 @@
       </c>
       <c r="W122" s="74">
         <f t="shared" si="22"/>
-        <v>4.6199999999999998E-2</v>
+        <v>23.297699999999999</v>
       </c>
       <c r="X122" s="74">
         <f t="shared" si="23"/>
-        <v>23.329799999999999</v>
+        <v>1.52E-2</v>
       </c>
       <c r="Y122" s="74">
         <f t="shared" si="24"/>
-        <v>23.2836</v>
+        <v>23.282499999999999</v>
       </c>
       <c r="Z122" s="75" t="e">
         <f>VLOOKUP(A122,Enforcements!$C$3:$J$55,8,0)</f>
@@ -12902,34 +12917,34 @@
     </row>
     <row r="123" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
-        <v>373</v>
+        <v>509</v>
       </c>
       <c r="B123" s="61">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C123" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E123" s="30">
-        <v>42512.951006944444</v>
+        <v>42512.910798611112</v>
       </c>
       <c r="F123" s="30">
-        <v>42512.952118055553</v>
+        <v>42512.911944444444</v>
       </c>
       <c r="G123" s="38">
         <v>1</v>
       </c>
       <c r="H123" s="30" t="s">
-        <v>326</v>
+        <v>417</v>
       </c>
       <c r="I123" s="30">
-        <v>42512.991736111115</v>
+        <v>42512.943043981482</v>
       </c>
       <c r="J123" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="61" t="str">
         <f t="shared" si="17"/>
@@ -12941,11 +12956,11 @@
       </c>
       <c r="M123" s="12">
         <f t="shared" si="18"/>
-        <v>3.9618055561732035E-2</v>
+        <v>3.1099537038244307E-2</v>
       </c>
       <c r="N123" s="13">
         <f t="shared" si="25"/>
-        <v>57.050000008894131</v>
+        <v>44.783333335071802</v>
       </c>
       <c r="O123" s="13"/>
       <c r="P123" s="13"/>
@@ -12953,7 +12968,7 @@
       <c r="R123" s="62"/>
       <c r="T123" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:48:27-0600',mode:absolute,to:'2016-05-22 23:49:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:50:33-0600',mode:absolute,to:'2016-05-22 22:38:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="74" t="str">
         <f t="shared" si="20"/>
@@ -12965,83 +12980,79 @@
       </c>
       <c r="W123" s="74">
         <f t="shared" si="22"/>
-        <v>23.298100000000002</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="X123" s="74">
         <f t="shared" si="23"/>
-        <v>3.8899999999999997E-2</v>
+        <v>23.329799999999999</v>
       </c>
       <c r="Y123" s="74">
         <f t="shared" si="24"/>
-        <v>23.2592</v>
-      </c>
-      <c r="Z123" s="75">
+        <v>23.2836</v>
+      </c>
+      <c r="Z123" s="75" t="e">
         <f>VLOOKUP(A123,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AA123" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA123" s="75" t="e">
         <f>VLOOKUP(A123,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
-        <v>510</v>
+        <v>373</v>
       </c>
       <c r="B124" s="61">
-        <v>4024</v>
+        <v>4012</v>
       </c>
       <c r="C124" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>430</v>
+        <v>167</v>
       </c>
       <c r="E124" s="30">
-        <v>42512.92659722222</v>
+        <v>42512.951006944444</v>
       </c>
       <c r="F124" s="30">
-        <v>42512.927766203706</v>
+        <v>42512.952118055553</v>
       </c>
       <c r="G124" s="38">
         <v>1</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="I124" s="30">
-        <v>42512.938784722224</v>
+        <v>42512.991736111115</v>
       </c>
       <c r="J124" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4023/4024</v>
+        <v>4011/4012</v>
       </c>
       <c r="L124" s="61" t="str">
         <f>VLOOKUP(A124,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>HELVIE</v>
       </c>
       <c r="M124" s="12">
         <f t="shared" si="18"/>
-        <v>1.1018518518540077E-2</v>
-      </c>
-      <c r="N124" s="13"/>
+        <v>3.9618055561732035E-2</v>
+      </c>
+      <c r="N124" s="13">
+        <f t="shared" si="25"/>
+        <v>57.050000008894131</v>
+      </c>
       <c r="O124" s="13"/>
-      <c r="P124" s="13">
-        <f>24*60*SUM($M124:$M124)+1</f>
-        <v>16.866666666697711</v>
-      </c>
-      <c r="Q124" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="R124" s="62" t="s">
-        <v>538</v>
-      </c>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="62"/>
+      <c r="R124" s="62"/>
       <c r="T124" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:13:18-0600',mode:absolute,to:'2016-05-22 22:32:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:48:27-0600',mode:absolute,to:'2016-05-22 23:49:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="74" t="str">
         <f t="shared" si="20"/>
@@ -13053,52 +13064,52 @@
       </c>
       <c r="W124" s="74">
         <f t="shared" si="22"/>
-        <v>4.8000000000000001E-2</v>
+        <v>23.298100000000002</v>
       </c>
       <c r="X124" s="74">
         <f t="shared" si="23"/>
-        <v>23.330400000000001</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="Y124" s="74">
         <f t="shared" si="24"/>
-        <v>23.282400000000003</v>
-      </c>
-      <c r="Z124" s="75" t="e">
+        <v>23.2592</v>
+      </c>
+      <c r="Z124" s="75">
         <f>VLOOKUP(A124,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA124" s="75" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="75" t="str">
         <f>VLOOKUP(A124,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
     <row r="125" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B125" s="61">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C125" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>512</v>
+        <v>430</v>
       </c>
       <c r="E125" s="30">
-        <v>42512.971354166664</v>
+        <v>42512.92659722222</v>
       </c>
       <c r="F125" s="30">
-        <v>42512.973749999997</v>
+        <v>42512.927766203706</v>
       </c>
       <c r="G125" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="I125" s="30">
-        <v>42513.007870370369</v>
+        <v>42512.938784722224</v>
       </c>
       <c r="J125" s="61">
         <v>0</v>
@@ -13113,19 +13124,23 @@
       </c>
       <c r="M125" s="12">
         <f t="shared" si="18"/>
-        <v>3.4120370371965691E-2</v>
-      </c>
-      <c r="N125" s="13">
-        <f t="shared" si="25"/>
-        <v>49.133333335630596</v>
-      </c>
+        <v>1.1018518518540077E-2</v>
+      </c>
+      <c r="N125" s="13"/>
       <c r="O125" s="13"/>
-      <c r="P125" s="13"/>
-      <c r="Q125" s="62"/>
-      <c r="R125" s="62"/>
+      <c r="P125" s="13">
+        <f>24*60*SUM($M125:$M125)+1</f>
+        <v>16.866666666697711</v>
+      </c>
+      <c r="Q125" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="R125" s="62" t="s">
+        <v>538</v>
+      </c>
       <c r="T125" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:17:45-0600',mode:absolute,to:'2016-05-23 00:12:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:13:18-0600',mode:absolute,to:'2016-05-22 22:32:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="74" t="str">
         <f t="shared" si="20"/>
@@ -13137,15 +13152,15 @@
       </c>
       <c r="W125" s="74">
         <f t="shared" si="22"/>
-        <v>23.300999999999998</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="X125" s="74">
         <f t="shared" si="23"/>
-        <v>1.41E-2</v>
+        <v>23.330400000000001</v>
       </c>
       <c r="Y125" s="74">
         <f t="shared" si="24"/>
-        <v>23.286899999999999</v>
+        <v>23.282400000000003</v>
       </c>
       <c r="Z125" s="75" t="e">
         <f>VLOOKUP(A125,Enforcements!$C$3:$J$55,8,0)</f>
@@ -13158,50 +13173,50 @@
     </row>
     <row r="126" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B126" s="61">
-        <v>4007</v>
+        <v>4023</v>
       </c>
       <c r="C126" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="E126" s="30">
-        <v>42512.952256944445</v>
+        <v>42512.971354166664</v>
       </c>
       <c r="F126" s="30">
-        <v>42512.953206018516</v>
+        <v>42512.973749999997</v>
       </c>
       <c r="G126" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>501</v>
+        <v>94</v>
       </c>
       <c r="I126" s="30">
-        <v>42512.993703703702</v>
+        <v>42513.007870370369</v>
       </c>
       <c r="J126" s="61">
         <v>0</v>
       </c>
       <c r="K126" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4007/4008</v>
+        <v>4023/4024</v>
       </c>
       <c r="L126" s="61" t="str">
         <f>VLOOKUP(A126,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>JACKSON</v>
+        <v>BARTLETT</v>
       </c>
       <c r="M126" s="12">
         <f t="shared" si="18"/>
-        <v>4.0497685185982846E-2</v>
+        <v>3.4120370371965691E-2</v>
       </c>
       <c r="N126" s="13">
         <f t="shared" si="25"/>
-        <v>58.316666667815298</v>
+        <v>49.133333335630596</v>
       </c>
       <c r="O126" s="13"/>
       <c r="P126" s="13"/>
@@ -13209,7 +13224,7 @@
       <c r="R126" s="62"/>
       <c r="T126" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:50:15-0600',mode:absolute,to:'2016-05-22 23:51:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:17:45-0600',mode:absolute,to:'2016-05-23 00:12:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="74" t="str">
         <f t="shared" si="20"/>
@@ -13221,15 +13236,15 @@
       </c>
       <c r="W126" s="74">
         <f t="shared" si="22"/>
-        <v>4.6699999999999998E-2</v>
+        <v>23.300999999999998</v>
       </c>
       <c r="X126" s="74">
         <f t="shared" si="23"/>
-        <v>23.331900000000001</v>
+        <v>1.41E-2</v>
       </c>
       <c r="Y126" s="74">
         <f t="shared" si="24"/>
-        <v>23.2852</v>
+        <v>23.286899999999999</v>
       </c>
       <c r="Z126" s="75" t="e">
         <f>VLOOKUP(A126,Enforcements!$C$3:$J$55,8,0)</f>
@@ -13242,31 +13257,31 @@
     </row>
     <row r="127" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B127" s="61">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C127" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>315</v>
+        <v>104</v>
       </c>
       <c r="E127" s="30">
-        <v>42512.996446759258</v>
+        <v>42512.952256944445</v>
       </c>
       <c r="F127" s="30">
-        <v>42512.997395833336</v>
+        <v>42512.953206018516</v>
       </c>
       <c r="G127" s="38">
         <v>1</v>
       </c>
       <c r="H127" s="30" t="s">
-        <v>75</v>
+        <v>501</v>
       </c>
       <c r="I127" s="30">
-        <v>42513.031192129631</v>
+        <v>42512.993703703702</v>
       </c>
       <c r="J127" s="61">
         <v>0</v>
@@ -13281,11 +13296,11 @@
       </c>
       <c r="M127" s="12">
         <f t="shared" si="18"/>
-        <v>3.3796296294895001E-2</v>
+        <v>4.0497685185982846E-2</v>
       </c>
       <c r="N127" s="13">
         <f t="shared" si="25"/>
-        <v>48.666666664648801</v>
+        <v>58.316666667815298</v>
       </c>
       <c r="O127" s="13"/>
       <c r="P127" s="13"/>
@@ -13293,7 +13308,7 @@
       <c r="R127" s="62"/>
       <c r="T127" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:53:53-0600',mode:absolute,to:'2016-05-23 00:45:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:50:15-0600',mode:absolute,to:'2016-05-22 23:51:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="74" t="str">
         <f t="shared" si="20"/>
@@ -13305,15 +13320,15 @@
       </c>
       <c r="W127" s="74">
         <f t="shared" si="22"/>
-        <v>23.298300000000001</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="X127" s="74">
         <f t="shared" si="23"/>
-        <v>1.4500000000000001E-2</v>
+        <v>23.331900000000001</v>
       </c>
       <c r="Y127" s="74">
         <f t="shared" si="24"/>
-        <v>23.283799999999999</v>
+        <v>23.2852</v>
       </c>
       <c r="Z127" s="75" t="e">
         <f>VLOOKUP(A127,Enforcements!$C$3:$J$55,8,0)</f>
@@ -13326,50 +13341,50 @@
     </row>
     <row r="128" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B128" s="61">
-        <v>4031</v>
+        <v>4008</v>
       </c>
       <c r="C128" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="E128" s="30">
-        <v>42512.979363425926</v>
+        <v>42512.996446759258</v>
       </c>
       <c r="F128" s="30">
-        <v>42512.980833333335</v>
+        <v>42512.997395833336</v>
       </c>
       <c r="G128" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" s="30" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="I128" s="30">
-        <v>42513.014618055553</v>
+        <v>42513.031192129631</v>
       </c>
       <c r="J128" s="61">
         <v>0</v>
       </c>
       <c r="K128" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4031/4032</v>
+        <v>4007/4008</v>
       </c>
       <c r="L128" s="61" t="str">
         <f>VLOOKUP(A128,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YOUNG</v>
+        <v>JACKSON</v>
       </c>
       <c r="M128" s="12">
         <f t="shared" si="18"/>
-        <v>3.3784722218115348E-2</v>
+        <v>3.3796296294895001E-2</v>
       </c>
       <c r="N128" s="13">
         <f t="shared" si="25"/>
-        <v>48.649999994086102</v>
+        <v>48.666666664648801</v>
       </c>
       <c r="O128" s="13"/>
       <c r="P128" s="13"/>
@@ -13377,7 +13392,7 @@
       <c r="R128" s="62"/>
       <c r="T128" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:29:17-0600',mode:absolute,to:'2016-05-23 00:22:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:53:53-0600',mode:absolute,to:'2016-05-23 00:45:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="74" t="str">
         <f t="shared" si="20"/>
@@ -13389,15 +13404,15 @@
       </c>
       <c r="W128" s="74">
         <f t="shared" si="22"/>
-        <v>4.5999999999999999E-2</v>
+        <v>23.298300000000001</v>
       </c>
       <c r="X128" s="74">
         <f t="shared" si="23"/>
-        <v>23.331399999999999</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y128" s="74">
         <f t="shared" si="24"/>
-        <v>23.285399999999999</v>
+        <v>23.283799999999999</v>
       </c>
       <c r="Z128" s="75" t="e">
         <f>VLOOKUP(A128,Enforcements!$C$3:$J$55,8,0)</f>
@@ -13410,31 +13425,31 @@
     </row>
     <row r="129" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B129" s="61">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="C129" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E129" s="30">
-        <v>42513.015636574077</v>
+        <v>42512.979363425926</v>
       </c>
       <c r="F129" s="30">
-        <v>42513.016539351855</v>
+        <v>42512.980833333335</v>
       </c>
       <c r="G129" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="I129" s="30">
-        <v>42513.053124999999</v>
+        <v>42513.014618055553</v>
       </c>
       <c r="J129" s="61">
         <v>0</v>
@@ -13449,11 +13464,11 @@
       </c>
       <c r="M129" s="12">
         <f t="shared" si="18"/>
-        <v>3.6585648143955041E-2</v>
+        <v>3.3784722218115348E-2</v>
       </c>
       <c r="N129" s="13">
         <f t="shared" si="25"/>
-        <v>52.683333327295259</v>
+        <v>48.649999994086102</v>
       </c>
       <c r="O129" s="13"/>
       <c r="P129" s="13"/>
@@ -13461,7 +13476,7 @@
       <c r="R129" s="62"/>
       <c r="T129" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:21:31-0600',mode:absolute,to:'2016-05-23 01:17:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:29:17-0600',mode:absolute,to:'2016-05-23 00:22:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="74" t="str">
         <f t="shared" si="20"/>
@@ -13473,15 +13488,15 @@
       </c>
       <c r="W129" s="74">
         <f t="shared" si="22"/>
-        <v>23.299600000000002</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="X129" s="74">
         <f t="shared" si="23"/>
-        <v>1.32E-2</v>
+        <v>23.331399999999999</v>
       </c>
       <c r="Y129" s="74">
         <f t="shared" si="24"/>
-        <v>23.2864</v>
+        <v>23.285399999999999</v>
       </c>
       <c r="Z129" s="75" t="e">
         <f>VLOOKUP(A129,Enforcements!$C$3:$J$55,8,0)</f>
@@ -13494,50 +13509,50 @@
     </row>
     <row r="130" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="61" t="s">
-        <v>374</v>
+        <v>516</v>
       </c>
       <c r="B130" s="61">
-        <v>4011</v>
+        <v>4032</v>
       </c>
       <c r="C130" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>517</v>
+        <v>125</v>
       </c>
       <c r="E130" s="30">
-        <v>42512.995208333334</v>
+        <v>42513.015636574077</v>
       </c>
       <c r="F130" s="30">
-        <v>42512.996400462966</v>
+        <v>42513.016539351855</v>
       </c>
       <c r="G130" s="38">
         <v>1</v>
       </c>
       <c r="H130" s="30" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="I130" s="30">
-        <v>42513.025740740741</v>
+        <v>42513.053124999999</v>
       </c>
       <c r="J130" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>4011/4012</v>
+        <v>4031/4032</v>
       </c>
       <c r="L130" s="61" t="str">
         <f>VLOOKUP(A130,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>YOUNG</v>
       </c>
       <c r="M130" s="12">
         <f t="shared" si="18"/>
-        <v>2.9340277775190771E-2</v>
+        <v>3.6585648143955041E-2</v>
       </c>
       <c r="N130" s="13">
         <f t="shared" si="25"/>
-        <v>42.24999999627471</v>
+        <v>52.683333327295259</v>
       </c>
       <c r="O130" s="13"/>
       <c r="P130" s="13"/>
@@ -13545,7 +13560,7 @@
       <c r="R130" s="62"/>
       <c r="T130" s="74" t="str">
         <f t="shared" si="19"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:52:06-0600',mode:absolute,to:'2016-05-23 00:38:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:21:31-0600',mode:absolute,to:'2016-05-23 01:17:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="74" t="str">
         <f t="shared" si="20"/>
@@ -13557,58 +13572,58 @@
       </c>
       <c r="W130" s="74">
         <f t="shared" si="22"/>
-        <v>6.83E-2</v>
+        <v>23.299600000000002</v>
       </c>
       <c r="X130" s="74">
         <f t="shared" si="23"/>
-        <v>23.329799999999999</v>
+        <v>1.32E-2</v>
       </c>
       <c r="Y130" s="74">
         <f t="shared" si="24"/>
-        <v>23.261499999999998</v>
-      </c>
-      <c r="Z130" s="75">
+        <v>23.2864</v>
+      </c>
+      <c r="Z130" s="75" t="e">
         <f>VLOOKUP(A130,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>230436</v>
-      </c>
-      <c r="AA130" s="75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA130" s="75" t="e">
         <f>VLOOKUP(A130,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>PERMANENT SPEED RESTRICTION</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B131" s="61">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C131" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>74</v>
+        <v>517</v>
       </c>
       <c r="E131" s="30">
-        <v>42513.033726851849</v>
+        <v>42512.995208333334</v>
       </c>
       <c r="F131" s="30">
-        <v>42513.034479166665</v>
+        <v>42512.996400462966</v>
       </c>
       <c r="G131" s="38">
         <v>1</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>103</v>
+        <v>417</v>
       </c>
       <c r="I131" s="30">
-        <v>42513.069953703707</v>
+        <v>42513.025740740741</v>
       </c>
       <c r="J131" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" s="61" t="str">
-        <f t="shared" ref="K131:K133" si="34">IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
+        <f t="shared" si="17"/>
         <v>4011/4012</v>
       </c>
       <c r="L131" s="61" t="str">
@@ -13616,44 +13631,44 @@
         <v>HELVIE</v>
       </c>
       <c r="M131" s="12">
-        <f t="shared" ref="M131:M133" si="35">I131-F131</f>
-        <v>3.5474537042318843E-2</v>
+        <f t="shared" si="18"/>
+        <v>2.9340277775190771E-2</v>
       </c>
       <c r="N131" s="13">
         <f t="shared" si="25"/>
-        <v>51.083333340939134</v>
+        <v>42.24999999627471</v>
       </c>
       <c r="O131" s="13"/>
       <c r="P131" s="13"/>
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
       <c r="T131" s="74" t="str">
-        <f t="shared" ref="T131:T133" si="36">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:47:34-0600',mode:absolute,to:'2016-05-23 01:41:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="19"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:52:06-0600',mode:absolute,to:'2016-05-23 00:38:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="74" t="str">
-        <f t="shared" ref="U131:U133" si="37">IF(Y131&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V131" s="74">
-        <f t="shared" ref="V131:V133" si="38">VALUE(LEFT(A131,3))-VALUE(LEFT(A130,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W131" s="74">
-        <f t="shared" ref="W131:W133" si="39">RIGHT(D131,LEN(D131)-4)/10000</f>
-        <v>23.2989</v>
+        <f t="shared" si="22"/>
+        <v>6.83E-2</v>
       </c>
       <c r="X131" s="74">
-        <f t="shared" ref="X131:X133" si="40">RIGHT(H131,LEN(H131)-4)/10000</f>
-        <v>1.5800000000000002E-2</v>
+        <f t="shared" si="23"/>
+        <v>23.329799999999999</v>
       </c>
       <c r="Y131" s="74">
-        <f t="shared" ref="Y131:Y133" si="41">ABS(X131-W131)</f>
-        <v>23.283100000000001</v>
+        <f t="shared" si="24"/>
+        <v>23.261499999999998</v>
       </c>
       <c r="Z131" s="75">
         <f>VLOOKUP(A131,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>30562</v>
+        <v>230436</v>
       </c>
       <c r="AA131" s="75" t="str">
         <f>VLOOKUP(A131,Enforcements!$C$3:$J$55,3,0)</f>
@@ -13662,118 +13677,118 @@
     </row>
     <row r="132" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
-        <v>518</v>
+        <v>375</v>
       </c>
       <c r="B132" s="61">
-        <v>4024</v>
+        <v>4012</v>
       </c>
       <c r="C132" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E132" s="30">
-        <v>42513.013449074075</v>
+        <v>42513.033726851849</v>
       </c>
       <c r="F132" s="30">
-        <v>42513.019444444442</v>
+        <v>42513.034479166665</v>
       </c>
       <c r="G132" s="38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H132" s="30" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="I132" s="30">
-        <v>42513.049976851849</v>
+        <v>42513.069953703707</v>
       </c>
       <c r="J132" s="61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K132" s="61" t="str">
-        <f t="shared" si="34"/>
-        <v>4023/4024</v>
+        <f t="shared" ref="K132:K134" si="34">IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <v>4011/4012</v>
       </c>
       <c r="L132" s="61" t="str">
         <f>VLOOKUP(A132,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>HELVIE</v>
       </c>
       <c r="M132" s="12">
-        <f t="shared" si="35"/>
-        <v>3.0532407407008577E-2</v>
+        <f t="shared" ref="M132:M134" si="35">I132-F132</f>
+        <v>3.5474537042318843E-2</v>
       </c>
       <c r="N132" s="13">
         <f t="shared" si="25"/>
-        <v>43.966666666092351</v>
+        <v>51.083333340939134</v>
       </c>
       <c r="O132" s="13"/>
       <c r="P132" s="13"/>
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
       <c r="T132" s="74" t="str">
-        <f t="shared" si="36"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:18:22-0600',mode:absolute,to:'2016-05-23 01:12:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <f t="shared" ref="T132:T134" si="36">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:47:34-0600',mode:absolute,to:'2016-05-23 01:41:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="U132:U134" si="37">IF(Y132&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V132" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="V132:V134" si="38">VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
         <v>1</v>
       </c>
       <c r="W132" s="74">
-        <f t="shared" si="39"/>
-        <v>4.6899999999999997E-2</v>
+        <f t="shared" ref="W132:W134" si="39">RIGHT(D132,LEN(D132)-4)/10000</f>
+        <v>23.2989</v>
       </c>
       <c r="X132" s="74">
-        <f t="shared" si="40"/>
-        <v>23.330400000000001</v>
+        <f t="shared" ref="X132:X134" si="40">RIGHT(H132,LEN(H132)-4)/10000</f>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y132" s="74">
-        <f t="shared" si="41"/>
-        <v>23.2835</v>
-      </c>
-      <c r="Z132" s="75" t="e">
+        <f t="shared" ref="Y132:Y134" si="41">ABS(X132-W132)</f>
+        <v>23.283100000000001</v>
+      </c>
+      <c r="Z132" s="75">
         <f>VLOOKUP(A132,Enforcements!$C$3:$J$55,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA132" s="75" t="e">
+        <v>30562</v>
+      </c>
+      <c r="AA132" s="75" t="str">
         <f>VLOOKUP(A132,Enforcements!$C$3:$J$55,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
     <row r="133" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B133" s="61">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C133" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="E133" s="30">
-        <v>42513.055509259262</v>
+        <v>42513.013449074075</v>
       </c>
       <c r="F133" s="30">
-        <v>42513.05636574074</v>
+        <v>42513.019444444442</v>
       </c>
       <c r="G133" s="38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H133" s="30" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="I133" s="30">
-        <v>42513.089074074072</v>
+        <v>42513.049976851849</v>
       </c>
       <c r="J133" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="61" t="str">
         <f t="shared" si="34"/>
@@ -13785,11 +13800,11 @@
       </c>
       <c r="M133" s="12">
         <f t="shared" si="35"/>
-        <v>3.2708333332266193E-2</v>
+        <v>3.0532407407008577E-2</v>
       </c>
       <c r="N133" s="13">
         <f t="shared" si="25"/>
-        <v>47.099999998463318</v>
+        <v>43.966666666092351</v>
       </c>
       <c r="O133" s="13"/>
       <c r="P133" s="13"/>
@@ -13797,7 +13812,7 @@
       <c r="R133" s="62"/>
       <c r="T133" s="74" t="str">
         <f t="shared" si="36"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 01:18:56-0600',mode:absolute,to:'2016-05-23 02:09:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:18:22-0600',mode:absolute,to:'2016-05-23 01:12:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="74" t="str">
         <f t="shared" si="37"/>
@@ -13809,15 +13824,15 @@
       </c>
       <c r="W133" s="74">
         <f t="shared" si="39"/>
-        <v>23.298100000000002</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="X133" s="74">
         <f t="shared" si="40"/>
-        <v>1.6500000000000001E-2</v>
+        <v>23.330400000000001</v>
       </c>
       <c r="Y133" s="74">
         <f t="shared" si="41"/>
-        <v>23.281600000000001</v>
+        <v>23.2835</v>
       </c>
       <c r="Z133" s="75" t="e">
         <f>VLOOKUP(A133,Enforcements!$C$3:$J$55,8,0)</f>
@@ -13828,81 +13843,135 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="63"/>
-      <c r="B134" s="63"/>
-      <c r="C134" s="63"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="65"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="64"/>
-      <c r="J134" s="63"/>
-      <c r="K134" s="63"/>
-      <c r="L134" s="63"/>
-      <c r="M134" s="66"/>
-      <c r="N134" s="67"/>
-      <c r="O134" s="67"/>
-      <c r="P134" s="67"/>
-      <c r="Q134" s="68"/>
-      <c r="R134" s="68"/>
-      <c r="T134" s="69"/>
-      <c r="U134" s="69"/>
-      <c r="V134" s="69"/>
-      <c r="W134" s="69"/>
-      <c r="X134" s="69"/>
-      <c r="Y134" s="69"/>
-      <c r="Z134" s="70"/>
-      <c r="AA134" s="70"/>
+    <row r="134" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="B134" s="61">
+        <v>4023</v>
+      </c>
+      <c r="C134" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E134" s="30">
+        <v>42513.055509259262</v>
+      </c>
+      <c r="F134" s="30">
+        <v>42513.05636574074</v>
+      </c>
+      <c r="G134" s="38">
+        <v>1</v>
+      </c>
+      <c r="H134" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="I134" s="30">
+        <v>42513.089074074072</v>
+      </c>
+      <c r="J134" s="61">
+        <v>1</v>
+      </c>
+      <c r="K134" s="61" t="str">
+        <f t="shared" si="34"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="L134" s="61" t="str">
+        <f>VLOOKUP(A134,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
+        <v>BARTLETT</v>
+      </c>
+      <c r="M134" s="12">
+        <f t="shared" si="35"/>
+        <v>3.2708333332266193E-2</v>
+      </c>
+      <c r="N134" s="13">
+        <f t="shared" si="25"/>
+        <v>47.099999998463318</v>
+      </c>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="62"/>
+      <c r="R134" s="62"/>
+      <c r="T134" s="74" t="str">
+        <f t="shared" si="36"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 01:18:56-0600',mode:absolute,to:'2016-05-23 02:09:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U134" s="74" t="str">
+        <f t="shared" si="37"/>
+        <v>N</v>
+      </c>
+      <c r="V134" s="74">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="W134" s="74">
+        <f t="shared" si="39"/>
+        <v>23.298100000000002</v>
+      </c>
+      <c r="X134" s="74">
+        <f t="shared" si="40"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="Y134" s="74">
+        <f t="shared" si="41"/>
+        <v>23.281600000000001</v>
+      </c>
+      <c r="Z134" s="75" t="e">
+        <f>VLOOKUP(A134,Enforcements!$C$3:$J$55,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA134" s="75" t="e">
+        <f>VLOOKUP(A134,Enforcements!$C$3:$J$55,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="135" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="85">
-        <f>Variables!A2</f>
-        <v>42512</v>
-      </c>
-      <c r="J135" s="86"/>
-      <c r="K135" s="76"/>
-      <c r="L135" s="76"/>
-      <c r="M135" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="N135" s="88"/>
-      <c r="O135" s="89"/>
-      <c r="P135" s="5"/>
-      <c r="T135" s="57"/>
-      <c r="U135" s="57"/>
-      <c r="V135" s="57"/>
-      <c r="W135" s="57"/>
-      <c r="X135" s="57"/>
-      <c r="Y135" s="57"/>
-      <c r="Z135" s="58"/>
-      <c r="AA135" s="58"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="63"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="64"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="64"/>
+      <c r="I135" s="64"/>
+      <c r="J135" s="63"/>
+      <c r="K135" s="63"/>
+      <c r="L135" s="63"/>
+      <c r="M135" s="66"/>
+      <c r="N135" s="67"/>
+      <c r="O135" s="67"/>
+      <c r="P135" s="67"/>
+      <c r="Q135" s="68"/>
+      <c r="R135" s="68"/>
+      <c r="T135" s="69"/>
+      <c r="U135" s="69"/>
+      <c r="V135" s="69"/>
+      <c r="W135" s="69"/>
+      <c r="X135" s="69"/>
+      <c r="Y135" s="69"/>
+      <c r="Z135" s="70"/>
+      <c r="AA135" s="70"/>
     </row>
     <row r="136" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E136" s="31"/>
       <c r="F136" s="31"/>
       <c r="G136" s="39"/>
       <c r="H136" s="31"/>
-      <c r="I136" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="J136" s="91"/>
-      <c r="K136" s="35"/>
-      <c r="L136" s="59"/>
-      <c r="M136" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N136" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O136" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="I136" s="85">
+        <f>Variables!A2</f>
+        <v>42512</v>
+      </c>
+      <c r="J136" s="86"/>
+      <c r="K136" s="76"/>
+      <c r="L136" s="76"/>
+      <c r="M136" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="N136" s="88"/>
+      <c r="O136" s="89"/>
       <c r="P136" s="5"/>
       <c r="T136" s="57"/>
       <c r="U136" s="57"/>
@@ -13918,23 +13987,20 @@
       <c r="F137" s="31"/>
       <c r="G137" s="39"/>
       <c r="H137" s="31"/>
-      <c r="I137" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" s="3">
-        <f>COUNT(N3:P133)</f>
-        <v>130</v>
-      </c>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
-      <c r="M137" s="71" t="s">
-        <v>15</v>
+      <c r="I137" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="J137" s="91"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="59"/>
+      <c r="M137" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P137" s="5"/>
       <c r="T137" s="57"/>
@@ -13952,25 +14018,22 @@
       <c r="G138" s="39"/>
       <c r="H138" s="31"/>
       <c r="I138" s="32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J138" s="3">
-        <f>COUNT(N3:N133)</f>
-        <v>121</v>
+        <f>COUNT(N3:P134)</f>
+        <v>131</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-      <c r="M138" s="71">
-        <f>AVERAGE(N3:N133)</f>
-        <v>46.727548209519306</v>
-      </c>
-      <c r="N138" s="6">
-        <f>MIN(N3:N133)</f>
-        <v>35.216666663764045</v>
-      </c>
-      <c r="O138" s="7">
-        <f>MAX(N3:N133)</f>
-        <v>65.900000003166497</v>
+      <c r="M138" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O138" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="P138" s="5"/>
       <c r="T138" s="57"/>
@@ -13983,46 +14046,40 @@
       <c r="AA138" s="58"/>
     </row>
     <row r="139" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="60"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="40"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="33" t="s">
-        <v>45</v>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J139" s="3">
-        <f>COUNT(O3:O133)</f>
-        <v>0</v>
+        <f>COUNT(N3:N134)</f>
+        <v>122</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="71">
-        <f>IFERROR(AVERAGE(O3:O133),0)</f>
-        <v>0</v>
+        <f>AVERAGE(N3:N134)</f>
+        <v>46.704644808912128</v>
       </c>
       <c r="N139" s="6">
-        <f>MIN(O3:O133)</f>
-        <v>0</v>
+        <f>MIN(N3:N134)</f>
+        <v>35.216666663764045</v>
       </c>
       <c r="O139" s="7">
-        <f>MAX(O3:O133)</f>
-        <v>0</v>
-      </c>
-      <c r="P139" s="4"/>
-      <c r="Q139"/>
-      <c r="R139"/>
-      <c r="S139"/>
-      <c r="T139" s="55"/>
-      <c r="U139" s="55"/>
-      <c r="V139" s="55"/>
-      <c r="W139" s="55"/>
-      <c r="X139" s="55"/>
-      <c r="Y139" s="55"/>
-      <c r="Z139" s="56"/>
-      <c r="AA139" s="56"/>
+        <f>MAX(N3:N134)</f>
+        <v>65.900000003166497</v>
+      </c>
+      <c r="P139" s="5"/>
+      <c r="T139" s="57"/>
+      <c r="U139" s="57"/>
+      <c r="V139" s="57"/>
+      <c r="W139" s="57"/>
+      <c r="X139" s="57"/>
+      <c r="Y139" s="57"/>
+      <c r="Z139" s="58"/>
+      <c r="AA139" s="58"/>
     </row>
     <row r="140" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="60"/>
@@ -14032,23 +14089,26 @@
       <c r="F140" s="14"/>
       <c r="G140" s="40"/>
       <c r="H140" s="14"/>
-      <c r="I140" s="34" t="s">
-        <v>9</v>
+      <c r="I140" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="J140" s="3">
-        <f>COUNT(P3:P133)</f>
-        <v>9</v>
+        <f>COUNT(O3:O134)</f>
+        <v>0</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="M140" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N140" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O140" s="7" t="s">
-        <v>15</v>
+      <c r="M140" s="71">
+        <f>IFERROR(AVERAGE(O3:O134),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N140" s="6">
+        <f>MIN(O3:O134)</f>
+        <v>0</v>
+      </c>
+      <c r="O140" s="7">
+        <f>MAX(O3:O134)</f>
+        <v>0</v>
       </c>
       <c r="P140" s="4"/>
       <c r="Q140"/>
@@ -14063,76 +14123,82 @@
       <c r="Z140" s="56"/>
       <c r="AA140" s="56"/>
     </row>
-    <row r="141" spans="1:27" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="32" t="s">
-        <v>16</v>
+    <row r="141" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="60"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="J141" s="3">
-        <f>COUNT(N3:O133)</f>
-        <v>121</v>
+        <f>COUNT(P3:P134)</f>
+        <v>9</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-      <c r="M141" s="71">
-        <f>AVERAGE(N3:P133)</f>
-        <v>44.905000000228533</v>
-      </c>
-      <c r="N141" s="6">
-        <f>MIN(N3:O133)</f>
+      <c r="M141" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O141" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P141" s="4"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141" s="55"/>
+      <c r="U141" s="55"/>
+      <c r="V141" s="55"/>
+      <c r="W141" s="55"/>
+      <c r="X141" s="55"/>
+      <c r="Y141" s="55"/>
+      <c r="Z141" s="56"/>
+      <c r="AA141" s="56"/>
+    </row>
+    <row r="142" spans="1:27" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="3">
+        <f>COUNT(N3:O134)</f>
+        <v>122</v>
+      </c>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="71">
+        <f>AVERAGE(N3:P134)</f>
+        <v>44.897582697443923</v>
+      </c>
+      <c r="N142" s="6">
+        <f>MIN(N3:O134)</f>
         <v>35.216666663764045</v>
       </c>
-      <c r="O141" s="7">
-        <f>MAX(N3:O133)</f>
+      <c r="O142" s="7">
+        <f>MAX(N3:O134)</f>
         <v>65.900000003166497</v>
       </c>
-      <c r="P141" s="5"/>
-      <c r="T141" s="57"/>
-      <c r="U141" s="57"/>
-      <c r="V141" s="57"/>
-      <c r="W141" s="57"/>
-      <c r="X141" s="57"/>
-      <c r="Y141" s="57"/>
-      <c r="Z141" s="58"/>
-      <c r="AA141" s="58"/>
-    </row>
-    <row r="142" spans="1:27" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="60"/>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="40"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J142" s="8">
-        <f>J141/J137</f>
-        <v>0.93076923076923079</v>
-      </c>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142"/>
-      <c r="R142"/>
-      <c r="S142"/>
-      <c r="T142" s="55"/>
-      <c r="U142" s="55"/>
-      <c r="V142" s="55"/>
-      <c r="W142" s="55"/>
-      <c r="X142" s="55"/>
-      <c r="Y142" s="55"/>
-      <c r="Z142" s="56"/>
-      <c r="AA142" s="56"/>
-    </row>
-    <row r="143" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P142" s="5"/>
+      <c r="T142" s="57"/>
+      <c r="U142" s="57"/>
+      <c r="V142" s="57"/>
+      <c r="W142" s="57"/>
+      <c r="X142" s="57"/>
+      <c r="Y142" s="57"/>
+      <c r="Z142" s="58"/>
+      <c r="AA142" s="58"/>
+    </row>
+    <row r="143" spans="1:27" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="60"/>
       <c r="C143" s="60"/>
       <c r="D143" s="60"/>
@@ -14140,10 +14206,15 @@
       <c r="F143" s="14"/>
       <c r="G143" s="40"/>
       <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="60"/>
-      <c r="K143"/>
-      <c r="L143" s="60"/>
+      <c r="I143" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" s="8">
+        <f>J142/J138</f>
+        <v>0.93129770992366412</v>
+      </c>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
       <c r="M143" s="1"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -14161,15 +14232,15 @@
       <c r="AA143" s="56"/>
     </row>
     <row r="144" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
       <c r="G144" s="40"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
-      <c r="J144"/>
+      <c r="J144" s="60"/>
       <c r="K144"/>
       <c r="L144" s="60"/>
       <c r="M144" s="1"/>
@@ -14272,74 +14343,110 @@
       <c r="Z147" s="56"/>
       <c r="AA147" s="56"/>
     </row>
-    <row r="150" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="40"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150" s="60"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150"/>
-      <c r="R150"/>
-      <c r="S150"/>
-      <c r="T150" s="55"/>
-      <c r="U150" s="55"/>
-      <c r="V150" s="55"/>
-      <c r="W150" s="55"/>
-      <c r="X150" s="55"/>
-      <c r="Y150" s="55"/>
-      <c r="Z150" s="56"/>
-      <c r="AA150" s="56"/>
+    <row r="148" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148" s="60"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148" s="55"/>
+      <c r="U148" s="55"/>
+      <c r="V148" s="55"/>
+      <c r="W148" s="55"/>
+      <c r="X148" s="55"/>
+      <c r="Y148" s="55"/>
+      <c r="Z148" s="56"/>
+      <c r="AA148" s="56"/>
+    </row>
+    <row r="151" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151" s="60"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151" s="55"/>
+      <c r="U151" s="55"/>
+      <c r="V151" s="55"/>
+      <c r="W151" s="55"/>
+      <c r="X151" s="55"/>
+      <c r="Y151" s="55"/>
+      <c r="Z151" s="56"/>
+      <c r="AA151" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA133"/>
+  <autoFilter ref="A2:AA134"/>
   <sortState ref="A3:Y144">
     <sortCondition ref="A3:A144"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="M135:O135"/>
     <mergeCell ref="I136:J136"/>
+    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="I137:J137"/>
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V1048576">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A134:P134 A3:R133">
-    <cfRule type="expression" dxfId="7" priority="35">
+  <conditionalFormatting sqref="A135:P135 A3:R67 A69:R134 A68:H68 J68:R68">
+    <cfRule type="expression" dxfId="10" priority="38">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="9" priority="39">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q134:R134">
-    <cfRule type="expression" dxfId="5" priority="77">
-      <formula>$P134&gt;0</formula>
+  <conditionalFormatting sqref="Q135:R135">
+    <cfRule type="expression" dxfId="8" priority="80">
+      <formula>$P135&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="78">
-      <formula>$O153&gt;0</formula>
+    <cfRule type="expression" dxfId="7" priority="81">
+      <formula>$O154&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$P68&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$O68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14348,7 +14455,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="34" id="{BC54A837-71A9-4A94-B0E2-11F0B57C895C}">
+          <x14:cfRule type="expression" priority="37" id="{BC54A837-71A9-4A94-B0E2-11F0B57C895C}">
             <xm:f>$N3&gt;Variables!$C$2</xm:f>
             <x14:dxf>
               <fill>
@@ -14358,7 +14465,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A3:R134</xm:sqref>
+          <xm:sqref>A3:R67 A69:R135 A68:H68 J68:R68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{B14E9B7F-78E7-4C92-AD54-00F66720C8B2}">
+            <xm:f>$N68&gt;Variables!$C$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I68</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14372,6 +14492,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14505,7 +14628,7 @@
         <v>209</v>
       </c>
       <c r="P3" s="81" t="str">
-        <f>VLOOKUP(C3,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C3,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:06:10-0600',mode:absolute,to:'2016-05-22 11:41:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q3" s="19" t="str">
@@ -14558,7 +14681,7 @@
         <v>378</v>
       </c>
       <c r="P4" s="81" t="str">
-        <f>VLOOKUP(C4,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C4,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 06:07:38-0600',mode:absolute,to:'2016-05-22 06:52:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q4" s="19" t="str">
@@ -14611,7 +14734,7 @@
         <v>541</v>
       </c>
       <c r="P5" s="81" t="str">
-        <f>VLOOKUP(C5,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C5,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 07:11:04-0600',mode:absolute,to:'2016-05-22 07:52:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q5" s="19" t="str">
@@ -14664,7 +14787,7 @@
         <v>541</v>
       </c>
       <c r="P6" s="81" t="str">
-        <f>VLOOKUP(C6,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C6,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 07:36:40-0600',mode:absolute,to:'2016-05-22 08:24:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q6" s="19" t="str">
@@ -14717,7 +14840,7 @@
         <v>541</v>
       </c>
       <c r="P7" s="81" t="str">
-        <f>VLOOKUP(C7,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C7,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 08:02:43-0600',mode:absolute,to:'2016-05-22 08:57:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q7" s="19" t="str">
@@ -14770,7 +14893,7 @@
         <v>378</v>
       </c>
       <c r="P8" s="81" t="str">
-        <f>VLOOKUP(C8,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C8,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 08:12:05-0600',mode:absolute,to:'2016-05-22 09:13:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q8" s="19" t="str">
@@ -14823,7 +14946,7 @@
         <v>378</v>
       </c>
       <c r="P9" s="81" t="str">
-        <f>VLOOKUP(C9,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C9,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 09:39:34-0600',mode:absolute,to:'2016-05-22 10:22:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q9" s="19" t="str">
@@ -14876,7 +14999,7 @@
         <v>541</v>
       </c>
       <c r="P10" s="81" t="str">
-        <f>VLOOKUP(C10,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C10,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:20:29-0600',mode:absolute,to:'2016-05-22 16:08:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q10" s="19" t="str">
@@ -14929,7 +15052,7 @@
         <v>541</v>
       </c>
       <c r="P11" s="81" t="str">
-        <f>VLOOKUP(C11,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C11,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:20:29-0600',mode:absolute,to:'2016-05-22 16:08:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q11" s="19" t="str">
@@ -14982,7 +15105,7 @@
         <v>541</v>
       </c>
       <c r="P12" s="81" t="str">
-        <f>VLOOKUP(C12,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C12,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:59:31-0600',mode:absolute,to:'2016-05-22 17:42:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q12" s="19" t="str">
@@ -15035,7 +15158,7 @@
         <v>378</v>
       </c>
       <c r="P13" s="81" t="str">
-        <f>VLOOKUP(C13,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C13,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:12:26-0600',mode:absolute,to:'2016-05-22 19:04:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q13" s="19" t="str">
@@ -15086,7 +15209,7 @@
       </c>
       <c r="N14" s="21"/>
       <c r="P14" s="81" t="str">
-        <f>VLOOKUP(C14,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C14,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 05:59:04-0600',mode:absolute,to:'2016-05-22 06:52:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q14" s="19" t="str">
@@ -15137,7 +15260,7 @@
       </c>
       <c r="N15" s="21"/>
       <c r="P15" s="81" t="str">
-        <f>VLOOKUP(C15,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C15,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 07:23:58-0600',mode:absolute,to:'2016-05-22 08:12:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q15" s="19" t="str">
@@ -15188,7 +15311,7 @@
       </c>
       <c r="N16" s="21"/>
       <c r="P16" s="81" t="str">
-        <f>VLOOKUP(C16,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C16,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 08:02:43-0600',mode:absolute,to:'2016-05-22 08:57:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q16" s="19" t="str">
@@ -15239,7 +15362,7 @@
       </c>
       <c r="N17" s="21"/>
       <c r="P17" s="81" t="str">
-        <f>VLOOKUP(C17,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C17,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 08:29:38-0600',mode:absolute,to:'2016-05-22 09:22:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q17" s="19" t="str">
@@ -15290,7 +15413,7 @@
       </c>
       <c r="N18" s="21"/>
       <c r="P18" s="81" t="str">
-        <f>VLOOKUP(C18,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C18,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 09:47:09-0600',mode:absolute,to:'2016-05-22 10:45:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q18" s="19" t="str">
@@ -15341,7 +15464,7 @@
       </c>
       <c r="N19" s="21"/>
       <c r="P19" s="81" t="str">
-        <f>VLOOKUP(C19,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C19,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 09:39:34-0600',mode:absolute,to:'2016-05-22 10:22:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q19" s="19" t="str">
@@ -15392,7 +15515,7 @@
       </c>
       <c r="N20" s="21"/>
       <c r="P20" s="81" t="str">
-        <f>VLOOKUP(C20,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C20,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:37:02-0600',mode:absolute,to:'2016-05-22 12:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q20" s="19" t="str">
@@ -15443,7 +15566,7 @@
       </c>
       <c r="N21" s="21"/>
       <c r="P21" s="81" t="str">
-        <f>VLOOKUP(C21,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C21,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:12:41-0600',mode:absolute,to:'2016-05-22 12:36:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q21" s="19" t="str">
@@ -15494,7 +15617,7 @@
       </c>
       <c r="N22" s="21"/>
       <c r="P22" s="81" t="str">
-        <f>VLOOKUP(C22,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C22,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:35:16-0600',mode:absolute,to:'2016-05-22 18:22:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q22" s="19" t="str">
@@ -15545,7 +15668,7 @@
       </c>
       <c r="N23" s="21"/>
       <c r="P23" s="81" t="str">
-        <f>VLOOKUP(C23,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C23,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:52:06-0600',mode:absolute,to:'2016-05-23 00:38:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q23" s="19" t="str">
@@ -15596,7 +15719,7 @@
       </c>
       <c r="N24" s="21"/>
       <c r="P24" s="81" t="str">
-        <f>VLOOKUP(C24,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C24,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:47:34-0600',mode:absolute,to:'2016-05-23 01:41:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q24" s="19" t="str">
@@ -15649,7 +15772,7 @@
         <v>544</v>
       </c>
       <c r="P25" s="81" t="str">
-        <f>VLOOKUP(C25,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C25,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 06:10:38-0600',mode:absolute,to:'2016-05-22 07:02:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q25" s="19" t="str">
@@ -15702,7 +15825,7 @@
         <v>545</v>
       </c>
       <c r="P26" s="81" t="str">
-        <f>VLOOKUP(C26,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C26,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 07:20:35-0600',mode:absolute,to:'2016-05-22 08:13:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q26" s="19" t="str">
@@ -15755,7 +15878,7 @@
         <v>546</v>
       </c>
       <c r="P27" s="81" t="str">
-        <f>VLOOKUP(C27,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C27,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 08:02:43-0600',mode:absolute,to:'2016-05-22 08:57:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q27" s="19" t="str">
@@ -15808,7 +15931,7 @@
         <v>545</v>
       </c>
       <c r="P28" s="81" t="str">
-        <f>VLOOKUP(C28,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C28,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 09:39:34-0600',mode:absolute,to:'2016-05-22 10:22:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q28" s="19" t="str">
@@ -15861,7 +15984,7 @@
         <v>545</v>
       </c>
       <c r="P29" s="81" t="str">
-        <f>VLOOKUP(C29,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C29,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 10:33:35-0600',mode:absolute,to:'2016-05-22 11:26:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q29" s="19" t="str">
@@ -15914,7 +16037,7 @@
         <v>545</v>
       </c>
       <c r="P30" s="81" t="str">
-        <f>VLOOKUP(C30,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C30,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:37:02-0600',mode:absolute,to:'2016-05-22 12:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q30" s="19" t="str">
@@ -15967,7 +16090,7 @@
         <v>545</v>
       </c>
       <c r="P31" s="81" t="str">
-        <f>VLOOKUP(C31,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C31,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:22:57-0600',mode:absolute,to:'2016-05-22 12:56:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q31" s="19" t="str">
@@ -16020,7 +16143,7 @@
         <v>545</v>
       </c>
       <c r="P32" s="81" t="str">
-        <f>VLOOKUP(C32,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C32,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:42:15-0600',mode:absolute,to:'2016-05-22 16:37:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q32" s="19" t="str">
@@ -16073,7 +16196,7 @@
         <v>547</v>
       </c>
       <c r="P33" s="81" t="str">
-        <f>VLOOKUP(C33,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C33,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:50:00-0600',mode:absolute,to:'2016-05-22 18:38:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q33" s="19" t="str">
@@ -16129,7 +16252,7 @@
         <v>549</v>
       </c>
       <c r="P34" s="81" t="str">
-        <f>VLOOKUP(C34,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C34,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:03:18-0600',mode:absolute,to:'2016-05-22 18:50:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q34" s="19" t="str">
@@ -16182,7 +16305,7 @@
         <v>547</v>
       </c>
       <c r="P35" s="81" t="str">
-        <f>VLOOKUP(C35,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C35,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:47:34-0600',mode:absolute,to:'2016-05-23 01:41:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q35" s="19" t="str">
@@ -16236,7 +16359,7 @@
       </c>
       <c r="N36" s="21"/>
       <c r="P36" s="81" t="str">
-        <f>VLOOKUP(C36,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C36,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 03:37:13-0600',mode:absolute,to:'2016-05-22 04:24:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q36" s="19" t="str">
@@ -16287,7 +16410,7 @@
       </c>
       <c r="N37" s="21"/>
       <c r="P37" s="81" t="str">
-        <f>VLOOKUP(C37,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C37,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 04:29:53-0600',mode:absolute,to:'2016-05-22 05:28:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q37" s="19" t="str">
@@ -16338,7 +16461,7 @@
       </c>
       <c r="N38" s="21"/>
       <c r="P38" s="81" t="str">
-        <f>VLOOKUP(C38,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C38,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 06:31:53-0600',mode:absolute,to:'2016-05-22 07:24:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q38" s="19" t="str">
@@ -16389,7 +16512,7 @@
       </c>
       <c r="N39" s="21"/>
       <c r="P39" s="81" t="str">
-        <f>VLOOKUP(C39,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C39,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 06:53:15-0600',mode:absolute,to:'2016-05-22 07:36:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q39" s="19" t="str">
@@ -16440,7 +16563,7 @@
       </c>
       <c r="N40" s="21"/>
       <c r="P40" s="81" t="str">
-        <f>VLOOKUP(C40,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C40,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 07:23:58-0600',mode:absolute,to:'2016-05-22 08:12:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q40" s="19" t="str">
@@ -16491,7 +16614,7 @@
       </c>
       <c r="N41" s="21"/>
       <c r="P41" s="81" t="str">
-        <f>VLOOKUP(C41,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C41,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 08:30:02-0600',mode:absolute,to:'2016-05-22 09:18:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q41" s="19" t="str">
@@ -16542,7 +16665,7 @@
       </c>
       <c r="N42" s="21"/>
       <c r="P42" s="81" t="str">
-        <f>VLOOKUP(C42,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C42,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 10:20:49-0600',mode:absolute,to:'2016-05-22 11:14:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q42" s="19" t="str">
@@ -16593,7 +16716,7 @@
       </c>
       <c r="N43" s="21"/>
       <c r="P43" s="81" t="str">
-        <f>VLOOKUP(C43,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C43,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:39:04-0600',mode:absolute,to:'2016-05-22 12:28:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q43" s="19" t="str">
@@ -16644,7 +16767,7 @@
       </c>
       <c r="N44" s="21"/>
       <c r="P44" s="81" t="str">
-        <f>VLOOKUP(C44,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C44,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:23:05-0600',mode:absolute,to:'2016-05-22 13:11:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q44" s="19" t="str">
@@ -16695,7 +16818,7 @@
       </c>
       <c r="N45" s="21"/>
       <c r="P45" s="81" t="str">
-        <f>VLOOKUP(C45,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C45,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:58:51-0600',mode:absolute,to:'2016-05-22 13:41:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q45" s="19" t="str">
@@ -16746,7 +16869,7 @@
       </c>
       <c r="N46" s="21"/>
       <c r="P46" s="81" t="str">
-        <f>VLOOKUP(C46,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C46,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:58:11-0600',mode:absolute,to:'2016-05-22 13:47:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q46" s="19" t="str">
@@ -16797,7 +16920,7 @@
       </c>
       <c r="N47" s="21"/>
       <c r="P47" s="81" t="str">
-        <f>VLOOKUP(C47,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C47,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:40:40-0600',mode:absolute,to:'2016-05-22 14:22:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q47" s="19" t="str">
@@ -16848,7 +16971,7 @@
       </c>
       <c r="N48" s="21"/>
       <c r="P48" s="81" t="str">
-        <f>VLOOKUP(C48,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C48,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:23:22-0600',mode:absolute,to:'2016-05-22 15:07:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q48" s="19" t="str">
@@ -16899,7 +17022,7 @@
       </c>
       <c r="N49" s="21"/>
       <c r="P49" s="81" t="str">
-        <f>VLOOKUP(C49,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C49,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:10:25-0600',mode:absolute,to:'2016-05-22 14:40:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q49" s="19" t="str">
@@ -16950,7 +17073,7 @@
       </c>
       <c r="N50" s="21"/>
       <c r="P50" s="81" t="str">
-        <f>VLOOKUP(C50,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C50,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:42:33-0600',mode:absolute,to:'2016-05-22 15:34:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q50" s="19" t="str">
@@ -17001,7 +17124,7 @@
       </c>
       <c r="N51" s="21"/>
       <c r="P51" s="81" t="str">
-        <f>VLOOKUP(C51,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C51,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:10:29-0600',mode:absolute,to:'2016-05-22 15:53:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q51" s="19" t="str">
@@ -17052,7 +17175,7 @@
       </c>
       <c r="N52" s="21"/>
       <c r="P52" s="81" t="str">
-        <f>VLOOKUP(C52,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C52,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:35:16-0600',mode:absolute,to:'2016-05-22 17:25:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q52" s="19" t="str">
@@ -17103,7 +17226,7 @@
       </c>
       <c r="N53" s="21"/>
       <c r="P53" s="81" t="str">
-        <f>VLOOKUP(C53,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C53,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:50:00-0600',mode:absolute,to:'2016-05-22 18:38:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q53" s="19" t="str">
@@ -17154,7 +17277,7 @@
       </c>
       <c r="N54" s="21"/>
       <c r="P54" s="81" t="str">
-        <f>VLOOKUP(C54,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C54,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:12-0600',mode:absolute,to:'2016-05-22 19:55:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q54" s="19" t="str">
@@ -17205,7 +17328,7 @@
       </c>
       <c r="N55" s="21"/>
       <c r="P55" s="81" t="str">
-        <f>VLOOKUP(C55,'Train Runs'!$A$3:$T$242,20,0)</f>
+        <f>VLOOKUP(C55,'Train Runs'!$A$3:$T$243,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:48:27-0600',mode:absolute,to:'2016-05-22 23:49:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q55" s="19" t="str">
@@ -17297,10 +17420,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17317,55 +17443,107 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>535</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B12" s="78" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="78"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="78"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="78"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="78"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="78"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="78"/>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="79" t="s">
+        <v>536</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>557</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17383,6 +17561,7 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:E180"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23208,6 +23387,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/EC/Train Runs and Enforcements 2016-05-22.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-22.xlsx
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2282,6 +2281,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2290,13 +2296,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2643,9 +2642,6 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:P1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14442,10 +14438,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$P68&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$O68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14493,9 +14489,6 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:M1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17425,9 +17418,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17561,7 +17551,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:E180"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23387,7 +23376,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/EC/Train Runs and Enforcements 2016-05-22.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-22.xlsx
@@ -2639,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q75"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7068,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L53" s="61" t="str">
@@ -7076,13 +7076,13 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="10"/>
+        <f>I53-F53</f>
         <v>2.1932870367891155E-2</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M53:$M53)</f>
         <v>31.583333329763263</v>
       </c>
       <c r="Q53" s="62" t="s">
@@ -7092,27 +7092,27 @@
         <v>538</v>
       </c>
       <c r="T53" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:06:10-0600',mode:absolute,to:'2016-05-22 11:41:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y53&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V53" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
         <v>1</v>
       </c>
       <c r="W53" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D53,LEN(D53)-4)/10000</f>
         <v>23.297599999999999</v>
       </c>
       <c r="X53" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H53,LEN(H53)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y53" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X53-W53)</f>
         <v>23.2835</v>
       </c>
       <c r="Z53" s="75">
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B54),(B54-1)&amp;"/"&amp;B54,B54&amp;"/"&amp;(B54+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L54" s="61" t="str">
@@ -7164,11 +7164,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="10"/>
+        <f>I54-F54</f>
         <v>3.5601851850515231E-2</v>
       </c>
       <c r="N54" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M54:$M54)</f>
         <v>51.266666664741933</v>
       </c>
       <c r="O54" s="13"/>
@@ -7176,27 +7176,27 @@
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
       <c r="T54" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E54-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I54+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B54&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 10:23:24-0600',mode:absolute,to:'2016-05-22 11:18:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y54&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V54" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A54,3))-VALUE(LEFT(A53,3))</f>
         <v>1</v>
       </c>
       <c r="W54" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D54,LEN(D54)-4)/10000</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="X54" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H54,LEN(H54)-4)/10000</f>
         <v>23.3307</v>
       </c>
       <c r="Y54" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X54-W54)</f>
         <v>23.283000000000001</v>
       </c>
       <c r="Z54" s="75" t="e">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B55),(B55-1)&amp;"/"&amp;B55,B55&amp;"/"&amp;(B55+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L55" s="61" t="str">
@@ -7248,11 +7248,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="10"/>
+        <f>I55-F55</f>
         <v>3.1921296293148771E-2</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M55:$M55)</f>
         <v>45.96666666213423</v>
       </c>
       <c r="O55" s="13"/>
@@ -7260,27 +7260,27 @@
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="T55" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E55-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I55+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B55&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:19:33-0600',mode:absolute,to:'2016-05-22 12:10:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y55&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V55" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A55,3))-VALUE(LEFT(A54,3))</f>
         <v>1</v>
       </c>
       <c r="W55" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D55,LEN(D55)-4)/10000</f>
         <v>23.296900000000001</v>
       </c>
       <c r="X55" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H55,LEN(H55)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y55" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X55-W55)</f>
         <v>23.2819</v>
       </c>
       <c r="Z55" s="75" t="e">
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B56),(B56-1)&amp;"/"&amp;B56,B56&amp;"/"&amp;(B56+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L56" s="61" t="str">
@@ -7332,11 +7332,11 @@
         <v>YORK</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="10"/>
+        <f>I56-F56</f>
         <v>2.9618055559694767E-2</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M56:$M56)</f>
         <v>42.650000005960464</v>
       </c>
       <c r="O56" s="13"/>
@@ -7344,27 +7344,27 @@
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
       <c r="T56" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E56-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I56+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B56&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 10:47:21-0600',mode:absolute,to:'2016-05-22 11:33:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y56&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V56" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
         <v>1</v>
       </c>
       <c r="W56" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D56,LEN(D56)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X56" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H56,LEN(H56)-4)/10000</f>
         <v>23.331399999999999</v>
       </c>
       <c r="Y56" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X56-W56)</f>
         <v>23.2852</v>
       </c>
       <c r="Z56" s="75" t="e">
@@ -7408,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B57),(B57-1)&amp;"/"&amp;B57,B57&amp;"/"&amp;(B57+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L57" s="61" t="str">
@@ -7416,11 +7416,11 @@
         <v>YORK</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="10"/>
+        <f>I57-F57</f>
         <v>2.8773148151230998E-2</v>
       </c>
       <c r="N57" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M57:$M57)</f>
         <v>41.433333337772638</v>
       </c>
       <c r="O57" s="13"/>
@@ -7428,27 +7428,27 @@
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
       <c r="T57" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E57-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I57+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B57&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:37:02-0600',mode:absolute,to:'2016-05-22 12:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y57&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V57" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A57,3))-VALUE(LEFT(A56,3))</f>
         <v>1</v>
       </c>
       <c r="W57" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D57,LEN(D57)-4)/10000</f>
         <v>23.297899999999998</v>
       </c>
       <c r="X57" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H57,LEN(H57)-4)/10000</f>
         <v>1.49E-2</v>
       </c>
       <c r="Y57" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X57-W57)</f>
         <v>23.282999999999998</v>
       </c>
       <c r="Z57" s="75">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B58),(B58-1)&amp;"/"&amp;B58,B58&amp;"/"&amp;(B58+1))</f>
         <v>4027/4028</v>
       </c>
       <c r="L58" s="61" t="str">
@@ -7500,13 +7500,13 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="10"/>
+        <f>I58-F58</f>
         <v>4.6296299842651933E-5</v>
       </c>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
       <c r="P58" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M58:$M58)</f>
         <v>6.6666671773418784E-2</v>
       </c>
       <c r="Q58" s="62" t="s">
@@ -7516,27 +7516,27 @@
         <v>538</v>
       </c>
       <c r="T58" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E58-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I58+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B58&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:02:46-0600',mode:absolute,to:'2016-05-22 11:08:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y58&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V58" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A58,3))-VALUE(LEFT(A57,3))</f>
         <v>1</v>
       </c>
       <c r="W58" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D58,LEN(D58)-4)/10000</f>
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="X58" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H58,LEN(H58)-4)/10000</f>
         <v>8.0100000000000005E-2</v>
       </c>
       <c r="Y58" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X58-W58)</f>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="Z58" s="75" t="e">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B59),(B59-1)&amp;"/"&amp;B59,B59&amp;"/"&amp;(B59+1))</f>
         <v>4027/4028</v>
       </c>
       <c r="L59" s="61" t="str">
@@ -7588,11 +7588,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="10"/>
+        <f>I59-F59</f>
         <v>3.0763888891669922E-2</v>
       </c>
       <c r="N59" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M59:$M59)</f>
         <v>44.300000004004687</v>
       </c>
       <c r="O59" s="13"/>
@@ -7600,26 +7600,26 @@
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
       <c r="T59" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E59-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I59+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B59&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:10:35-0600',mode:absolute,to:'2016-05-22 12:58:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="74" t="s">
         <v>88</v>
       </c>
       <c r="V59" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A59,3))-VALUE(LEFT(A58,3))</f>
         <v>1</v>
       </c>
       <c r="W59" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D59,LEN(D59)-4)/10000</f>
         <v>23.305900000000001</v>
       </c>
       <c r="X59" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H59,LEN(H59)-4)/10000</f>
         <v>0.34210000000000002</v>
       </c>
       <c r="Y59" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X59-W59)</f>
         <v>22.963800000000003</v>
       </c>
       <c r="Z59" s="75" t="e">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L60" s="61" t="str">
@@ -7671,11 +7671,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="10"/>
+        <f>I60-F60</f>
         <v>3.3958333333430346E-2</v>
       </c>
       <c r="N60" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M60:$M60)</f>
         <v>48.900000000139698</v>
       </c>
       <c r="O60" s="13"/>
@@ -7683,27 +7683,27 @@
       <c r="Q60" s="62"/>
       <c r="R60" s="62"/>
       <c r="T60" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:15:36-0600',mode:absolute,to:'2016-05-22 12:08:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y60&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V60" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
         <v>1</v>
       </c>
       <c r="W60" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X60" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
         <v>23.330100000000002</v>
       </c>
       <c r="Y60" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X60-W60)</f>
         <v>23.283900000000003</v>
       </c>
       <c r="Z60" s="75" t="e">
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L61" s="61" t="str">
@@ -7755,11 +7755,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="10"/>
+        <f>I61-F61</f>
         <v>3.5856481481459923E-2</v>
       </c>
       <c r="N61" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M61:$M61)</f>
         <v>51.633333333302289</v>
       </c>
       <c r="O61" s="13"/>
@@ -7767,27 +7767,27 @@
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
       <c r="T61" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:09:00-0600',mode:absolute,to:'2016-05-22 13:04:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y61&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V61" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
         <v>1</v>
       </c>
       <c r="W61" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
         <v>23.2988</v>
       </c>
       <c r="X61" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
         <v>1.32E-2</v>
       </c>
       <c r="Y61" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X61-W61)</f>
         <v>23.285599999999999</v>
       </c>
       <c r="Z61" s="75" t="e">
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L62" s="61" t="str">
@@ -7839,13 +7839,13 @@
         <v>BONDS</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="10"/>
+        <f>I62-F62</f>
         <v>2.0717592589790002E-2</v>
       </c>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M62:$M62)</f>
         <v>29.833333329297602</v>
       </c>
       <c r="Q62" s="62" t="s">
@@ -7855,27 +7855,27 @@
         <v>539</v>
       </c>
       <c r="T62" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:22:57-0600',mode:absolute,to:'2016-05-22 12:56:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y62&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V62" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
         <v>2</v>
       </c>
       <c r="W62" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
         <v>23.298500000000001</v>
       </c>
       <c r="X62" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
         <v>6.4124999999999996</v>
       </c>
       <c r="Y62" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X62-W62)</f>
         <v>16.886000000000003</v>
       </c>
       <c r="Z62" s="75">
@@ -7919,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L63" s="61" t="str">
@@ -7927,11 +7927,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="10"/>
+        <f>I63-F63</f>
         <v>3.0081018514465541E-2</v>
       </c>
       <c r="N63" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M63:$M63)</f>
         <v>43.316666660830379</v>
       </c>
       <c r="O63" s="13"/>
@@ -7939,27 +7939,27 @@
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
       <c r="T63" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:39:04-0600',mode:absolute,to:'2016-05-22 12:28:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y63&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V63" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
         <v>1</v>
       </c>
       <c r="W63" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X63" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
         <v>23.3416</v>
       </c>
       <c r="Y63" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X63-W63)</f>
         <v>23.2959</v>
       </c>
       <c r="Z63" s="75">
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L64" s="61" t="str">
@@ -8011,11 +8011,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="10"/>
+        <f>I64-F64</f>
         <v>2.9710648144828156E-2</v>
       </c>
       <c r="N64" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M64:$M64)</f>
         <v>42.783333328552544</v>
       </c>
       <c r="O64" s="13"/>
@@ -8023,27 +8023,27 @@
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
       <c r="T64" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:38:28-0600',mode:absolute,to:'2016-05-22 13:24:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y64&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V64" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
         <v>1</v>
       </c>
       <c r="W64" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
         <v>23.3065</v>
       </c>
       <c r="X64" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="Y64" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X64-W64)</f>
         <v>23.291799999999999</v>
       </c>
       <c r="Z64" s="75" t="e">
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L65" s="61" t="str">
@@ -8095,13 +8095,13 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="10"/>
+        <f>I65-F65</f>
         <v>2.4108796300424729E-2</v>
       </c>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M65:$M65)</f>
         <v>34.716666672611609</v>
       </c>
       <c r="Q65" s="62" t="s">
@@ -8111,27 +8111,27 @@
         <v>540</v>
       </c>
       <c r="T65" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:20:08-0600',mode:absolute,to:'2016-05-22 12:58:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y65&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V65" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
         <v>1</v>
       </c>
       <c r="W65" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
         <v>1.9136</v>
       </c>
       <c r="X65" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
         <v>23.328700000000001</v>
       </c>
       <c r="Y65" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X65-W65)</f>
         <v>21.415100000000002</v>
       </c>
       <c r="Z65" s="75" t="e">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L66" s="61" t="str">
@@ -8183,11 +8183,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="10"/>
+        <f>I66-F66</f>
         <v>2.7430555557657499E-2</v>
       </c>
       <c r="N66" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M66:$M66)</f>
         <v>39.500000003026798</v>
       </c>
       <c r="O66" s="13"/>
@@ -8195,27 +8195,27 @@
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
       <c r="T66" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:58:51-0600',mode:absolute,to:'2016-05-22 13:41:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y66&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V66" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
         <v>1</v>
       </c>
       <c r="W66" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
         <v>23.298500000000001</v>
       </c>
       <c r="X66" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y66" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X66-W66)</f>
         <v>23.284400000000002</v>
       </c>
       <c r="Z66" s="75">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L67" s="61" t="str">
@@ -8267,13 +8267,13 @@
         <v>STEWART</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="10"/>
+        <f>I67-F67</f>
         <v>1.3703703705687076E-2</v>
       </c>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
       <c r="P67" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M67:$M67)</f>
         <v>19.733333336189389</v>
       </c>
       <c r="Q67" s="62" t="s">
@@ -8283,27 +8283,27 @@
         <v>539</v>
       </c>
       <c r="T67" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:12:41-0600',mode:absolute,to:'2016-05-22 12:36:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y67&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V67" s="74">
-        <f t="shared" si="13"/>
+        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
         <v>1</v>
       </c>
       <c r="W67" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X67" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
         <v>5.2117000000000004</v>
       </c>
       <c r="Y67" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X67-W67)</f>
         <v>5.1653000000000002</v>
       </c>
       <c r="Z67" s="75">
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L68" s="61" t="str">
@@ -8345,11 +8345,11 @@
         <v>STEWART</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="10"/>
+        <f>I68-F68</f>
         <v>3.050925926072523E-2</v>
       </c>
       <c r="N68" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M68:$M68)</f>
         <v>43.933333335444331</v>
       </c>
       <c r="O68" s="13"/>
@@ -8357,7 +8357,7 @@
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
       <c r="T68" s="74" t="e">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
         <v>#VALUE!</v>
       </c>
       <c r="U68" s="74"/>
@@ -8400,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L69" s="61" t="str">
@@ -8408,11 +8408,11 @@
         <v>YORK</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="10"/>
+        <f>I69-F69</f>
         <v>3.1238425923220348E-2</v>
       </c>
       <c r="N69" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M69:$M69)</f>
         <v>44.983333329437301</v>
       </c>
       <c r="O69" s="13"/>
@@ -8420,11 +8420,11 @@
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
       <c r="T69" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:23:05-0600',mode:absolute,to:'2016-05-22 13:11:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(Y69&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V69" s="74">
@@ -8432,15 +8432,15 @@
         <v>2</v>
       </c>
       <c r="W69" s="74">
-        <f t="shared" si="14"/>
+        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="X69" s="74">
-        <f t="shared" si="15"/>
+        <f>RIGHT(H69,LEN(H69)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y69" s="74">
-        <f t="shared" si="16"/>
+        <f>ABS(X69-W69)</f>
         <v>23.286199999999997</v>
       </c>
       <c r="Z69" s="75">
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="61" t="str">
-        <f t="shared" ref="K70:K131" si="17">IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
+        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L70" s="61" t="str">
@@ -8492,11 +8492,11 @@
         <v>YORK</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" ref="M70:M131" si="18">I70-F70</f>
+        <f>I70-F70</f>
         <v>3.4513888887886424E-2</v>
       </c>
       <c r="N70" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M70:$M70)</f>
         <v>49.69999999855645</v>
       </c>
       <c r="O70" s="13"/>
@@ -8504,27 +8504,27 @@
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
       <c r="T70" s="74" t="str">
-        <f t="shared" ref="T70:T131" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:17:02-0600',mode:absolute,to:'2016-05-22 14:10:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="74" t="str">
-        <f t="shared" ref="U70:U131" si="20">IF(Y70&lt;23,"Y","N")</f>
+        <f>IF(Y70&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V70" s="74">
-        <f t="shared" ref="V70:V131" si="21">VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
+        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
         <v>1</v>
       </c>
       <c r="W70" s="74">
-        <f t="shared" ref="W70:W131" si="22">RIGHT(D70,LEN(D70)-4)/10000</f>
+        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
         <v>23.2987</v>
       </c>
       <c r="X70" s="74">
-        <f t="shared" ref="X70:X131" si="23">RIGHT(H70,LEN(H70)-4)/10000</f>
+        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y70" s="74">
-        <f t="shared" ref="Y70:Y131" si="24">ABS(X70-W70)</f>
+        <f>ABS(X70-W70)</f>
         <v>23.284600000000001</v>
       </c>
       <c r="Z70" s="75" t="e">
@@ -8568,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L71" s="61" t="str">
@@ -8576,11 +8576,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="18"/>
+        <f>I71-F71</f>
         <v>3.1562500000291038E-2</v>
       </c>
       <c r="N71" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M71:$M71)</f>
         <v>45.450000000419095</v>
       </c>
       <c r="O71" s="13"/>
@@ -8588,27 +8588,27 @@
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
       <c r="T71" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:58:11-0600',mode:absolute,to:'2016-05-22 13:47:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y71&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V71" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
         <v>3</v>
       </c>
       <c r="W71" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="X71" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
         <v>23.33</v>
       </c>
       <c r="Y71" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X71-W71)</f>
         <v>23.286499999999997</v>
       </c>
       <c r="Z71" s="75">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L72" s="61" t="str">
@@ -8660,11 +8660,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="18"/>
+        <f>I72-F72</f>
         <v>2.8009259258396924E-2</v>
       </c>
       <c r="N72" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M72:$M72)</f>
         <v>40.33333333209157</v>
       </c>
       <c r="O72" s="13"/>
@@ -8672,27 +8672,27 @@
       <c r="Q72" s="62"/>
       <c r="R72" s="62"/>
       <c r="T72" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:57:19-0600',mode:absolute,to:'2016-05-22 14:41:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y72&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V72" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
         <v>1</v>
       </c>
       <c r="W72" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
         <v>23.299299999999999</v>
       </c>
       <c r="X72" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y72" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X72-W72)</f>
         <v>23.284799999999997</v>
       </c>
       <c r="Z72" s="75" t="e">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L73" s="61" t="str">
@@ -8744,11 +8744,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="18"/>
+        <f>I73-F73</f>
         <v>3.3414351855753921E-2</v>
       </c>
       <c r="N73" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M73:$M73)</f>
         <v>48.116666672285646</v>
       </c>
       <c r="O73" s="13"/>
@@ -8756,27 +8756,27 @@
       <c r="Q73" s="62"/>
       <c r="R73" s="62"/>
       <c r="T73" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:04:24-0600',mode:absolute,to:'2016-05-22 13:55:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y73&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V73" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
         <v>1</v>
       </c>
       <c r="W73" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
         <v>4.58E-2</v>
       </c>
       <c r="X73" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y73" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X73-W73)</f>
         <v>23.283899999999999</v>
       </c>
       <c r="Z73" s="75" t="e">
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L74" s="61" t="str">
@@ -8828,11 +8828,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="18"/>
+        <f>I74-F74</f>
         <v>3.1655092592700385E-2</v>
       </c>
       <c r="N74" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M74:$M74)</f>
         <v>45.583333333488554</v>
       </c>
       <c r="O74" s="13"/>
@@ -8840,27 +8840,27 @@
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
       <c r="T74" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:00:18-0600',mode:absolute,to:'2016-05-22 14:49:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y74&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V74" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
         <v>1</v>
       </c>
       <c r="W74" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
         <v>23.297999999999998</v>
       </c>
       <c r="X74" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y74" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X74-W74)</f>
         <v>23.283899999999999</v>
       </c>
       <c r="Z74" s="75" t="e">
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L75" s="61" t="str">
@@ -8912,11 +8912,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="18"/>
+        <f>I75-F75</f>
         <v>3.3831018517958E-2</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" ref="N75:N134" si="25">24*60*SUM($M75:$M75)</f>
+        <f>24*60*SUM($M75:$M75)</f>
         <v>48.71666666585952</v>
       </c>
       <c r="O75" s="13"/>
@@ -8924,27 +8924,27 @@
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
       <c r="T75" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:27:55-0600',mode:absolute,to:'2016-05-22 14:20:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y75&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V75" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
         <v>1</v>
       </c>
       <c r="W75" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="X75" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
         <v>23.331399999999999</v>
       </c>
       <c r="Y75" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X75-W75)</f>
         <v>23.286099999999998</v>
       </c>
       <c r="Z75" s="75" t="e">
@@ -8988,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L76" s="61" t="str">
@@ -8996,11 +8996,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="18"/>
+        <f>I76-F76</f>
         <v>2.8784722220734693E-2</v>
       </c>
       <c r="N76" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M76:$M76)</f>
         <v>41.449999997857958</v>
       </c>
       <c r="O76" s="13"/>
@@ -9008,27 +9008,27 @@
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
       <c r="T76" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:23:22-0600',mode:absolute,to:'2016-05-22 15:07:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y76&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V76" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
         <v>1</v>
       </c>
       <c r="W76" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
         <v>23.3</v>
       </c>
       <c r="X76" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y76" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X76-W76)</f>
         <v>23.285499999999999</v>
       </c>
       <c r="Z76" s="75">
@@ -9072,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L77" s="61" t="str">
@@ -9080,11 +9080,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M77" s="12">
-        <f t="shared" si="18"/>
+        <f>I77-F77</f>
         <v>2.7164351849933155E-2</v>
       </c>
       <c r="N77" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M77:$M77)</f>
         <v>39.116666663903743</v>
       </c>
       <c r="O77" s="13"/>
@@ -9092,27 +9092,27 @@
       <c r="Q77" s="62"/>
       <c r="R77" s="62"/>
       <c r="T77" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:40:40-0600',mode:absolute,to:'2016-05-22 14:22:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y77&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V77" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
         <v>1</v>
       </c>
       <c r="W77" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
         <v>4.58E-2</v>
       </c>
       <c r="X77" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
         <v>23.337</v>
       </c>
       <c r="Y77" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X77-W77)</f>
         <v>23.2912</v>
       </c>
       <c r="Z77" s="75">
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L78" s="61" t="str">
@@ -9164,11 +9164,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M78" s="12">
-        <f t="shared" si="18"/>
+        <f>I78-F78</f>
         <v>3.0219907406717539E-2</v>
       </c>
       <c r="N78" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M78:$M78)</f>
         <v>43.516666665673256</v>
       </c>
       <c r="O78" s="13"/>
@@ -9176,27 +9176,27 @@
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
       <c r="T78" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:36:26-0600',mode:absolute,to:'2016-05-22 15:23:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y78&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V78" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
         <v>1</v>
       </c>
       <c r="W78" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
         <v>23.305099999999999</v>
       </c>
       <c r="X78" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="Y78" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X78-W78)</f>
         <v>23.292400000000001</v>
       </c>
       <c r="Z78" s="75" t="e">
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L79" s="61" t="str">
@@ -9248,11 +9248,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M79" s="12">
-        <f t="shared" si="18"/>
+        <f>I79-F79</f>
         <v>3.0393518522032537E-2</v>
       </c>
       <c r="N79" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M79:$M79)</f>
         <v>43.766666671726853</v>
       </c>
       <c r="O79" s="13"/>
@@ -9260,27 +9260,27 @@
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
       <c r="T79" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:51:35-0600',mode:absolute,to:'2016-05-22 14:38:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y79&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V79" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
         <v>1</v>
       </c>
       <c r="W79" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X79" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
         <v>23.331399999999999</v>
       </c>
       <c r="Y79" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X79-W79)</f>
         <v>23.287199999999999</v>
       </c>
       <c r="Z79" s="75" t="e">
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L80" s="61" t="str">
@@ -9332,11 +9332,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" si="18"/>
+        <f>I80-F80</f>
         <v>3.7071759259561077E-2</v>
       </c>
       <c r="N80" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M80:$M80)</f>
         <v>53.383333333767951</v>
       </c>
       <c r="O80" s="13"/>
@@ -9344,27 +9344,27 @@
       <c r="Q80" s="62"/>
       <c r="R80" s="62"/>
       <c r="T80" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:46:30-0600',mode:absolute,to:'2016-05-22 15:43:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y80&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V80" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
         <v>1</v>
       </c>
       <c r="W80" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
         <v>23.2987</v>
       </c>
       <c r="X80" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y80" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X80-W80)</f>
         <v>23.282399999999999</v>
       </c>
       <c r="Z80" s="75" t="e">
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L81" s="61" t="str">
@@ -9416,7 +9416,7 @@
         <v>YORK</v>
       </c>
       <c r="M81" s="12">
-        <f t="shared" si="18"/>
+        <f>I81-F81</f>
         <v>1.767361110978527E-2</v>
       </c>
       <c r="N81" s="13"/>
@@ -9432,27 +9432,27 @@
         <v>538</v>
       </c>
       <c r="T81" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:10:25-0600',mode:absolute,to:'2016-05-22 14:40:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y81&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V81" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
         <v>3</v>
       </c>
       <c r="W81" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X81" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
         <v>3.7717000000000001</v>
       </c>
       <c r="Y81" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X81-W81)</f>
         <v>3.7250999999999999</v>
       </c>
       <c r="Z81" s="75">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L82" s="61" t="str">
@@ -9504,7 +9504,7 @@
         <v>YORK</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" si="18"/>
+        <f>I82-F82</f>
         <v>1.5729166669188999E-2</v>
       </c>
       <c r="N82" s="13"/>
@@ -9513,27 +9513,27 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:46:37-0600',mode:absolute,to:'2016-05-22 15:12:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y82&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V82" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
         <v>0</v>
       </c>
       <c r="W82" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
         <v>6.4753999999999996</v>
       </c>
       <c r="X82" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
         <v>23.330200000000001</v>
       </c>
       <c r="Y82" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X82-W82)</f>
         <v>16.854800000000001</v>
       </c>
       <c r="Z82" s="75">
@@ -9577,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="K83" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L83" s="61" t="str">
@@ -9585,11 +9585,11 @@
         <v>YORK</v>
       </c>
       <c r="M83" s="12">
-        <f t="shared" si="18"/>
+        <f>I83-F83</f>
         <v>3.1030092592118308E-2</v>
       </c>
       <c r="N83" s="13">
-        <f t="shared" ref="N83" si="26">24*60*SUM($M83:$M83)</f>
+        <f>24*60*SUM($M83:$M83)</f>
         <v>44.683333332650363</v>
       </c>
       <c r="O83" s="13"/>
@@ -9597,25 +9597,25 @@
       <c r="Q83" s="62"/>
       <c r="R83" s="62"/>
       <c r="T83" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:20:29-0600',mode:absolute,to:'2016-05-22 16:08:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="74" t="s">
         <v>88</v>
       </c>
       <c r="V83" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
         <v>1</v>
       </c>
       <c r="W83" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
         <v>23.2989</v>
       </c>
       <c r="X83" s="74">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y83" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X83-W83)</f>
         <v>23.283899999999999</v>
       </c>
       <c r="Z83" s="75">
@@ -9659,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L84" s="61" t="str">
@@ -9667,11 +9667,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M84" s="12">
-        <f t="shared" si="18"/>
+        <f>I84-F84</f>
         <v>3.3310185186564922E-2</v>
       </c>
       <c r="N84" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M84:$M84)</f>
         <v>47.966666668653488</v>
       </c>
       <c r="O84" s="13"/>
@@ -9679,27 +9679,27 @@
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
       <c r="T84" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:42:33-0600',mode:absolute,to:'2016-05-22 15:34:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y84&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V84" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
         <v>1</v>
       </c>
       <c r="W84" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X84" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
         <v>23.3293</v>
       </c>
       <c r="Y84" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X84-W84)</f>
         <v>23.283799999999999</v>
       </c>
       <c r="Z84" s="75">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L85" s="61" t="str">
@@ -9751,11 +9751,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="18"/>
+        <f>I85-F85</f>
         <v>2.6736111110949423E-2</v>
       </c>
       <c r="N85" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M85:$M85)</f>
         <v>38.499999999767169</v>
       </c>
       <c r="O85" s="13"/>
@@ -9763,27 +9763,27 @@
       <c r="Q85" s="62"/>
       <c r="R85" s="62"/>
       <c r="T85" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:40:15-0600',mode:absolute,to:'2016-05-22 16:22:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y85&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V85" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
         <v>1</v>
       </c>
       <c r="W85" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
         <v>23.297499999999999</v>
       </c>
       <c r="X85" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
         <v>1.43E-2</v>
       </c>
       <c r="Y85" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X85-W85)</f>
         <v>23.283200000000001</v>
       </c>
       <c r="Z85" s="75" t="e">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L86" s="61" t="str">
@@ -9835,11 +9835,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M86" s="12">
-        <f t="shared" si="18"/>
+        <f>I86-F86</f>
         <v>2.9687499998544808E-2</v>
       </c>
       <c r="N86" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M86:$M86)</f>
         <v>42.749999997904524</v>
       </c>
       <c r="O86" s="13"/>
@@ -9847,27 +9847,27 @@
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
       <c r="T86" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:50:15-0600',mode:absolute,to:'2016-05-22 15:38:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y86&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V86" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
         <v>1</v>
       </c>
       <c r="W86" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X86" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H86,LEN(H86)-4)/10000</f>
         <v>23.329799999999999</v>
       </c>
       <c r="Y86" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X86-W86)</f>
         <v>23.2851</v>
       </c>
       <c r="Z86" s="75" t="e">
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L87" s="61" t="str">
@@ -9919,11 +9919,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M87" s="12">
-        <f t="shared" si="18"/>
+        <f>I87-F87</f>
         <v>3.6111111112404615E-2</v>
       </c>
       <c r="N87" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M87:$M87)</f>
         <v>52.000000001862645</v>
       </c>
       <c r="O87" s="13"/>
@@ -9931,27 +9931,27 @@
       <c r="Q87" s="62"/>
       <c r="R87" s="62"/>
       <c r="T87" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:42:15-0600',mode:absolute,to:'2016-05-22 16:37:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y87&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V87" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
         <v>1</v>
       </c>
       <c r="W87" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
         <v>23.299800000000001</v>
       </c>
       <c r="X87" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H87,LEN(H87)-4)/10000</f>
         <v>1.61E-2</v>
       </c>
       <c r="Y87" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X87-W87)</f>
         <v>23.2837</v>
       </c>
       <c r="Z87" s="75">
@@ -9995,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L88" s="61" t="str">
@@ -10003,11 +10003,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="18"/>
+        <f>I88-F88</f>
         <v>2.7372685188311152E-2</v>
       </c>
       <c r="N88" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M88:$M88)</f>
         <v>39.416666671168059</v>
       </c>
       <c r="O88" s="13"/>
@@ -10015,27 +10015,27 @@
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
       <c r="T88" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:10:29-0600',mode:absolute,to:'2016-05-22 15:53:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y88&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V88" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
         <v>1</v>
       </c>
       <c r="W88" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X88" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H88,LEN(H88)-4)/10000</f>
         <v>23.329499999999999</v>
       </c>
       <c r="Y88" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X88-W88)</f>
         <v>23.284600000000001</v>
       </c>
       <c r="Z88" s="75">
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L89" s="61" t="str">
@@ -10087,11 +10087,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="18"/>
+        <f>I89-F89</f>
         <v>3.6030092596774921E-2</v>
       </c>
       <c r="N89" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M89:$M89)</f>
         <v>51.883333339355886</v>
       </c>
       <c r="O89" s="13"/>
@@ -10099,27 +10099,27 @@
       <c r="Q89" s="62"/>
       <c r="R89" s="62"/>
       <c r="T89" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:04:00-0600',mode:absolute,to:'2016-05-22 16:59:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y89&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V89" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
         <v>1</v>
       </c>
       <c r="W89" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
         <v>23.297499999999999</v>
       </c>
       <c r="X89" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H89,LEN(H89)-4)/10000</f>
         <v>1.38E-2</v>
       </c>
       <c r="Y89" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X89-W89)</f>
         <v>23.2837</v>
       </c>
       <c r="Z89" s="75" t="e">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L90" s="61" t="str">
@@ -10171,11 +10171,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M90" s="12">
-        <f t="shared" si="18"/>
+        <f>I90-F90</f>
         <v>2.4456018516502809E-2</v>
       </c>
       <c r="N90" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M90:$M90)</f>
         <v>35.216666663764045</v>
       </c>
       <c r="O90" s="13"/>
@@ -10183,27 +10183,27 @@
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
       <c r="T90" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:25:58-0600',mode:absolute,to:'2016-05-22 16:06:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y90&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V90" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
         <v>1</v>
       </c>
       <c r="W90" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="X90" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H90,LEN(H90)-4)/10000</f>
         <v>23.338899999999999</v>
       </c>
       <c r="Y90" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X90-W90)</f>
         <v>23.293599999999998</v>
       </c>
       <c r="Z90" s="75" t="e">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L91" s="61" t="str">
@@ -10255,11 +10255,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="18"/>
+        <f>I91-F91</f>
         <v>3.1863425931078382E-2</v>
       </c>
       <c r="N91" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M91:$M91)</f>
         <v>45.88333334075287</v>
       </c>
       <c r="O91" s="13"/>
@@ -10267,27 +10267,27 @@
       <c r="Q91" s="62"/>
       <c r="R91" s="62"/>
       <c r="T91" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:17:13-0600',mode:absolute,to:'2016-05-22 17:06:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y91&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V91" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
         <v>1</v>
       </c>
       <c r="W91" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D91,LEN(D91)-4)/10000</f>
         <v>23.307200000000002</v>
       </c>
       <c r="X91" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H91,LEN(H91)-4)/10000</f>
         <v>1.67E-2</v>
       </c>
       <c r="Y91" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X91-W91)</f>
         <v>23.290500000000002</v>
       </c>
       <c r="Z91" s="75" t="e">
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L92" s="61" t="str">
@@ -10339,11 +10339,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="18"/>
+        <f>I92-F92</f>
         <v>2.8923611112986691E-2</v>
       </c>
       <c r="N92" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M92:$M92)</f>
         <v>41.650000002700835</v>
       </c>
       <c r="O92" s="13"/>
@@ -10351,27 +10351,27 @@
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
       <c r="T92" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:45:55-0600',mode:absolute,to:'2016-05-22 16:30:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y92&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V92" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
         <v>1</v>
       </c>
       <c r="W92" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D92,LEN(D92)-4)/10000</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X92" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H92,LEN(H92)-4)/10000</f>
         <v>23.330100000000002</v>
       </c>
       <c r="Y92" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X92-W92)</f>
         <v>23.2835</v>
       </c>
       <c r="Z92" s="75" t="e">
@@ -10415,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L93" s="61" t="str">
@@ -10423,11 +10423,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M93" s="12">
-        <f t="shared" si="18"/>
+        <f>I93-F93</f>
         <v>3.2256944446999114E-2</v>
       </c>
       <c r="N93" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M93:$M93)</f>
         <v>46.450000003678724</v>
       </c>
       <c r="O93" s="13"/>
@@ -10435,27 +10435,27 @@
       <c r="Q93" s="62"/>
       <c r="R93" s="62"/>
       <c r="T93" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E93-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I93+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B93&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:35:16-0600',mode:absolute,to:'2016-05-22 17:25:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y93&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V93" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
         <v>1</v>
       </c>
       <c r="W93" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D93,LEN(D93)-4)/10000</f>
         <v>23.2973</v>
       </c>
       <c r="X93" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H93,LEN(H93)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y93" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X93-W93)</f>
         <v>23.282299999999999</v>
       </c>
       <c r="Z93" s="75">
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L94" s="61" t="str">
@@ -10507,11 +10507,11 @@
         <v>YORK</v>
       </c>
       <c r="M94" s="12">
-        <f t="shared" si="18"/>
+        <f>I94-F94</f>
         <v>3.0659722222480923E-2</v>
       </c>
       <c r="N94" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M94:$M94)</f>
         <v>44.150000000372529</v>
       </c>
       <c r="O94" s="13"/>
@@ -10519,27 +10519,27 @@
       <c r="Q94" s="62"/>
       <c r="R94" s="62"/>
       <c r="T94" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E94-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I94+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B94&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:08:57-0600',mode:absolute,to:'2016-05-22 16:56:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y94&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V94" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A94,3))-VALUE(LEFT(A93,3))</f>
         <v>3</v>
       </c>
       <c r="W94" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D94,LEN(D94)-4)/10000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X94" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H94,LEN(H94)-4)/10000</f>
         <v>23.328900000000001</v>
       </c>
       <c r="Y94" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X94-W94)</f>
         <v>23.282900000000001</v>
       </c>
       <c r="Z94" s="75" t="e">
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L95" s="61" t="str">
@@ -10591,11 +10591,11 @@
         <v>YORK</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" si="18"/>
+        <f>I95-F95</f>
         <v>3.9942129624250811E-2</v>
       </c>
       <c r="N95" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M95:$M95)</f>
         <v>57.516666658921167</v>
       </c>
       <c r="O95" s="13"/>
@@ -10603,27 +10603,27 @@
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
       <c r="T95" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:56:32-0600',mode:absolute,to:'2016-05-22 17:57:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y95&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V95" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
         <v>1</v>
       </c>
       <c r="W95" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
         <v>23.296900000000001</v>
       </c>
       <c r="X95" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y95" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X95-W95)</f>
         <v>23.281700000000001</v>
       </c>
       <c r="Z95" s="75" t="e">
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L96" s="61" t="str">
@@ -10675,11 +10675,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="18"/>
+        <f>I96-F96</f>
         <v>2.9212962959718425E-2</v>
       </c>
       <c r="N96" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M96:$M96)</f>
         <v>42.066666661994532</v>
       </c>
       <c r="O96" s="13"/>
@@ -10687,27 +10687,27 @@
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
       <c r="T96" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:22:40-0600',mode:absolute,to:'2016-05-22 17:12:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y96&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V96" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
         <v>1</v>
       </c>
       <c r="W96" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X96" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
         <v>23.33</v>
       </c>
       <c r="Y96" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X96-W96)</f>
         <v>23.286199999999997</v>
       </c>
       <c r="Z96" s="75" t="e">
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L97" s="61" t="str">
@@ -10759,11 +10759,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M97" s="12">
-        <f t="shared" si="18"/>
+        <f>I97-F97</f>
         <v>3.2326388893125113E-2</v>
       </c>
       <c r="N97" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M97:$M97)</f>
         <v>46.550000006100163</v>
       </c>
       <c r="O97" s="13"/>
@@ -10771,27 +10771,27 @@
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
       <c r="T97" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:21:37-0600',mode:absolute,to:'2016-05-22 18:11:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y97&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V97" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
         <v>1</v>
       </c>
       <c r="W97" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
         <v>23.298300000000001</v>
       </c>
       <c r="X97" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
         <v>1.49E-2</v>
       </c>
       <c r="Y97" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X97-W97)</f>
         <v>23.2834</v>
       </c>
       <c r="Z97" s="75" t="e">
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L98" s="61" t="str">
@@ -10843,11 +10843,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M98" s="12">
-        <f t="shared" si="18"/>
+        <f>I98-F98</f>
         <v>2.7835648143081926E-2</v>
       </c>
       <c r="N98" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M98:$M98)</f>
         <v>40.083333326037973</v>
       </c>
       <c r="O98" s="13"/>
@@ -10855,27 +10855,27 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
       <c r="T98" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:38:04-0600',mode:absolute,to:'2016-05-22 17:21:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y98&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V98" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
         <v>1</v>
       </c>
       <c r="W98" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X98" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
         <v>23.330300000000001</v>
       </c>
       <c r="Y98" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X98-W98)</f>
         <v>23.2852</v>
       </c>
       <c r="Z98" s="75" t="e">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L99" s="61" t="str">
@@ -10927,11 +10927,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M99" s="12">
-        <f t="shared" si="18"/>
+        <f>I99-F99</f>
         <v>3.7025462966994382E-2</v>
       </c>
       <c r="N99" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M99:$M99)</f>
         <v>53.316666672471911</v>
       </c>
       <c r="O99" s="13"/>
@@ -10939,27 +10939,27 @@
       <c r="Q99" s="62"/>
       <c r="R99" s="62"/>
       <c r="T99" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:26:15-0600',mode:absolute,to:'2016-05-22 18:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y99&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V99" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
         <v>1</v>
       </c>
       <c r="W99" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
         <v>23.296500000000002</v>
       </c>
       <c r="X99" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
         <v>1.32E-2</v>
       </c>
       <c r="Y99" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X99-W99)</f>
         <v>23.283300000000001</v>
       </c>
       <c r="Z99" s="75" t="e">
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L100" s="61" t="str">
@@ -11011,11 +11011,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M100" s="12">
-        <f t="shared" si="18"/>
+        <f>I100-F100</f>
         <v>2.7083333334303461E-2</v>
       </c>
       <c r="N100" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M100:$M100)</f>
         <v>39.000000001396984</v>
       </c>
       <c r="O100" s="13"/>
@@ -11023,27 +11023,27 @@
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
       <c r="T100" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:59:31-0600',mode:absolute,to:'2016-05-22 17:42:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y100&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V100" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
         <v>1</v>
       </c>
       <c r="W100" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X100" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
         <v>23.329799999999999</v>
       </c>
       <c r="Y100" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X100-W100)</f>
         <v>23.2836</v>
       </c>
       <c r="Z100" s="75">
@@ -11087,7 +11087,7 @@
         <v>2</v>
       </c>
       <c r="K101" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L101" s="61" t="str">
@@ -11095,11 +11095,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M101" s="12">
-        <f t="shared" si="18"/>
+        <f>I101-F101</f>
         <v>3.1354166661913041E-2</v>
       </c>
       <c r="N101" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M101:$M101)</f>
         <v>45.149999993154779</v>
       </c>
       <c r="O101" s="13"/>
@@ -11107,27 +11107,27 @@
       <c r="Q101" s="62"/>
       <c r="R101" s="62"/>
       <c r="T101" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:50:00-0600',mode:absolute,to:'2016-05-22 18:38:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y101&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V101" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
         <v>1</v>
       </c>
       <c r="W101" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
         <v>23.299299999999999</v>
       </c>
       <c r="X101" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="Y101" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X101-W101)</f>
         <v>23.280199999999997</v>
       </c>
       <c r="Z101" s="75">
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L102" s="61" t="str">
@@ -11179,11 +11179,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M102" s="12">
-        <f t="shared" si="18"/>
+        <f>I102-F102</f>
         <v>2.7349537034751847E-2</v>
       </c>
       <c r="N102" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M102:$M102)</f>
         <v>39.38333333004266</v>
       </c>
       <c r="O102" s="13"/>
@@ -11191,27 +11191,27 @@
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
       <c r="T102" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:14:16-0600',mode:absolute,to:'2016-05-22 17:57:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y102&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V102" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
         <v>1</v>
       </c>
       <c r="W102" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X102" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
         <v>23.327400000000001</v>
       </c>
       <c r="Y102" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X102-W102)</f>
         <v>23.2805</v>
       </c>
       <c r="Z102" s="75" t="e">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L103" s="61" t="str">
@@ -11263,11 +11263,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M103" s="12">
-        <f t="shared" si="18"/>
+        <f>I103-F103</f>
         <v>3.5312500003783498E-2</v>
       </c>
       <c r="N103" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M103:$M103)</f>
         <v>50.850000005448237</v>
       </c>
       <c r="O103" s="13"/>
@@ -11275,27 +11275,27 @@
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
       <c r="T103" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:58:46-0600',mode:absolute,to:'2016-05-22 18:53:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y103&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V103" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
         <v>1</v>
       </c>
       <c r="W103" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
         <v>23.297999999999998</v>
       </c>
       <c r="X103" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
         <v>1.38E-2</v>
       </c>
       <c r="Y103" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X103-W103)</f>
         <v>23.284199999999998</v>
       </c>
       <c r="Z103" s="75" t="e">
@@ -11339,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="K104" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L104" s="61" t="str">
@@ -11347,11 +11347,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M104" s="12">
-        <f t="shared" si="18"/>
+        <f>I104-F104</f>
         <v>2.9386574075033423E-2</v>
       </c>
       <c r="N104" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M104:$M104)</f>
         <v>42.316666668048128</v>
       </c>
       <c r="O104" s="13"/>
@@ -11359,27 +11359,27 @@
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
       <c r="T104" s="74" t="str">
-        <f t="shared" ref="T104:T114" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:35:16-0600',mode:absolute,to:'2016-05-22 18:22:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="74" t="str">
-        <f t="shared" ref="U104:U114" si="28">IF(Y104&lt;23,"Y","N")</f>
+        <f>IF(Y104&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V104" s="74">
-        <f t="shared" ref="V104:V114" si="29">VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
+        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
         <v>1</v>
       </c>
       <c r="W104" s="74">
-        <f t="shared" ref="W104:W114" si="30">RIGHT(D104,LEN(D104)-4)/10000</f>
+        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
         <v>0.16919999999999999</v>
       </c>
       <c r="X104" s="74">
-        <f t="shared" ref="X104:X114" si="31">RIGHT(H104,LEN(H104)-4)/10000</f>
+        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
         <v>23.330200000000001</v>
       </c>
       <c r="Y104" s="74">
-        <f t="shared" ref="Y104:Y114" si="32">ABS(X104-W104)</f>
+        <f>ABS(X104-W104)</f>
         <v>23.161000000000001</v>
       </c>
       <c r="Z104" s="75">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L105" s="61" t="str">
@@ -11431,11 +11431,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M105" s="12">
-        <f t="shared" si="18"/>
+        <f>I105-F105</f>
         <v>3.0138888891087845E-2</v>
       </c>
       <c r="N105" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M105:$M105)</f>
         <v>43.400000003166497</v>
       </c>
       <c r="O105" s="13"/>
@@ -11443,27 +11443,27 @@
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
       <c r="T105" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:22:14-0600',mode:absolute,to:'2016-05-22 19:10:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y105&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V105" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
         <v>1</v>
       </c>
       <c r="W105" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
         <v>23.299099999999999</v>
       </c>
       <c r="X105" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y105" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X105-W105)</f>
         <v>23.285</v>
       </c>
       <c r="Z105" s="75" t="e">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L106" s="61" t="str">
@@ -11515,11 +11515,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M106" s="12">
-        <f t="shared" si="18"/>
+        <f>I106-F106</f>
         <v>2.9803240737237502E-2</v>
       </c>
       <c r="N106" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M106:$M106)</f>
         <v>42.916666661622003</v>
       </c>
       <c r="O106" s="13"/>
@@ -11527,27 +11527,27 @@
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
       <c r="T106" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:03:18-0600',mode:absolute,to:'2016-05-22 18:50:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y106&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V106" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
         <v>3</v>
       </c>
       <c r="W106" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X106" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
         <v>23.332100000000001</v>
       </c>
       <c r="Y106" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X106-W106)</f>
         <v>23.2883</v>
       </c>
       <c r="Z106" s="75">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L107" s="61" t="str">
@@ -11599,11 +11599,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M107" s="12">
-        <f t="shared" si="18"/>
+        <f>I107-F107</f>
         <v>2.9537037036789116E-2</v>
       </c>
       <c r="N107" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M107:$M107)</f>
         <v>42.533333332976326</v>
       </c>
       <c r="O107" s="13"/>
@@ -11611,27 +11611,27 @@
       <c r="Q107" s="62"/>
       <c r="R107" s="62"/>
       <c r="T107" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:52:14-0600',mode:absolute,to:'2016-05-22 19:38:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y107&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V107" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
         <v>1</v>
       </c>
       <c r="W107" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
         <v>23.300599999999999</v>
       </c>
       <c r="X107" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="Y107" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X107-W107)</f>
         <v>23.285899999999998</v>
       </c>
       <c r="Z107" s="75" t="e">
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L108" s="61" t="str">
@@ -11683,11 +11683,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M108" s="12">
-        <f t="shared" si="18"/>
+        <f>I108-F108</f>
         <v>3.3634259256359655E-2</v>
       </c>
       <c r="N108" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M108:$M108)</f>
         <v>48.433333329157904</v>
       </c>
       <c r="O108" s="13"/>
@@ -11695,27 +11695,27 @@
       <c r="Q108" s="62"/>
       <c r="R108" s="62"/>
       <c r="T108" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:12:26-0600',mode:absolute,to:'2016-05-22 19:04:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y108&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V108" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
         <v>1</v>
       </c>
       <c r="W108" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X108" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
         <v>23.329799999999999</v>
       </c>
       <c r="Y108" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X108-W108)</f>
         <v>23.2851</v>
       </c>
       <c r="Z108" s="75">
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L109" s="61" t="str">
@@ -11767,11 +11767,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M109" s="12">
-        <f t="shared" si="18"/>
+        <f>I109-F109</f>
         <v>2.8275462966121268E-2</v>
       </c>
       <c r="N109" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M109:$M109)</f>
         <v>40.716666671214625</v>
       </c>
       <c r="O109" s="13"/>
@@ -11779,27 +11779,27 @@
       <c r="Q109" s="62"/>
       <c r="R109" s="62"/>
       <c r="T109" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:12-0600',mode:absolute,to:'2016-05-22 19:55:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y109&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V109" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
         <v>1</v>
       </c>
       <c r="W109" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
         <v>23.299099999999999</v>
       </c>
       <c r="X109" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="Y109" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X109-W109)</f>
         <v>23.277699999999999</v>
       </c>
       <c r="Z109" s="75">
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L110" s="61" t="str">
@@ -11851,13 +11851,13 @@
         <v>BARTLETT</v>
       </c>
       <c r="M110" s="12">
-        <f t="shared" si="18"/>
+        <f>I110-F110</f>
         <v>1.1921296318178065E-3</v>
       </c>
       <c r="N110" s="13"/>
       <c r="O110" s="13"/>
       <c r="P110" s="13">
-        <f t="shared" ref="P110" si="33">24*60*SUM($M110:$M110)</f>
+        <f>24*60*SUM($M110:$M110)</f>
         <v>1.7166666698176414</v>
       </c>
       <c r="Q110" s="62" t="s">
@@ -11867,27 +11867,27 @@
         <v>538</v>
       </c>
       <c r="T110" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:23:20-0600',mode:absolute,to:'2016-05-22 18:28:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y110&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V110" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
         <v>1</v>
       </c>
       <c r="W110" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X110" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="Y110" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X110-W110)</f>
         <v>9.0000000000000496E-4</v>
       </c>
       <c r="Z110" s="75" t="e">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L111" s="61" t="str">
@@ -11939,11 +11939,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M111" s="12">
-        <f t="shared" si="18"/>
+        <f>I111-F111</f>
         <v>3.1747685185109731E-2</v>
       </c>
       <c r="N111" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M111:$M111)</f>
         <v>45.716666666558012</v>
       </c>
       <c r="O111" s="13"/>
@@ -11951,27 +11951,27 @@
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
       <c r="T111" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:16:09-0600',mode:absolute,to:'2016-05-22 20:05:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y111&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V111" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
         <v>1</v>
       </c>
       <c r="W111" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
         <v>23.297999999999998</v>
       </c>
       <c r="X111" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
         <v>0.17269999999999999</v>
       </c>
       <c r="Y111" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X111-W111)</f>
         <v>23.125299999999999</v>
       </c>
       <c r="Z111" s="75" t="e">
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L112" s="61" t="str">
@@ -12023,11 +12023,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M112" s="12">
-        <f t="shared" si="18"/>
+        <f>I112-F112</f>
         <v>2.7488425927003846E-2</v>
       </c>
       <c r="N112" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M112:$M112)</f>
         <v>39.583333334885538</v>
       </c>
       <c r="O112" s="13"/>
@@ -12035,27 +12035,27 @@
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
       <c r="T112" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:55:39-0600',mode:absolute,to:'2016-05-22 19:38:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y112&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V112" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
         <v>1</v>
       </c>
       <c r="W112" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X112" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
         <v>23.328900000000001</v>
       </c>
       <c r="Y112" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X112-W112)</f>
         <v>23.2818</v>
       </c>
       <c r="Z112" s="75" t="e">
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L113" s="61" t="str">
@@ -12107,11 +12107,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M113" s="12">
-        <f t="shared" si="18"/>
+        <f>I113-F113</f>
         <v>4.1041666663659271E-2</v>
       </c>
       <c r="N113" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M113:$M113)</f>
         <v>59.09999999566935</v>
       </c>
       <c r="O113" s="13"/>
@@ -12119,27 +12119,27 @@
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
       <c r="T113" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:16-0600',mode:absolute,to:'2016-05-22 20:13:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y113&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V113" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
         <v>2</v>
       </c>
       <c r="W113" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="X113" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
         <v>23.327200000000001</v>
       </c>
       <c r="Y113" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X113-W113)</f>
         <v>23.2788</v>
       </c>
       <c r="Z113" s="75" t="e">
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L114" s="61" t="str">
@@ -12191,11 +12191,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" si="18"/>
+        <f>I114-F114</f>
         <v>3.4375000002910383E-2</v>
       </c>
       <c r="N114" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M114:$M114)</f>
         <v>49.500000004190952</v>
       </c>
       <c r="O114" s="13"/>
@@ -12203,27 +12203,27 @@
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
       <c r="T114" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:21:38-0600',mode:absolute,to:'2016-05-22 21:16:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y114&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V114" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
         <v>1</v>
       </c>
       <c r="W114" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
         <v>23.2974</v>
       </c>
       <c r="X114" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y114" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X114-W114)</f>
         <v>23.282899999999998</v>
       </c>
       <c r="Z114" s="75" t="e">
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L115" s="61" t="str">
@@ -12275,11 +12275,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M115" s="12">
-        <f t="shared" si="18"/>
+        <f>I115-F115</f>
         <v>3.068287036876427E-2</v>
       </c>
       <c r="N115" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M115:$M115)</f>
         <v>44.183333331020549</v>
       </c>
       <c r="O115" s="13"/>
@@ -12287,27 +12287,27 @@
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
       <c r="T115" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:55:46-0600',mode:absolute,to:'2016-05-22 20:43:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y115&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V115" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
         <v>1</v>
       </c>
       <c r="W115" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="X115" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
         <v>23.331</v>
       </c>
       <c r="Y115" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X115-W115)</f>
         <v>23.2791</v>
       </c>
       <c r="Z115" s="75" t="e">
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L116" s="61" t="str">
@@ -12359,11 +12359,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M116" s="12">
-        <f t="shared" si="18"/>
+        <f>I116-F116</f>
         <v>3.3715277779265307E-2</v>
       </c>
       <c r="N116" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M116:$M116)</f>
         <v>48.550000002142042</v>
       </c>
       <c r="O116" s="13"/>
@@ -12371,27 +12371,27 @@
       <c r="Q116" s="62"/>
       <c r="R116" s="62"/>
       <c r="T116" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:49:38-0600',mode:absolute,to:'2016-05-22 21:41:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y116&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V116" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
         <v>1</v>
       </c>
       <c r="W116" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
         <v>23.299299999999999</v>
       </c>
       <c r="X116" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
         <v>1.54E-2</v>
       </c>
       <c r="Y116" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X116-W116)</f>
         <v>23.283899999999999</v>
       </c>
       <c r="Z116" s="75" t="e">
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L117" s="61" t="str">
@@ -12443,11 +12443,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M117" s="12">
-        <f t="shared" si="18"/>
+        <f>I117-F117</f>
         <v>3.6192129628034309E-2</v>
       </c>
       <c r="N117" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M117:$M117)</f>
         <v>52.116666664369404</v>
       </c>
       <c r="O117" s="13"/>
@@ -12455,27 +12455,27 @@
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
       <c r="T117" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:14:45-0600',mode:absolute,to:'2016-05-22 21:10:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y117&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V117" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
         <v>1</v>
       </c>
       <c r="W117" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X117" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
         <v>23.331900000000001</v>
       </c>
       <c r="Y117" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X117-W117)</f>
         <v>23.2864</v>
       </c>
       <c r="Z117" s="75" t="e">
@@ -12519,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L118" s="61" t="str">
@@ -12527,11 +12527,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M118" s="12">
-        <f t="shared" si="18"/>
+        <f>I118-F118</f>
         <v>3.160879630013369E-2</v>
       </c>
       <c r="N118" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M118:$M118)</f>
         <v>45.516666672192514</v>
       </c>
       <c r="O118" s="13"/>
@@ -12539,27 +12539,27 @@
       <c r="Q118" s="62"/>
       <c r="R118" s="62"/>
       <c r="T118" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:20:36-0600',mode:absolute,to:'2016-05-22 22:09:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y118&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V118" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
         <v>1</v>
       </c>
       <c r="W118" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
         <v>23.300799999999999</v>
       </c>
       <c r="X118" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y118" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X118-W118)</f>
         <v>23.285</v>
       </c>
       <c r="Z118" s="75" t="e">
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L119" s="61" t="str">
@@ -12611,11 +12611,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M119" s="12">
-        <f t="shared" si="18"/>
+        <f>I119-F119</f>
         <v>3.1712962969322689E-2</v>
       </c>
       <c r="N119" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M119:$M119)</f>
         <v>45.666666675824672</v>
       </c>
       <c r="O119" s="13"/>
@@ -12623,27 +12623,27 @@
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
       <c r="T119" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:52:10-0600',mode:absolute,to:'2016-05-22 21:42:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y119&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V119" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
         <v>1</v>
       </c>
       <c r="W119" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="X119" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
         <v>23.331</v>
       </c>
       <c r="Y119" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X119-W119)</f>
         <v>23.287700000000001</v>
       </c>
       <c r="Z119" s="75" t="e">
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L120" s="61" t="str">
@@ -12695,7 +12695,7 @@
         <v>JACKSON</v>
       </c>
       <c r="M120" s="12">
-        <f t="shared" si="18"/>
+        <f>I120-F120</f>
         <v>0</v>
       </c>
       <c r="N120" s="13"/>
@@ -12711,27 +12711,27 @@
         <v>543</v>
       </c>
       <c r="T120" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:46:31-0600',mode:absolute,to:'2016-05-22 22:49:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y120&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V120" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
         <v>1</v>
       </c>
       <c r="W120" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
         <v>1.83E-2</v>
       </c>
       <c r="X120" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
         <v>1.83E-2</v>
       </c>
       <c r="Y120" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X120-W120)</f>
         <v>0</v>
       </c>
       <c r="Z120" s="75" t="e">
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L121" s="61" t="str">
@@ -12783,11 +12783,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M121" s="12">
-        <f t="shared" si="18"/>
+        <f>I121-F121</f>
         <v>3.5555555557948537E-2</v>
       </c>
       <c r="N121" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M121:$M121)</f>
         <v>51.200000003445894</v>
       </c>
       <c r="O121" s="13"/>
@@ -12795,27 +12795,27 @@
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
       <c r="T121" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:19:40-0600',mode:absolute,to:'2016-05-22 22:14:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y121&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V121" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
         <v>1</v>
       </c>
       <c r="W121" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="X121" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
         <v>23.330200000000001</v>
       </c>
       <c r="Y121" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X121-W121)</f>
         <v>23.282500000000002</v>
       </c>
       <c r="Z121" s="75" t="e">
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L122" s="61" t="str">
@@ -12867,11 +12867,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M122" s="12">
-        <f t="shared" si="18"/>
+        <f>I122-F122</f>
         <v>4.5763888891087845E-2</v>
       </c>
       <c r="N122" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M122:$M122)</f>
         <v>65.900000003166497</v>
       </c>
       <c r="O122" s="13"/>
@@ -12879,27 +12879,27 @@
       <c r="Q122" s="62"/>
       <c r="R122" s="62"/>
       <c r="T122" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:16:07-0600',mode:absolute,to:'2016-05-22 23:25:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y122&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V122" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
         <v>1</v>
       </c>
       <c r="W122" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
         <v>23.297699999999999</v>
       </c>
       <c r="X122" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y122" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X122-W122)</f>
         <v>23.282499999999999</v>
       </c>
       <c r="Z122" s="75" t="e">
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L123" s="61" t="str">
@@ -12951,11 +12951,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M123" s="12">
-        <f t="shared" si="18"/>
+        <f>I123-F123</f>
         <v>3.1099537038244307E-2</v>
       </c>
       <c r="N123" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M123:$M123)</f>
         <v>44.783333335071802</v>
       </c>
       <c r="O123" s="13"/>
@@ -12963,27 +12963,27 @@
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
       <c r="T123" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:50:33-0600',mode:absolute,to:'2016-05-22 22:38:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y123&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V123" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
         <v>1</v>
       </c>
       <c r="W123" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D123,LEN(D123)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X123" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H123,LEN(H123)-4)/10000</f>
         <v>23.329799999999999</v>
       </c>
       <c r="Y123" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X123-W123)</f>
         <v>23.2836</v>
       </c>
       <c r="Z123" s="75" t="e">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L124" s="61" t="str">
@@ -13035,11 +13035,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M124" s="12">
-        <f t="shared" si="18"/>
+        <f>I124-F124</f>
         <v>3.9618055561732035E-2</v>
       </c>
       <c r="N124" s="13">
-        <f t="shared" si="25"/>
+        <f>24*60*SUM($M124:$M124)</f>
         <v>57.050000008894131</v>
       </c>
       <c r="O124" s="13"/>
@@ -13047,27 +13047,27 @@
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
       <c r="T124" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:48:27-0600',mode:absolute,to:'2016-05-22 23:49:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y124&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V124" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
         <v>1</v>
       </c>
       <c r="W124" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D124,LEN(D124)-4)/10000</f>
         <v>23.298100000000002</v>
       </c>
       <c r="X124" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H124,LEN(H124)-4)/10000</f>
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="Y124" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X124-W124)</f>
         <v>23.2592</v>
       </c>
       <c r="Z124" s="75">
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B125),(B125-1)&amp;"/"&amp;B125,B125&amp;"/"&amp;(B125+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L125" s="61" t="str">
@@ -13119,7 +13119,7 @@
         <v>BARTLETT</v>
       </c>
       <c r="M125" s="12">
-        <f t="shared" si="18"/>
+        <f>I125-F125</f>
         <v>1.1018518518540077E-2</v>
       </c>
       <c r="N125" s="13"/>
@@ -13135,27 +13135,27 @@
         <v>538</v>
       </c>
       <c r="T125" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:13:18-0600',mode:absolute,to:'2016-05-22 22:32:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y125&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V125" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
         <v>1</v>
       </c>
       <c r="W125" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D125,LEN(D125)-4)/10000</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="X125" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H125,LEN(H125)-4)/10000</f>
         <v>23.330400000000001</v>
       </c>
       <c r="Y125" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X125-W125)</f>
         <v>23.282400000000003</v>
       </c>
       <c r="Z125" s="75" t="e">
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K70:K131" si="17">IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L126" s="61" t="str">
@@ -13207,11 +13207,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M126" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="M70:M131" si="18">I126-F126</f>
         <v>3.4120370371965691E-2</v>
       </c>
       <c r="N126" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="N75:N134" si="19">24*60*SUM($M126:$M126)</f>
         <v>49.133333335630596</v>
       </c>
       <c r="O126" s="13"/>
@@ -13219,27 +13219,27 @@
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
       <c r="T126" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="T70:T131" si="20">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:17:45-0600',mode:absolute,to:'2016-05-23 00:12:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="U70:U131" si="21">IF(Y126&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V126" s="74">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="V70:V131" si="22">VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
         <v>1</v>
       </c>
       <c r="W126" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="W70:W131" si="23">RIGHT(D126,LEN(D126)-4)/10000</f>
         <v>23.300999999999998</v>
       </c>
       <c r="X126" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="X70:X131" si="24">RIGHT(H126,LEN(H126)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y126" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="Y70:Y131" si="25">ABS(X126-W126)</f>
         <v>23.286899999999999</v>
       </c>
       <c r="Z126" s="75" t="e">
@@ -13295,7 +13295,7 @@
         <v>4.0497685185982846E-2</v>
       </c>
       <c r="N127" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>58.316666667815298</v>
       </c>
       <c r="O127" s="13"/>
@@ -13303,27 +13303,27 @@
       <c r="Q127" s="62"/>
       <c r="R127" s="62"/>
       <c r="T127" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:50:15-0600',mode:absolute,to:'2016-05-22 23:51:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="V127" s="74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="W127" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X127" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y127" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.2852</v>
       </c>
       <c r="Z127" s="75" t="e">
@@ -13379,7 +13379,7 @@
         <v>3.3796296294895001E-2</v>
       </c>
       <c r="N128" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>48.666666664648801</v>
       </c>
       <c r="O128" s="13"/>
@@ -13387,27 +13387,27 @@
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
       <c r="T128" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:53:53-0600',mode:absolute,to:'2016-05-23 00:45:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="V128" s="74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="W128" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23.298300000000001</v>
       </c>
       <c r="X128" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y128" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z128" s="75" t="e">
@@ -13463,7 +13463,7 @@
         <v>3.3784722218115348E-2</v>
       </c>
       <c r="N129" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>48.649999994086102</v>
       </c>
       <c r="O129" s="13"/>
@@ -13471,27 +13471,27 @@
       <c r="Q129" s="62"/>
       <c r="R129" s="62"/>
       <c r="T129" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:29:17-0600',mode:absolute,to:'2016-05-23 00:22:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="V129" s="74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="W129" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X129" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y129" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.285399999999999</v>
       </c>
       <c r="Z129" s="75" t="e">
@@ -13547,7 +13547,7 @@
         <v>3.6585648143955041E-2</v>
       </c>
       <c r="N130" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>52.683333327295259</v>
       </c>
       <c r="O130" s="13"/>
@@ -13555,27 +13555,27 @@
       <c r="Q130" s="62"/>
       <c r="R130" s="62"/>
       <c r="T130" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:21:31-0600',mode:absolute,to:'2016-05-23 01:17:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="V130" s="74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="W130" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X130" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.32E-2</v>
       </c>
       <c r="Y130" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.2864</v>
       </c>
       <c r="Z130" s="75" t="e">
@@ -13631,7 +13631,7 @@
         <v>2.9340277775190771E-2</v>
       </c>
       <c r="N131" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>42.24999999627471</v>
       </c>
       <c r="O131" s="13"/>
@@ -13639,27 +13639,27 @@
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
       <c r="T131" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:52:06-0600',mode:absolute,to:'2016-05-23 00:38:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="V131" s="74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="W131" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.83E-2</v>
       </c>
       <c r="X131" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y131" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.261499999999998</v>
       </c>
       <c r="Z131" s="75">
@@ -13703,7 +13703,7 @@
         <v>2</v>
       </c>
       <c r="K132" s="61" t="str">
-        <f t="shared" ref="K132:K134" si="34">IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <f t="shared" ref="K132:K134" si="26">IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L132" s="61" t="str">
@@ -13711,11 +13711,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M132" s="12">
-        <f t="shared" ref="M132:M134" si="35">I132-F132</f>
+        <f t="shared" ref="M132:M134" si="27">I132-F132</f>
         <v>3.5474537042318843E-2</v>
       </c>
       <c r="N132" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>51.083333340939134</v>
       </c>
       <c r="O132" s="13"/>
@@ -13723,27 +13723,27 @@
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
       <c r="T132" s="74" t="str">
-        <f t="shared" ref="T132:T134" si="36">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T132:T134" si="28">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:47:34-0600',mode:absolute,to:'2016-05-23 01:41:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="74" t="str">
-        <f t="shared" ref="U132:U134" si="37">IF(Y132&lt;23,"Y","N")</f>
+        <f t="shared" ref="U132:U134" si="29">IF(Y132&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V132" s="74">
-        <f t="shared" ref="V132:V134" si="38">VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
+        <f t="shared" ref="V132:V134" si="30">VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
         <v>1</v>
       </c>
       <c r="W132" s="74">
-        <f t="shared" ref="W132:W134" si="39">RIGHT(D132,LEN(D132)-4)/10000</f>
+        <f t="shared" ref="W132:W134" si="31">RIGHT(D132,LEN(D132)-4)/10000</f>
         <v>23.2989</v>
       </c>
       <c r="X132" s="74">
-        <f t="shared" ref="X132:X134" si="40">RIGHT(H132,LEN(H132)-4)/10000</f>
+        <f t="shared" ref="X132:X134" si="32">RIGHT(H132,LEN(H132)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y132" s="74">
-        <f t="shared" ref="Y132:Y134" si="41">ABS(X132-W132)</f>
+        <f t="shared" ref="Y132:Y134" si="33">ABS(X132-W132)</f>
         <v>23.283100000000001</v>
       </c>
       <c r="Z132" s="75">
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>4023/4024</v>
       </c>
       <c r="L133" s="61" t="str">
@@ -13795,11 +13795,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M133" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>3.0532407407008577E-2</v>
       </c>
       <c r="N133" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>43.966666666092351</v>
       </c>
       <c r="O133" s="13"/>
@@ -13807,27 +13807,27 @@
       <c r="Q133" s="62"/>
       <c r="R133" s="62"/>
       <c r="T133" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:18:22-0600',mode:absolute,to:'2016-05-23 01:12:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V133" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W133" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X133" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y133" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>23.2835</v>
       </c>
       <c r="Z133" s="75" t="e">
@@ -13871,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>4023/4024</v>
       </c>
       <c r="L134" s="61" t="str">
@@ -13879,11 +13879,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M134" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>3.2708333332266193E-2</v>
       </c>
       <c r="N134" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>47.099999998463318</v>
       </c>
       <c r="O134" s="13"/>
@@ -13891,27 +13891,27 @@
       <c r="Q134" s="62"/>
       <c r="R134" s="62"/>
       <c r="T134" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 01:18:56-0600',mode:absolute,to:'2016-05-23 02:09:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V134" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W134" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X134" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y134" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>23.281600000000001</v>
       </c>
       <c r="Z134" s="75" t="e">

--- a/EC/Train Runs and Enforcements 2016-05-22.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2639,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,7 +2964,7 @@
         <v>3.8344907407008577E-2</v>
       </c>
       <c r="N4" s="13">
-        <f t="shared" ref="N4:P74" si="5">24*60*SUM($M4:$M4)</f>
+        <f t="shared" ref="N4:N52" si="5">24*60*SUM($M4:$M4)</f>
         <v>55.216666666092351</v>
       </c>
       <c r="O4" s="13"/>
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="61" t="str">
-        <f t="shared" ref="K5:K69" si="9">IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
+        <f t="shared" ref="K5:K52" si="9">IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L5" s="61" t="str">
@@ -3044,7 +3044,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" ref="M5:M69" si="10">I5-F5</f>
+        <f t="shared" ref="M5:M52" si="10">I5-F5</f>
         <v>2.9756944444670808E-2</v>
       </c>
       <c r="N5" s="13">
@@ -3056,27 +3056,27 @@
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
       <c r="T5" s="74" t="str">
-        <f t="shared" ref="T5:T69" si="11">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T5:T52" si="11">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 03:37:13-0600',mode:absolute,to:'2016-05-22 04:24:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U5" s="74" t="str">
-        <f t="shared" ref="U5:U69" si="12">IF(Y5&lt;23,"Y","N")</f>
+        <f t="shared" ref="U5:U52" si="12">IF(Y5&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V5" s="74">
-        <f t="shared" ref="V5:V67" si="13">VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
+        <f t="shared" ref="V5:V52" si="13">VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
         <v>1</v>
       </c>
       <c r="W5" s="74">
-        <f t="shared" ref="W5:W69" si="14">RIGHT(D5,LEN(D5)-4)/10000</f>
+        <f t="shared" ref="W5:W52" si="14">RIGHT(D5,LEN(D5)-4)/10000</f>
         <v>7.6100000000000001E-2</v>
       </c>
       <c r="X5" s="74">
-        <f t="shared" ref="X5:X69" si="15">RIGHT(H5,LEN(H5)-4)/10000</f>
+        <f t="shared" ref="X5:X52" si="15">RIGHT(H5,LEN(H5)-4)/10000</f>
         <v>23.326799999999999</v>
       </c>
       <c r="Y5" s="74">
-        <f t="shared" ref="Y5:Y69" si="16">ABS(X5-W5)</f>
+        <f t="shared" ref="Y5:Y52" si="16">ABS(X5-W5)</f>
         <v>23.250699999999998</v>
       </c>
       <c r="Z5" s="75">
@@ -7068,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="61" t="str">
-        <f>IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
+        <f t="shared" ref="K53:K84" si="17">IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L53" s="61" t="str">
@@ -7076,7 +7076,7 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M53" s="12">
-        <f>I53-F53</f>
+        <f t="shared" ref="M53:M84" si="18">I53-F53</f>
         <v>2.1932870367891155E-2</v>
       </c>
       <c r="N53" s="13"/>
@@ -7092,27 +7092,27 @@
         <v>538</v>
       </c>
       <c r="T53" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T53:T84" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:06:10-0600',mode:absolute,to:'2016-05-22 11:41:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="74" t="str">
-        <f>IF(Y53&lt;23,"Y","N")</f>
+        <f t="shared" ref="U53:U58" si="20">IF(Y53&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V53" s="74">
-        <f>VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
+        <f t="shared" ref="V53:V67" si="21">VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
         <v>1</v>
       </c>
       <c r="W53" s="74">
-        <f>RIGHT(D53,LEN(D53)-4)/10000</f>
+        <f t="shared" ref="W53:W67" si="22">RIGHT(D53,LEN(D53)-4)/10000</f>
         <v>23.297599999999999</v>
       </c>
       <c r="X53" s="74">
-        <f>RIGHT(H53,LEN(H53)-4)/10000</f>
+        <f t="shared" ref="X53:X67" si="23">RIGHT(H53,LEN(H53)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y53" s="74">
-        <f>ABS(X53-W53)</f>
+        <f t="shared" ref="Y53:Y67" si="24">ABS(X53-W53)</f>
         <v>23.2835</v>
       </c>
       <c r="Z53" s="75">
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="61" t="str">
-        <f>IF(ISEVEN(B54),(B54-1)&amp;"/"&amp;B54,B54&amp;"/"&amp;(B54+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L54" s="61" t="str">
@@ -7164,7 +7164,7 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M54" s="12">
-        <f>I54-F54</f>
+        <f t="shared" si="18"/>
         <v>3.5601851850515231E-2</v>
       </c>
       <c r="N54" s="13">
@@ -7176,27 +7176,27 @@
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
       <c r="T54" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E54-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I54+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B54&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 10:23:24-0600',mode:absolute,to:'2016-05-22 11:18:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="74" t="str">
-        <f>IF(Y54&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V54" s="74">
-        <f>VALUE(LEFT(A54,3))-VALUE(LEFT(A53,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W54" s="74">
-        <f>RIGHT(D54,LEN(D54)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="X54" s="74">
-        <f>RIGHT(H54,LEN(H54)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.3307</v>
       </c>
       <c r="Y54" s="74">
-        <f>ABS(X54-W54)</f>
+        <f t="shared" si="24"/>
         <v>23.283000000000001</v>
       </c>
       <c r="Z54" s="75" t="e">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="61" t="str">
-        <f>IF(ISEVEN(B55),(B55-1)&amp;"/"&amp;B55,B55&amp;"/"&amp;(B55+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L55" s="61" t="str">
@@ -7248,7 +7248,7 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M55" s="12">
-        <f>I55-F55</f>
+        <f t="shared" si="18"/>
         <v>3.1921296293148771E-2</v>
       </c>
       <c r="N55" s="13">
@@ -7260,27 +7260,27 @@
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="T55" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E55-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I55+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B55&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:19:33-0600',mode:absolute,to:'2016-05-22 12:10:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="74" t="str">
-        <f>IF(Y55&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V55" s="74">
-        <f>VALUE(LEFT(A55,3))-VALUE(LEFT(A54,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W55" s="74">
-        <f>RIGHT(D55,LEN(D55)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>23.296900000000001</v>
       </c>
       <c r="X55" s="74">
-        <f>RIGHT(H55,LEN(H55)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y55" s="74">
-        <f>ABS(X55-W55)</f>
+        <f t="shared" si="24"/>
         <v>23.2819</v>
       </c>
       <c r="Z55" s="75" t="e">
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="61" t="str">
-        <f>IF(ISEVEN(B56),(B56-1)&amp;"/"&amp;B56,B56&amp;"/"&amp;(B56+1))</f>
+        <f t="shared" si="17"/>
         <v>4017/4018</v>
       </c>
       <c r="L56" s="61" t="str">
@@ -7332,7 +7332,7 @@
         <v>YORK</v>
       </c>
       <c r="M56" s="12">
-        <f>I56-F56</f>
+        <f t="shared" si="18"/>
         <v>2.9618055559694767E-2</v>
       </c>
       <c r="N56" s="13">
@@ -7344,27 +7344,27 @@
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
       <c r="T56" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E56-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I56+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B56&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 10:47:21-0600',mode:absolute,to:'2016-05-22 11:33:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="74" t="str">
-        <f>IF(Y56&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V56" s="74">
-        <f>VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W56" s="74">
-        <f>RIGHT(D56,LEN(D56)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X56" s="74">
-        <f>RIGHT(H56,LEN(H56)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y56" s="74">
-        <f>ABS(X56-W56)</f>
+        <f t="shared" si="24"/>
         <v>23.2852</v>
       </c>
       <c r="Z56" s="75" t="e">
@@ -7408,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="61" t="str">
-        <f>IF(ISEVEN(B57),(B57-1)&amp;"/"&amp;B57,B57&amp;"/"&amp;(B57+1))</f>
+        <f t="shared" si="17"/>
         <v>4017/4018</v>
       </c>
       <c r="L57" s="61" t="str">
@@ -7416,7 +7416,7 @@
         <v>YORK</v>
       </c>
       <c r="M57" s="12">
-        <f>I57-F57</f>
+        <f t="shared" si="18"/>
         <v>2.8773148151230998E-2</v>
       </c>
       <c r="N57" s="13">
@@ -7428,27 +7428,27 @@
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
       <c r="T57" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E57-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I57+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B57&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:37:02-0600',mode:absolute,to:'2016-05-22 12:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="74" t="str">
-        <f>IF(Y57&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V57" s="74">
-        <f>VALUE(LEFT(A57,3))-VALUE(LEFT(A56,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W57" s="74">
-        <f>RIGHT(D57,LEN(D57)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>23.297899999999998</v>
       </c>
       <c r="X57" s="74">
-        <f>RIGHT(H57,LEN(H57)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y57" s="74">
-        <f>ABS(X57-W57)</f>
+        <f t="shared" si="24"/>
         <v>23.282999999999998</v>
       </c>
       <c r="Z57" s="75">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="61" t="str">
-        <f>IF(ISEVEN(B58),(B58-1)&amp;"/"&amp;B58,B58&amp;"/"&amp;(B58+1))</f>
+        <f t="shared" si="17"/>
         <v>4027/4028</v>
       </c>
       <c r="L58" s="61" t="str">
@@ -7500,7 +7500,7 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M58" s="12">
-        <f>I58-F58</f>
+        <f t="shared" si="18"/>
         <v>4.6296299842651933E-5</v>
       </c>
       <c r="N58" s="13"/>
@@ -7516,27 +7516,27 @@
         <v>538</v>
       </c>
       <c r="T58" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E58-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I58+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B58&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:02:46-0600',mode:absolute,to:'2016-05-22 11:08:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="74" t="str">
-        <f>IF(Y58&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>Y</v>
       </c>
       <c r="V58" s="74">
-        <f>VALUE(LEFT(A58,3))-VALUE(LEFT(A57,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W58" s="74">
-        <f>RIGHT(D58,LEN(D58)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="X58" s="74">
-        <f>RIGHT(H58,LEN(H58)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>8.0100000000000005E-2</v>
       </c>
       <c r="Y58" s="74">
-        <f>ABS(X58-W58)</f>
+        <f t="shared" si="24"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="Z58" s="75" t="e">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="61" t="str">
-        <f>IF(ISEVEN(B59),(B59-1)&amp;"/"&amp;B59,B59&amp;"/"&amp;(B59+1))</f>
+        <f t="shared" si="17"/>
         <v>4027/4028</v>
       </c>
       <c r="L59" s="61" t="str">
@@ -7588,7 +7588,7 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M59" s="12">
-        <f>I59-F59</f>
+        <f t="shared" si="18"/>
         <v>3.0763888891669922E-2</v>
       </c>
       <c r="N59" s="13">
@@ -7600,26 +7600,26 @@
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
       <c r="T59" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E59-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I59+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B59&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:10:35-0600',mode:absolute,to:'2016-05-22 12:58:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="74" t="s">
         <v>88</v>
       </c>
       <c r="V59" s="74">
-        <f>VALUE(LEFT(A59,3))-VALUE(LEFT(A58,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W59" s="74">
-        <f>RIGHT(D59,LEN(D59)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>23.305900000000001</v>
       </c>
       <c r="X59" s="74">
-        <f>RIGHT(H59,LEN(H59)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>0.34210000000000002</v>
       </c>
       <c r="Y59" s="74">
-        <f>ABS(X59-W59)</f>
+        <f t="shared" si="24"/>
         <v>22.963800000000003</v>
       </c>
       <c r="Z59" s="75" t="e">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="61" t="str">
-        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
+        <f t="shared" si="17"/>
         <v>4041/4042</v>
       </c>
       <c r="L60" s="61" t="str">
@@ -7671,7 +7671,7 @@
         <v>BUTLER</v>
       </c>
       <c r="M60" s="12">
-        <f>I60-F60</f>
+        <f t="shared" si="18"/>
         <v>3.3958333333430346E-2</v>
       </c>
       <c r="N60" s="13">
@@ -7683,27 +7683,27 @@
       <c r="Q60" s="62"/>
       <c r="R60" s="62"/>
       <c r="T60" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:15:36-0600',mode:absolute,to:'2016-05-22 12:08:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="74" t="str">
-        <f>IF(Y60&lt;23,"Y","N")</f>
+        <f t="shared" ref="U60:U67" si="25">IF(Y60&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V60" s="74">
-        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W60" s="74">
-        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X60" s="74">
-        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y60" s="74">
-        <f>ABS(X60-W60)</f>
+        <f t="shared" si="24"/>
         <v>23.283900000000003</v>
       </c>
       <c r="Z60" s="75" t="e">
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="61" t="str">
-        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
+        <f t="shared" si="17"/>
         <v>4041/4042</v>
       </c>
       <c r="L61" s="61" t="str">
@@ -7755,7 +7755,7 @@
         <v>BUTLER</v>
       </c>
       <c r="M61" s="12">
-        <f>I61-F61</f>
+        <f t="shared" si="18"/>
         <v>3.5856481481459923E-2</v>
       </c>
       <c r="N61" s="13">
@@ -7767,27 +7767,27 @@
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
       <c r="T61" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:09:00-0600',mode:absolute,to:'2016-05-22 13:04:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="74" t="str">
-        <f>IF(Y61&lt;23,"Y","N")</f>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V61" s="74">
-        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W61" s="74">
-        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>23.2988</v>
       </c>
       <c r="X61" s="74">
-        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.32E-2</v>
       </c>
       <c r="Y61" s="74">
-        <f>ABS(X61-W61)</f>
+        <f t="shared" si="24"/>
         <v>23.285599999999999</v>
       </c>
       <c r="Z61" s="75" t="e">
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="61" t="str">
-        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
+        <f t="shared" si="17"/>
         <v>4023/4024</v>
       </c>
       <c r="L62" s="61" t="str">
@@ -7839,7 +7839,7 @@
         <v>BONDS</v>
       </c>
       <c r="M62" s="12">
-        <f>I62-F62</f>
+        <f t="shared" si="18"/>
         <v>2.0717592589790002E-2</v>
       </c>
       <c r="N62" s="13"/>
@@ -7855,27 +7855,27 @@
         <v>539</v>
       </c>
       <c r="T62" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:22:57-0600',mode:absolute,to:'2016-05-22 12:56:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="74" t="str">
-        <f>IF(Y62&lt;23,"Y","N")</f>
+        <f t="shared" si="25"/>
         <v>Y</v>
       </c>
       <c r="V62" s="74">
-        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="W62" s="74">
-        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X62" s="74">
-        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>6.4124999999999996</v>
       </c>
       <c r="Y62" s="74">
-        <f>ABS(X62-W62)</f>
+        <f t="shared" si="24"/>
         <v>16.886000000000003</v>
       </c>
       <c r="Z62" s="75">
@@ -7919,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="61" t="str">
-        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
+        <f t="shared" si="17"/>
         <v>4007/4008</v>
       </c>
       <c r="L63" s="61" t="str">
@@ -7927,7 +7927,7 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M63" s="12">
-        <f>I63-F63</f>
+        <f t="shared" si="18"/>
         <v>3.0081018514465541E-2</v>
       </c>
       <c r="N63" s="13">
@@ -7939,27 +7939,27 @@
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
       <c r="T63" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 11:39:04-0600',mode:absolute,to:'2016-05-22 12:28:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="74" t="str">
-        <f>IF(Y63&lt;23,"Y","N")</f>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V63" s="74">
-        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W63" s="74">
-        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X63" s="74">
-        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.3416</v>
       </c>
       <c r="Y63" s="74">
-        <f>ABS(X63-W63)</f>
+        <f t="shared" si="24"/>
         <v>23.2959</v>
       </c>
       <c r="Z63" s="75">
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="61" t="str">
-        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
+        <f t="shared" si="17"/>
         <v>4007/4008</v>
       </c>
       <c r="L64" s="61" t="str">
@@ -8011,7 +8011,7 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M64" s="12">
-        <f>I64-F64</f>
+        <f t="shared" si="18"/>
         <v>2.9710648144828156E-2</v>
       </c>
       <c r="N64" s="13">
@@ -8023,27 +8023,27 @@
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
       <c r="T64" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:38:28-0600',mode:absolute,to:'2016-05-22 13:24:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="74" t="str">
-        <f>IF(Y64&lt;23,"Y","N")</f>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V64" s="74">
-        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W64" s="74">
-        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>23.3065</v>
       </c>
       <c r="X64" s="74">
-        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y64" s="74">
-        <f>ABS(X64-W64)</f>
+        <f t="shared" si="24"/>
         <v>23.291799999999999</v>
       </c>
       <c r="Z64" s="75" t="e">
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="61" t="str">
-        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
+        <f t="shared" si="17"/>
         <v>4001/4002</v>
       </c>
       <c r="L65" s="61" t="str">
@@ -8095,7 +8095,7 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M65" s="12">
-        <f>I65-F65</f>
+        <f t="shared" si="18"/>
         <v>2.4108796300424729E-2</v>
       </c>
       <c r="N65" s="13"/>
@@ -8111,27 +8111,27 @@
         <v>540</v>
       </c>
       <c r="T65" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:20:08-0600',mode:absolute,to:'2016-05-22 12:58:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="74" t="str">
-        <f>IF(Y65&lt;23,"Y","N")</f>
+        <f t="shared" si="25"/>
         <v>Y</v>
       </c>
       <c r="V65" s="74">
-        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W65" s="74">
-        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>1.9136</v>
       </c>
       <c r="X65" s="74">
-        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.328700000000001</v>
       </c>
       <c r="Y65" s="74">
-        <f>ABS(X65-W65)</f>
+        <f t="shared" si="24"/>
         <v>21.415100000000002</v>
       </c>
       <c r="Z65" s="75" t="e">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="61" t="str">
-        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
+        <f t="shared" si="17"/>
         <v>4001/4002</v>
       </c>
       <c r="L66" s="61" t="str">
@@ -8183,7 +8183,7 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M66" s="12">
-        <f>I66-F66</f>
+        <f t="shared" si="18"/>
         <v>2.7430555557657499E-2</v>
       </c>
       <c r="N66" s="13">
@@ -8195,27 +8195,27 @@
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
       <c r="T66" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:58:51-0600',mode:absolute,to:'2016-05-22 13:41:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="74" t="str">
-        <f>IF(Y66&lt;23,"Y","N")</f>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V66" s="74">
-        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W66" s="74">
-        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X66" s="74">
-        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y66" s="74">
-        <f>ABS(X66-W66)</f>
+        <f t="shared" si="24"/>
         <v>23.284400000000002</v>
       </c>
       <c r="Z66" s="75">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="61" t="str">
-        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L67" s="61" t="str">
@@ -8267,7 +8267,7 @@
         <v>STEWART</v>
       </c>
       <c r="M67" s="12">
-        <f>I67-F67</f>
+        <f t="shared" si="18"/>
         <v>1.3703703705687076E-2</v>
       </c>
       <c r="N67" s="13"/>
@@ -8283,27 +8283,27 @@
         <v>539</v>
       </c>
       <c r="T67" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:12:41-0600',mode:absolute,to:'2016-05-22 12:36:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="74" t="str">
-        <f>IF(Y67&lt;23,"Y","N")</f>
+        <f t="shared" si="25"/>
         <v>Y</v>
       </c>
       <c r="V67" s="74">
-        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W67" s="74">
-        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
+        <f t="shared" si="22"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X67" s="74">
-        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>5.2117000000000004</v>
       </c>
       <c r="Y67" s="74">
-        <f>ABS(X67-W67)</f>
+        <f t="shared" si="24"/>
         <v>5.1653000000000002</v>
       </c>
       <c r="Z67" s="75">
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="61" t="str">
-        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L68" s="61" t="str">
@@ -8345,11 +8345,11 @@
         <v>STEWART</v>
       </c>
       <c r="M68" s="12">
-        <f>I68-F68</f>
+        <f t="shared" si="18"/>
         <v>3.050925926072523E-2</v>
       </c>
       <c r="N68" s="13">
-        <f>24*60*SUM($M68:$M68)</f>
+        <f t="shared" ref="N68:N80" si="26">24*60*SUM($M68:$M68)</f>
         <v>43.933333335444331</v>
       </c>
       <c r="O68" s="13"/>
@@ -8357,7 +8357,7 @@
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
       <c r="T68" s="74" t="e">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="U68" s="74"/>
@@ -8400,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="61" t="str">
-        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
+        <f t="shared" si="17"/>
         <v>4017/4018</v>
       </c>
       <c r="L69" s="61" t="str">
@@ -8408,11 +8408,11 @@
         <v>YORK</v>
       </c>
       <c r="M69" s="12">
-        <f>I69-F69</f>
+        <f t="shared" si="18"/>
         <v>3.1238425923220348E-2</v>
       </c>
       <c r="N69" s="13">
-        <f>24*60*SUM($M69:$M69)</f>
+        <f t="shared" si="26"/>
         <v>44.983333329437301</v>
       </c>
       <c r="O69" s="13"/>
@@ -8420,11 +8420,11 @@
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
       <c r="T69" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:23:05-0600',mode:absolute,to:'2016-05-22 13:11:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="74" t="str">
-        <f>IF(Y69&lt;23,"Y","N")</f>
+        <f t="shared" ref="U69:U82" si="27">IF(Y69&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V69" s="74">
@@ -8432,15 +8432,15 @@
         <v>2</v>
       </c>
       <c r="W69" s="74">
-        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
+        <f t="shared" ref="W69:W100" si="28">RIGHT(D69,LEN(D69)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="X69" s="74">
-        <f>RIGHT(H69,LEN(H69)-4)/10000</f>
+        <f t="shared" ref="X69:X82" si="29">RIGHT(H69,LEN(H69)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y69" s="74">
-        <f>ABS(X69-W69)</f>
+        <f t="shared" ref="Y69:Y100" si="30">ABS(X69-W69)</f>
         <v>23.286199999999997</v>
       </c>
       <c r="Z69" s="75">
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="61" t="str">
-        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
+        <f t="shared" si="17"/>
         <v>4017/4018</v>
       </c>
       <c r="L70" s="61" t="str">
@@ -8492,11 +8492,11 @@
         <v>YORK</v>
       </c>
       <c r="M70" s="12">
-        <f>I70-F70</f>
+        <f t="shared" si="18"/>
         <v>3.4513888887886424E-2</v>
       </c>
       <c r="N70" s="13">
-        <f>24*60*SUM($M70:$M70)</f>
+        <f t="shared" si="26"/>
         <v>49.69999999855645</v>
       </c>
       <c r="O70" s="13"/>
@@ -8504,27 +8504,27 @@
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
       <c r="T70" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:17:02-0600',mode:absolute,to:'2016-05-22 14:10:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="74" t="str">
-        <f>IF(Y70&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V70" s="74">
-        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
+        <f t="shared" ref="V70:V101" si="31">VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
         <v>1</v>
       </c>
       <c r="W70" s="74">
-        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.2987</v>
       </c>
       <c r="X70" s="74">
-        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y70" s="74">
-        <f>ABS(X70-W70)</f>
+        <f t="shared" si="30"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z70" s="75" t="e">
@@ -8568,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="61" t="str">
-        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
+        <f t="shared" si="17"/>
         <v>4011/4012</v>
       </c>
       <c r="L71" s="61" t="str">
@@ -8576,11 +8576,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M71" s="12">
-        <f>I71-F71</f>
+        <f t="shared" si="18"/>
         <v>3.1562500000291038E-2</v>
       </c>
       <c r="N71" s="13">
-        <f>24*60*SUM($M71:$M71)</f>
+        <f t="shared" si="26"/>
         <v>45.450000000419095</v>
       </c>
       <c r="O71" s="13"/>
@@ -8588,27 +8588,27 @@
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
       <c r="T71" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 12:58:11-0600',mode:absolute,to:'2016-05-22 13:47:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="74" t="str">
-        <f>IF(Y71&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V71" s="74">
-        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="W71" s="74">
-        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="X71" s="74">
-        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.33</v>
       </c>
       <c r="Y71" s="74">
-        <f>ABS(X71-W71)</f>
+        <f t="shared" si="30"/>
         <v>23.286499999999997</v>
       </c>
       <c r="Z71" s="75">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="61" t="str">
-        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
+        <f t="shared" si="17"/>
         <v>4011/4012</v>
       </c>
       <c r="L72" s="61" t="str">
@@ -8660,11 +8660,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M72" s="12">
-        <f>I72-F72</f>
+        <f t="shared" si="18"/>
         <v>2.8009259258396924E-2</v>
       </c>
       <c r="N72" s="13">
-        <f>24*60*SUM($M72:$M72)</f>
+        <f t="shared" si="26"/>
         <v>40.33333333209157</v>
       </c>
       <c r="O72" s="13"/>
@@ -8672,27 +8672,27 @@
       <c r="Q72" s="62"/>
       <c r="R72" s="62"/>
       <c r="T72" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:57:19-0600',mode:absolute,to:'2016-05-22 14:41:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="74" t="str">
-        <f>IF(Y72&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V72" s="74">
-        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W72" s="74">
-        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X72" s="74">
-        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y72" s="74">
-        <f>ABS(X72-W72)</f>
+        <f t="shared" si="30"/>
         <v>23.284799999999997</v>
       </c>
       <c r="Z72" s="75" t="e">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="61" t="str">
-        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
+        <f t="shared" si="17"/>
         <v>4041/4042</v>
       </c>
       <c r="L73" s="61" t="str">
@@ -8744,11 +8744,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M73" s="12">
-        <f>I73-F73</f>
+        <f t="shared" si="18"/>
         <v>3.3414351855753921E-2</v>
       </c>
       <c r="N73" s="13">
-        <f>24*60*SUM($M73:$M73)</f>
+        <f t="shared" si="26"/>
         <v>48.116666672285646</v>
       </c>
       <c r="O73" s="13"/>
@@ -8756,27 +8756,27 @@
       <c r="Q73" s="62"/>
       <c r="R73" s="62"/>
       <c r="T73" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:04:24-0600',mode:absolute,to:'2016-05-22 13:55:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="74" t="str">
-        <f>IF(Y73&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V73" s="74">
-        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W73" s="74">
-        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.58E-2</v>
       </c>
       <c r="X73" s="74">
-        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y73" s="74">
-        <f>ABS(X73-W73)</f>
+        <f t="shared" si="30"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z73" s="75" t="e">
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="61" t="str">
-        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
+        <f t="shared" si="17"/>
         <v>4041/4042</v>
       </c>
       <c r="L74" s="61" t="str">
@@ -8828,11 +8828,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M74" s="12">
-        <f>I74-F74</f>
+        <f t="shared" si="18"/>
         <v>3.1655092592700385E-2</v>
       </c>
       <c r="N74" s="13">
-        <f>24*60*SUM($M74:$M74)</f>
+        <f t="shared" si="26"/>
         <v>45.583333333488554</v>
       </c>
       <c r="O74" s="13"/>
@@ -8840,27 +8840,27 @@
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
       <c r="T74" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:00:18-0600',mode:absolute,to:'2016-05-22 14:49:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="74" t="str">
-        <f>IF(Y74&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V74" s="74">
-        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W74" s="74">
-        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X74" s="74">
-        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y74" s="74">
-        <f>ABS(X74-W74)</f>
+        <f t="shared" si="30"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z74" s="75" t="e">
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="61" t="str">
-        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
+        <f t="shared" si="17"/>
         <v>4023/4024</v>
       </c>
       <c r="L75" s="61" t="str">
@@ -8912,11 +8912,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M75" s="12">
-        <f>I75-F75</f>
+        <f t="shared" si="18"/>
         <v>3.3831018517958E-2</v>
       </c>
       <c r="N75" s="13">
-        <f>24*60*SUM($M75:$M75)</f>
+        <f t="shared" si="26"/>
         <v>48.71666666585952</v>
       </c>
       <c r="O75" s="13"/>
@@ -8924,27 +8924,27 @@
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
       <c r="T75" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:27:55-0600',mode:absolute,to:'2016-05-22 14:20:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="74" t="str">
-        <f>IF(Y75&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V75" s="74">
-        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W75" s="74">
-        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.53E-2</v>
       </c>
       <c r="X75" s="74">
-        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y75" s="74">
-        <f>ABS(X75-W75)</f>
+        <f t="shared" si="30"/>
         <v>23.286099999999998</v>
       </c>
       <c r="Z75" s="75" t="e">
@@ -8988,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="61" t="str">
-        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
+        <f t="shared" si="17"/>
         <v>4023/4024</v>
       </c>
       <c r="L76" s="61" t="str">
@@ -8996,11 +8996,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M76" s="12">
-        <f>I76-F76</f>
+        <f t="shared" si="18"/>
         <v>2.8784722220734693E-2</v>
       </c>
       <c r="N76" s="13">
-        <f>24*60*SUM($M76:$M76)</f>
+        <f t="shared" si="26"/>
         <v>41.449999997857958</v>
       </c>
       <c r="O76" s="13"/>
@@ -9008,27 +9008,27 @@
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
       <c r="T76" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:23:22-0600',mode:absolute,to:'2016-05-22 15:07:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="74" t="str">
-        <f>IF(Y76&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V76" s="74">
-        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W76" s="74">
-        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.3</v>
       </c>
       <c r="X76" s="74">
-        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y76" s="74">
-        <f>ABS(X76-W76)</f>
+        <f t="shared" si="30"/>
         <v>23.285499999999999</v>
       </c>
       <c r="Z76" s="75">
@@ -9072,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="61" t="str">
-        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
+        <f t="shared" si="17"/>
         <v>4007/4008</v>
       </c>
       <c r="L77" s="61" t="str">
@@ -9080,11 +9080,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M77" s="12">
-        <f>I77-F77</f>
+        <f t="shared" si="18"/>
         <v>2.7164351849933155E-2</v>
       </c>
       <c r="N77" s="13">
-        <f>24*60*SUM($M77:$M77)</f>
+        <f t="shared" si="26"/>
         <v>39.116666663903743</v>
       </c>
       <c r="O77" s="13"/>
@@ -9092,27 +9092,27 @@
       <c r="Q77" s="62"/>
       <c r="R77" s="62"/>
       <c r="T77" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:40:40-0600',mode:absolute,to:'2016-05-22 14:22:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="74" t="str">
-        <f>IF(Y77&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V77" s="74">
-        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W77" s="74">
-        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.58E-2</v>
       </c>
       <c r="X77" s="74">
-        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.337</v>
       </c>
       <c r="Y77" s="74">
-        <f>ABS(X77-W77)</f>
+        <f t="shared" si="30"/>
         <v>23.2912</v>
       </c>
       <c r="Z77" s="75">
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="61" t="str">
-        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
+        <f t="shared" si="17"/>
         <v>4007/4008</v>
       </c>
       <c r="L78" s="61" t="str">
@@ -9164,11 +9164,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M78" s="12">
-        <f>I78-F78</f>
+        <f t="shared" si="18"/>
         <v>3.0219907406717539E-2</v>
       </c>
       <c r="N78" s="13">
-        <f>24*60*SUM($M78:$M78)</f>
+        <f t="shared" si="26"/>
         <v>43.516666665673256</v>
       </c>
       <c r="O78" s="13"/>
@@ -9176,27 +9176,27 @@
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
       <c r="T78" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:36:26-0600',mode:absolute,to:'2016-05-22 15:23:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="74" t="str">
-        <f>IF(Y78&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V78" s="74">
-        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W78" s="74">
-        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.305099999999999</v>
       </c>
       <c r="X78" s="74">
-        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="Y78" s="74">
-        <f>ABS(X78-W78)</f>
+        <f t="shared" si="30"/>
         <v>23.292400000000001</v>
       </c>
       <c r="Z78" s="75" t="e">
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="61" t="str">
-        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
+        <f t="shared" si="17"/>
         <v>4001/4002</v>
       </c>
       <c r="L79" s="61" t="str">
@@ -9248,11 +9248,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M79" s="12">
-        <f>I79-F79</f>
+        <f t="shared" si="18"/>
         <v>3.0393518522032537E-2</v>
       </c>
       <c r="N79" s="13">
-        <f>24*60*SUM($M79:$M79)</f>
+        <f t="shared" si="26"/>
         <v>43.766666671726853</v>
       </c>
       <c r="O79" s="13"/>
@@ -9260,27 +9260,27 @@
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
       <c r="T79" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 13:51:35-0600',mode:absolute,to:'2016-05-22 14:38:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="74" t="str">
-        <f>IF(Y79&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V79" s="74">
-        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W79" s="74">
-        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X79" s="74">
-        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y79" s="74">
-        <f>ABS(X79-W79)</f>
+        <f t="shared" si="30"/>
         <v>23.287199999999999</v>
       </c>
       <c r="Z79" s="75" t="e">
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="61" t="str">
-        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
+        <f t="shared" si="17"/>
         <v>4001/4002</v>
       </c>
       <c r="L80" s="61" t="str">
@@ -9332,11 +9332,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M80" s="12">
-        <f>I80-F80</f>
+        <f t="shared" si="18"/>
         <v>3.7071759259561077E-2</v>
       </c>
       <c r="N80" s="13">
-        <f>24*60*SUM($M80:$M80)</f>
+        <f t="shared" si="26"/>
         <v>53.383333333767951</v>
       </c>
       <c r="O80" s="13"/>
@@ -9344,27 +9344,27 @@
       <c r="Q80" s="62"/>
       <c r="R80" s="62"/>
       <c r="T80" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:46:30-0600',mode:absolute,to:'2016-05-22 15:43:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="74" t="str">
-        <f>IF(Y80&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>N</v>
       </c>
       <c r="V80" s="74">
-        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W80" s="74">
-        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.2987</v>
       </c>
       <c r="X80" s="74">
-        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y80" s="74">
-        <f>ABS(X80-W80)</f>
+        <f t="shared" si="30"/>
         <v>23.282399999999999</v>
       </c>
       <c r="Z80" s="75" t="e">
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="61" t="str">
-        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
+        <f t="shared" si="17"/>
         <v>4017/4018</v>
       </c>
       <c r="L81" s="61" t="str">
@@ -9416,7 +9416,7 @@
         <v>YORK</v>
       </c>
       <c r="M81" s="12">
-        <f>I81-F81</f>
+        <f t="shared" si="18"/>
         <v>1.767361110978527E-2</v>
       </c>
       <c r="N81" s="13"/>
@@ -9432,27 +9432,27 @@
         <v>538</v>
       </c>
       <c r="T81" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:10:25-0600',mode:absolute,to:'2016-05-22 14:40:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="74" t="str">
-        <f>IF(Y81&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>Y</v>
       </c>
       <c r="V81" s="74">
-        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="W81" s="74">
-        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X81" s="74">
-        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>3.7717000000000001</v>
       </c>
       <c r="Y81" s="74">
-        <f>ABS(X81-W81)</f>
+        <f t="shared" si="30"/>
         <v>3.7250999999999999</v>
       </c>
       <c r="Z81" s="75">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="61" t="str">
-        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
+        <f t="shared" si="17"/>
         <v>4017/4018</v>
       </c>
       <c r="L82" s="61" t="str">
@@ -9504,7 +9504,7 @@
         <v>YORK</v>
       </c>
       <c r="M82" s="12">
-        <f>I82-F82</f>
+        <f t="shared" si="18"/>
         <v>1.5729166669188999E-2</v>
       </c>
       <c r="N82" s="13"/>
@@ -9513,27 +9513,27 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:46:37-0600',mode:absolute,to:'2016-05-22 15:12:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="74" t="str">
-        <f>IF(Y82&lt;23,"Y","N")</f>
+        <f t="shared" si="27"/>
         <v>Y</v>
       </c>
       <c r="V82" s="74">
-        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W82" s="74">
-        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>6.4753999999999996</v>
       </c>
       <c r="X82" s="74">
-        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y82" s="74">
-        <f>ABS(X82-W82)</f>
+        <f t="shared" si="30"/>
         <v>16.854800000000001</v>
       </c>
       <c r="Z82" s="75">
@@ -9577,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="K83" s="61" t="str">
-        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
+        <f t="shared" si="17"/>
         <v>4017/4018</v>
       </c>
       <c r="L83" s="61" t="str">
@@ -9585,11 +9585,11 @@
         <v>YORK</v>
       </c>
       <c r="M83" s="12">
-        <f>I83-F83</f>
+        <f t="shared" si="18"/>
         <v>3.1030092592118308E-2</v>
       </c>
       <c r="N83" s="13">
-        <f>24*60*SUM($M83:$M83)</f>
+        <f t="shared" ref="N83:N109" si="32">24*60*SUM($M83:$M83)</f>
         <v>44.683333332650363</v>
       </c>
       <c r="O83" s="13"/>
@@ -9597,25 +9597,25 @@
       <c r="Q83" s="62"/>
       <c r="R83" s="62"/>
       <c r="T83" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:20:29-0600',mode:absolute,to:'2016-05-22 16:08:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="74" t="s">
         <v>88</v>
       </c>
       <c r="V83" s="74">
-        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W83" s="74">
-        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.2989</v>
       </c>
       <c r="X83" s="74">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y83" s="74">
-        <f>ABS(X83-W83)</f>
+        <f t="shared" si="30"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z83" s="75">
@@ -9659,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="61" t="str">
-        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
+        <f t="shared" si="17"/>
         <v>4011/4012</v>
       </c>
       <c r="L84" s="61" t="str">
@@ -9667,11 +9667,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M84" s="12">
-        <f>I84-F84</f>
+        <f t="shared" si="18"/>
         <v>3.3310185186564922E-2</v>
       </c>
       <c r="N84" s="13">
-        <f>24*60*SUM($M84:$M84)</f>
+        <f t="shared" si="32"/>
         <v>47.966666668653488</v>
       </c>
       <c r="O84" s="13"/>
@@ -9679,27 +9679,27 @@
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
       <c r="T84" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:42:33-0600',mode:absolute,to:'2016-05-22 15:34:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="74" t="str">
-        <f>IF(Y84&lt;23,"Y","N")</f>
+        <f t="shared" ref="U84:U125" si="33">IF(Y84&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V84" s="74">
-        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W84" s="74">
-        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X84" s="74">
-        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
+        <f t="shared" ref="X84:X125" si="34">RIGHT(H84,LEN(H84)-4)/10000</f>
         <v>23.3293</v>
       </c>
       <c r="Y84" s="74">
-        <f>ABS(X84-W84)</f>
+        <f t="shared" si="30"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z84" s="75">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="61" t="str">
-        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
+        <f t="shared" ref="K85:K116" si="35">IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L85" s="61" t="str">
@@ -9751,11 +9751,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M85" s="12">
-        <f>I85-F85</f>
+        <f t="shared" ref="M85:M116" si="36">I85-F85</f>
         <v>2.6736111110949423E-2</v>
       </c>
       <c r="N85" s="13">
-        <f>24*60*SUM($M85:$M85)</f>
+        <f t="shared" si="32"/>
         <v>38.499999999767169</v>
       </c>
       <c r="O85" s="13"/>
@@ -9763,27 +9763,27 @@
       <c r="Q85" s="62"/>
       <c r="R85" s="62"/>
       <c r="T85" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T85:T116" si="37">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:40:15-0600',mode:absolute,to:'2016-05-22 16:22:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="74" t="str">
-        <f>IF(Y85&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V85" s="74">
-        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W85" s="74">
-        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X85" s="74">
-        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y85" s="74">
-        <f>ABS(X85-W85)</f>
+        <f t="shared" si="30"/>
         <v>23.283200000000001</v>
       </c>
       <c r="Z85" s="75" t="e">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="61" t="str">
-        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
+        <f t="shared" si="35"/>
         <v>4041/4042</v>
       </c>
       <c r="L86" s="61" t="str">
@@ -9835,11 +9835,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M86" s="12">
-        <f>I86-F86</f>
+        <f t="shared" si="36"/>
         <v>2.9687499998544808E-2</v>
       </c>
       <c r="N86" s="13">
-        <f>24*60*SUM($M86:$M86)</f>
+        <f t="shared" si="32"/>
         <v>42.749999997904524</v>
       </c>
       <c r="O86" s="13"/>
@@ -9847,27 +9847,27 @@
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
       <c r="T86" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 14:50:15-0600',mode:absolute,to:'2016-05-22 15:38:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="74" t="str">
-        <f>IF(Y86&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V86" s="74">
-        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W86" s="74">
-        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X86" s="74">
-        <f>RIGHT(H86,LEN(H86)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y86" s="74">
-        <f>ABS(X86-W86)</f>
+        <f t="shared" si="30"/>
         <v>23.2851</v>
       </c>
       <c r="Z86" s="75" t="e">
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="61" t="str">
-        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
+        <f t="shared" si="35"/>
         <v>4041/4042</v>
       </c>
       <c r="L87" s="61" t="str">
@@ -9919,11 +9919,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M87" s="12">
-        <f>I87-F87</f>
+        <f t="shared" si="36"/>
         <v>3.6111111112404615E-2</v>
       </c>
       <c r="N87" s="13">
-        <f>24*60*SUM($M87:$M87)</f>
+        <f t="shared" si="32"/>
         <v>52.000000001862645</v>
       </c>
       <c r="O87" s="13"/>
@@ -9931,27 +9931,27 @@
       <c r="Q87" s="62"/>
       <c r="R87" s="62"/>
       <c r="T87" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:42:15-0600',mode:absolute,to:'2016-05-22 16:37:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="74" t="str">
-        <f>IF(Y87&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V87" s="74">
-        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W87" s="74">
-        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X87" s="74">
-        <f>RIGHT(H87,LEN(H87)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y87" s="74">
-        <f>ABS(X87-W87)</f>
+        <f t="shared" si="30"/>
         <v>23.2837</v>
       </c>
       <c r="Z87" s="75">
@@ -9995,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="61" t="str">
-        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
+        <f t="shared" si="35"/>
         <v>4023/4024</v>
       </c>
       <c r="L88" s="61" t="str">
@@ -10003,11 +10003,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M88" s="12">
-        <f>I88-F88</f>
+        <f t="shared" si="36"/>
         <v>2.7372685188311152E-2</v>
       </c>
       <c r="N88" s="13">
-        <f>24*60*SUM($M88:$M88)</f>
+        <f t="shared" si="32"/>
         <v>39.416666671168059</v>
       </c>
       <c r="O88" s="13"/>
@@ -10015,27 +10015,27 @@
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
       <c r="T88" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:10:29-0600',mode:absolute,to:'2016-05-22 15:53:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="74" t="str">
-        <f>IF(Y88&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V88" s="74">
-        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W88" s="74">
-        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X88" s="74">
-        <f>RIGHT(H88,LEN(H88)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y88" s="74">
-        <f>ABS(X88-W88)</f>
+        <f t="shared" si="30"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z88" s="75">
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="61" t="str">
-        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
+        <f t="shared" si="35"/>
         <v>4023/4024</v>
       </c>
       <c r="L89" s="61" t="str">
@@ -10087,11 +10087,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M89" s="12">
-        <f>I89-F89</f>
+        <f t="shared" si="36"/>
         <v>3.6030092596774921E-2</v>
       </c>
       <c r="N89" s="13">
-        <f>24*60*SUM($M89:$M89)</f>
+        <f t="shared" si="32"/>
         <v>51.883333339355886</v>
       </c>
       <c r="O89" s="13"/>
@@ -10099,27 +10099,27 @@
       <c r="Q89" s="62"/>
       <c r="R89" s="62"/>
       <c r="T89" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:04:00-0600',mode:absolute,to:'2016-05-22 16:59:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="74" t="str">
-        <f>IF(Y89&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V89" s="74">
-        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W89" s="74">
-        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X89" s="74">
-        <f>RIGHT(H89,LEN(H89)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y89" s="74">
-        <f>ABS(X89-W89)</f>
+        <f t="shared" si="30"/>
         <v>23.2837</v>
       </c>
       <c r="Z89" s="75" t="e">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="61" t="str">
-        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
+        <f t="shared" si="35"/>
         <v>4007/4008</v>
       </c>
       <c r="L90" s="61" t="str">
@@ -10171,11 +10171,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M90" s="12">
-        <f>I90-F90</f>
+        <f t="shared" si="36"/>
         <v>2.4456018516502809E-2</v>
       </c>
       <c r="N90" s="13">
-        <f>24*60*SUM($M90:$M90)</f>
+        <f t="shared" si="32"/>
         <v>35.216666663764045</v>
       </c>
       <c r="O90" s="13"/>
@@ -10183,27 +10183,27 @@
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
       <c r="T90" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:25:58-0600',mode:absolute,to:'2016-05-22 16:06:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="74" t="str">
-        <f>IF(Y90&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V90" s="74">
-        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W90" s="74">
-        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.53E-2</v>
       </c>
       <c r="X90" s="74">
-        <f>RIGHT(H90,LEN(H90)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.338899999999999</v>
       </c>
       <c r="Y90" s="74">
-        <f>ABS(X90-W90)</f>
+        <f t="shared" si="30"/>
         <v>23.293599999999998</v>
       </c>
       <c r="Z90" s="75" t="e">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="61" t="str">
-        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
+        <f t="shared" si="35"/>
         <v>4007/4008</v>
       </c>
       <c r="L91" s="61" t="str">
@@ -10255,11 +10255,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M91" s="12">
-        <f>I91-F91</f>
+        <f t="shared" si="36"/>
         <v>3.1863425931078382E-2</v>
       </c>
       <c r="N91" s="13">
-        <f>24*60*SUM($M91:$M91)</f>
+        <f t="shared" si="32"/>
         <v>45.88333334075287</v>
       </c>
       <c r="O91" s="13"/>
@@ -10267,27 +10267,27 @@
       <c r="Q91" s="62"/>
       <c r="R91" s="62"/>
       <c r="T91" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:17:13-0600',mode:absolute,to:'2016-05-22 17:06:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="74" t="str">
-        <f>IF(Y91&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V91" s="74">
-        <f>VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W91" s="74">
-        <f>RIGHT(D91,LEN(D91)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.307200000000002</v>
       </c>
       <c r="X91" s="74">
-        <f>RIGHT(H91,LEN(H91)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.67E-2</v>
       </c>
       <c r="Y91" s="74">
-        <f>ABS(X91-W91)</f>
+        <f t="shared" si="30"/>
         <v>23.290500000000002</v>
       </c>
       <c r="Z91" s="75" t="e">
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="61" t="str">
-        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
+        <f t="shared" si="35"/>
         <v>4001/4002</v>
       </c>
       <c r="L92" s="61" t="str">
@@ -10339,11 +10339,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M92" s="12">
-        <f>I92-F92</f>
+        <f t="shared" si="36"/>
         <v>2.8923611112986691E-2</v>
       </c>
       <c r="N92" s="13">
-        <f>24*60*SUM($M92:$M92)</f>
+        <f t="shared" si="32"/>
         <v>41.650000002700835</v>
       </c>
       <c r="O92" s="13"/>
@@ -10351,27 +10351,27 @@
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
       <c r="T92" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 15:45:55-0600',mode:absolute,to:'2016-05-22 16:30:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="74" t="str">
-        <f>IF(Y92&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V92" s="74">
-        <f>VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W92" s="74">
-        <f>RIGHT(D92,LEN(D92)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X92" s="74">
-        <f>RIGHT(H92,LEN(H92)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y92" s="74">
-        <f>ABS(X92-W92)</f>
+        <f t="shared" si="30"/>
         <v>23.2835</v>
       </c>
       <c r="Z92" s="75" t="e">
@@ -10415,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="61" t="str">
-        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
+        <f t="shared" si="35"/>
         <v>4001/4002</v>
       </c>
       <c r="L93" s="61" t="str">
@@ -10423,11 +10423,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M93" s="12">
-        <f>I93-F93</f>
+        <f t="shared" si="36"/>
         <v>3.2256944446999114E-2</v>
       </c>
       <c r="N93" s="13">
-        <f>24*60*SUM($M93:$M93)</f>
+        <f t="shared" si="32"/>
         <v>46.450000003678724</v>
       </c>
       <c r="O93" s="13"/>
@@ -10435,27 +10435,27 @@
       <c r="Q93" s="62"/>
       <c r="R93" s="62"/>
       <c r="T93" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E93-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I93+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B93&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:35:16-0600',mode:absolute,to:'2016-05-22 17:25:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="74" t="str">
-        <f>IF(Y93&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V93" s="74">
-        <f>VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W93" s="74">
-        <f>RIGHT(D93,LEN(D93)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.2973</v>
       </c>
       <c r="X93" s="74">
-        <f>RIGHT(H93,LEN(H93)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y93" s="74">
-        <f>ABS(X93-W93)</f>
+        <f t="shared" si="30"/>
         <v>23.282299999999999</v>
       </c>
       <c r="Z93" s="75">
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="61" t="str">
-        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
+        <f t="shared" si="35"/>
         <v>4017/4018</v>
       </c>
       <c r="L94" s="61" t="str">
@@ -10507,11 +10507,11 @@
         <v>YORK</v>
       </c>
       <c r="M94" s="12">
-        <f>I94-F94</f>
+        <f t="shared" si="36"/>
         <v>3.0659722222480923E-2</v>
       </c>
       <c r="N94" s="13">
-        <f>24*60*SUM($M94:$M94)</f>
+        <f t="shared" si="32"/>
         <v>44.150000000372529</v>
       </c>
       <c r="O94" s="13"/>
@@ -10519,27 +10519,27 @@
       <c r="Q94" s="62"/>
       <c r="R94" s="62"/>
       <c r="T94" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E94-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I94+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B94&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:08:57-0600',mode:absolute,to:'2016-05-22 16:56:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="74" t="str">
-        <f>IF(Y94&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V94" s="74">
-        <f>VALUE(LEFT(A94,3))-VALUE(LEFT(A93,3))</f>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="W94" s="74">
-        <f>RIGHT(D94,LEN(D94)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X94" s="74">
-        <f>RIGHT(H94,LEN(H94)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y94" s="74">
-        <f>ABS(X94-W94)</f>
+        <f t="shared" si="30"/>
         <v>23.282900000000001</v>
       </c>
       <c r="Z94" s="75" t="e">
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="61" t="str">
-        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
+        <f t="shared" si="35"/>
         <v>4017/4018</v>
       </c>
       <c r="L95" s="61" t="str">
@@ -10591,11 +10591,11 @@
         <v>YORK</v>
       </c>
       <c r="M95" s="12">
-        <f>I95-F95</f>
+        <f t="shared" si="36"/>
         <v>3.9942129624250811E-2</v>
       </c>
       <c r="N95" s="13">
-        <f>24*60*SUM($M95:$M95)</f>
+        <f t="shared" si="32"/>
         <v>57.516666658921167</v>
       </c>
       <c r="O95" s="13"/>
@@ -10603,27 +10603,27 @@
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
       <c r="T95" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:56:32-0600',mode:absolute,to:'2016-05-22 17:57:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="74" t="str">
-        <f>IF(Y95&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V95" s="74">
-        <f>VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W95" s="74">
-        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.296900000000001</v>
       </c>
       <c r="X95" s="74">
-        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y95" s="74">
-        <f>ABS(X95-W95)</f>
+        <f t="shared" si="30"/>
         <v>23.281700000000001</v>
       </c>
       <c r="Z95" s="75" t="e">
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="61" t="str">
-        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
+        <f t="shared" si="35"/>
         <v>4011/4012</v>
       </c>
       <c r="L96" s="61" t="str">
@@ -10675,11 +10675,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M96" s="12">
-        <f>I96-F96</f>
+        <f t="shared" si="36"/>
         <v>2.9212962959718425E-2</v>
       </c>
       <c r="N96" s="13">
-        <f>24*60*SUM($M96:$M96)</f>
+        <f t="shared" si="32"/>
         <v>42.066666661994532</v>
       </c>
       <c r="O96" s="13"/>
@@ -10687,27 +10687,27 @@
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
       <c r="T96" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:22:40-0600',mode:absolute,to:'2016-05-22 17:12:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="74" t="str">
-        <f>IF(Y96&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V96" s="74">
-        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W96" s="74">
-        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X96" s="74">
-        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.33</v>
       </c>
       <c r="Y96" s="74">
-        <f>ABS(X96-W96)</f>
+        <f t="shared" si="30"/>
         <v>23.286199999999997</v>
       </c>
       <c r="Z96" s="75" t="e">
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="61" t="str">
-        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
+        <f t="shared" si="35"/>
         <v>4011/4012</v>
       </c>
       <c r="L97" s="61" t="str">
@@ -10759,11 +10759,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M97" s="12">
-        <f>I97-F97</f>
+        <f t="shared" si="36"/>
         <v>3.2326388893125113E-2</v>
       </c>
       <c r="N97" s="13">
-        <f>24*60*SUM($M97:$M97)</f>
+        <f t="shared" si="32"/>
         <v>46.550000006100163</v>
       </c>
       <c r="O97" s="13"/>
@@ -10771,27 +10771,27 @@
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
       <c r="T97" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:21:37-0600',mode:absolute,to:'2016-05-22 18:11:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="74" t="str">
-        <f>IF(Y97&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V97" s="74">
-        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W97" s="74">
-        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.298300000000001</v>
       </c>
       <c r="X97" s="74">
-        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y97" s="74">
-        <f>ABS(X97-W97)</f>
+        <f t="shared" si="30"/>
         <v>23.2834</v>
       </c>
       <c r="Z97" s="75" t="e">
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="61" t="str">
-        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
+        <f t="shared" si="35"/>
         <v>4041/4042</v>
       </c>
       <c r="L98" s="61" t="str">
@@ -10843,11 +10843,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M98" s="12">
-        <f>I98-F98</f>
+        <f t="shared" si="36"/>
         <v>2.7835648143081926E-2</v>
       </c>
       <c r="N98" s="13">
-        <f>24*60*SUM($M98:$M98)</f>
+        <f t="shared" si="32"/>
         <v>40.083333326037973</v>
       </c>
       <c r="O98" s="13"/>
@@ -10855,27 +10855,27 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
       <c r="T98" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:38:04-0600',mode:absolute,to:'2016-05-22 17:21:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="74" t="str">
-        <f>IF(Y98&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V98" s="74">
-        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W98" s="74">
-        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X98" s="74">
-        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.330300000000001</v>
       </c>
       <c r="Y98" s="74">
-        <f>ABS(X98-W98)</f>
+        <f t="shared" si="30"/>
         <v>23.2852</v>
       </c>
       <c r="Z98" s="75" t="e">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="61" t="str">
-        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
+        <f t="shared" si="35"/>
         <v>4041/4042</v>
       </c>
       <c r="L99" s="61" t="str">
@@ -10927,11 +10927,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M99" s="12">
-        <f>I99-F99</f>
+        <f t="shared" si="36"/>
         <v>3.7025462966994382E-2</v>
       </c>
       <c r="N99" s="13">
-        <f>24*60*SUM($M99:$M99)</f>
+        <f t="shared" si="32"/>
         <v>53.316666672471911</v>
       </c>
       <c r="O99" s="13"/>
@@ -10939,27 +10939,27 @@
       <c r="Q99" s="62"/>
       <c r="R99" s="62"/>
       <c r="T99" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:26:15-0600',mode:absolute,to:'2016-05-22 18:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="74" t="str">
-        <f>IF(Y99&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V99" s="74">
-        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W99" s="74">
-        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.296500000000002</v>
       </c>
       <c r="X99" s="74">
-        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.32E-2</v>
       </c>
       <c r="Y99" s="74">
-        <f>ABS(X99-W99)</f>
+        <f t="shared" si="30"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z99" s="75" t="e">
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="61" t="str">
-        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
+        <f t="shared" si="35"/>
         <v>4023/4024</v>
       </c>
       <c r="L100" s="61" t="str">
@@ -11011,11 +11011,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M100" s="12">
-        <f>I100-F100</f>
+        <f t="shared" si="36"/>
         <v>2.7083333334303461E-2</v>
       </c>
       <c r="N100" s="13">
-        <f>24*60*SUM($M100:$M100)</f>
+        <f t="shared" si="32"/>
         <v>39.000000001396984</v>
       </c>
       <c r="O100" s="13"/>
@@ -11023,27 +11023,27 @@
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
       <c r="T100" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 16:59:31-0600',mode:absolute,to:'2016-05-22 17:42:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="74" t="str">
-        <f>IF(Y100&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V100" s="74">
-        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W100" s="74">
-        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X100" s="74">
-        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y100" s="74">
-        <f>ABS(X100-W100)</f>
+        <f t="shared" si="30"/>
         <v>23.2836</v>
       </c>
       <c r="Z100" s="75">
@@ -11087,7 +11087,7 @@
         <v>2</v>
       </c>
       <c r="K101" s="61" t="str">
-        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
+        <f t="shared" si="35"/>
         <v>4023/4024</v>
       </c>
       <c r="L101" s="61" t="str">
@@ -11095,11 +11095,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M101" s="12">
-        <f>I101-F101</f>
+        <f t="shared" si="36"/>
         <v>3.1354166661913041E-2</v>
       </c>
       <c r="N101" s="13">
-        <f>24*60*SUM($M101:$M101)</f>
+        <f t="shared" si="32"/>
         <v>45.149999993154779</v>
       </c>
       <c r="O101" s="13"/>
@@ -11107,27 +11107,27 @@
       <c r="Q101" s="62"/>
       <c r="R101" s="62"/>
       <c r="T101" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:50:00-0600',mode:absolute,to:'2016-05-22 18:38:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="74" t="str">
-        <f>IF(Y101&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V101" s="74">
-        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W101" s="74">
-        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
+        <f t="shared" ref="W101:W125" si="38">RIGHT(D101,LEN(D101)-4)/10000</f>
         <v>23.299299999999999</v>
       </c>
       <c r="X101" s="74">
-        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="Y101" s="74">
-        <f>ABS(X101-W101)</f>
+        <f t="shared" ref="Y101:Y132" si="39">ABS(X101-W101)</f>
         <v>23.280199999999997</v>
       </c>
       <c r="Z101" s="75">
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="61" t="str">
-        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
+        <f t="shared" si="35"/>
         <v>4007/4008</v>
       </c>
       <c r="L102" s="61" t="str">
@@ -11179,11 +11179,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M102" s="12">
-        <f>I102-F102</f>
+        <f t="shared" si="36"/>
         <v>2.7349537034751847E-2</v>
       </c>
       <c r="N102" s="13">
-        <f>24*60*SUM($M102:$M102)</f>
+        <f t="shared" si="32"/>
         <v>39.38333333004266</v>
       </c>
       <c r="O102" s="13"/>
@@ -11191,27 +11191,27 @@
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
       <c r="T102" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:14:16-0600',mode:absolute,to:'2016-05-22 17:57:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="74" t="str">
-        <f>IF(Y102&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V102" s="74">
-        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
+        <f t="shared" ref="V102:V125" si="40">VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
         <v>1</v>
       </c>
       <c r="W102" s="74">
-        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X102" s="74">
-        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.327400000000001</v>
       </c>
       <c r="Y102" s="74">
-        <f>ABS(X102-W102)</f>
+        <f t="shared" si="39"/>
         <v>23.2805</v>
       </c>
       <c r="Z102" s="75" t="e">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="61" t="str">
-        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
+        <f t="shared" si="35"/>
         <v>4007/4008</v>
       </c>
       <c r="L103" s="61" t="str">
@@ -11263,11 +11263,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M103" s="12">
-        <f>I103-F103</f>
+        <f t="shared" si="36"/>
         <v>3.5312500003783498E-2</v>
       </c>
       <c r="N103" s="13">
-        <f>24*60*SUM($M103:$M103)</f>
+        <f t="shared" si="32"/>
         <v>50.850000005448237</v>
       </c>
       <c r="O103" s="13"/>
@@ -11275,27 +11275,27 @@
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
       <c r="T103" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:58:46-0600',mode:absolute,to:'2016-05-22 18:53:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="74" t="str">
-        <f>IF(Y103&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V103" s="74">
-        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W103" s="74">
-        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X103" s="74">
-        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y103" s="74">
-        <f>ABS(X103-W103)</f>
+        <f t="shared" si="39"/>
         <v>23.284199999999998</v>
       </c>
       <c r="Z103" s="75" t="e">
@@ -11339,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="K104" s="61" t="str">
-        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
+        <f t="shared" si="35"/>
         <v>4031/4032</v>
       </c>
       <c r="L104" s="61" t="str">
@@ -11347,11 +11347,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M104" s="12">
-        <f>I104-F104</f>
+        <f t="shared" si="36"/>
         <v>2.9386574075033423E-2</v>
       </c>
       <c r="N104" s="13">
-        <f>24*60*SUM($M104:$M104)</f>
+        <f t="shared" si="32"/>
         <v>42.316666668048128</v>
       </c>
       <c r="O104" s="13"/>
@@ -11359,27 +11359,27 @@
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
       <c r="T104" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 17:35:16-0600',mode:absolute,to:'2016-05-22 18:22:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="74" t="str">
-        <f>IF(Y104&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V104" s="74">
-        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W104" s="74">
-        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>0.16919999999999999</v>
       </c>
       <c r="X104" s="74">
-        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y104" s="74">
-        <f>ABS(X104-W104)</f>
+        <f t="shared" si="39"/>
         <v>23.161000000000001</v>
       </c>
       <c r="Z104" s="75">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="61" t="str">
-        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
+        <f t="shared" si="35"/>
         <v>4031/4032</v>
       </c>
       <c r="L105" s="61" t="str">
@@ -11431,11 +11431,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M105" s="12">
-        <f>I105-F105</f>
+        <f t="shared" si="36"/>
         <v>3.0138888891087845E-2</v>
       </c>
       <c r="N105" s="13">
-        <f>24*60*SUM($M105:$M105)</f>
+        <f t="shared" si="32"/>
         <v>43.400000003166497</v>
       </c>
       <c r="O105" s="13"/>
@@ -11443,27 +11443,27 @@
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
       <c r="T105" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:22:14-0600',mode:absolute,to:'2016-05-22 19:10:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="74" t="str">
-        <f>IF(Y105&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V105" s="74">
-        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W105" s="74">
-        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X105" s="74">
-        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y105" s="74">
-        <f>ABS(X105-W105)</f>
+        <f t="shared" si="39"/>
         <v>23.285</v>
       </c>
       <c r="Z105" s="75" t="e">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="61" t="str">
-        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
+        <f t="shared" si="35"/>
         <v>4017/4018</v>
       </c>
       <c r="L106" s="61" t="str">
@@ -11515,11 +11515,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M106" s="12">
-        <f>I106-F106</f>
+        <f t="shared" si="36"/>
         <v>2.9803240737237502E-2</v>
       </c>
       <c r="N106" s="13">
-        <f>24*60*SUM($M106:$M106)</f>
+        <f t="shared" si="32"/>
         <v>42.916666661622003</v>
       </c>
       <c r="O106" s="13"/>
@@ -11527,27 +11527,27 @@
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
       <c r="T106" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:03:18-0600',mode:absolute,to:'2016-05-22 18:50:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="74" t="str">
-        <f>IF(Y106&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V106" s="74">
-        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="W106" s="74">
-        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X106" s="74">
-        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.332100000000001</v>
       </c>
       <c r="Y106" s="74">
-        <f>ABS(X106-W106)</f>
+        <f t="shared" si="39"/>
         <v>23.2883</v>
       </c>
       <c r="Z106" s="75">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="61" t="str">
-        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
+        <f t="shared" si="35"/>
         <v>4017/4018</v>
       </c>
       <c r="L107" s="61" t="str">
@@ -11599,11 +11599,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M107" s="12">
-        <f>I107-F107</f>
+        <f t="shared" si="36"/>
         <v>2.9537037036789116E-2</v>
       </c>
       <c r="N107" s="13">
-        <f>24*60*SUM($M107:$M107)</f>
+        <f t="shared" si="32"/>
         <v>42.533333332976326</v>
       </c>
       <c r="O107" s="13"/>
@@ -11611,27 +11611,27 @@
       <c r="Q107" s="62"/>
       <c r="R107" s="62"/>
       <c r="T107" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:52:14-0600',mode:absolute,to:'2016-05-22 19:38:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="74" t="str">
-        <f>IF(Y107&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V107" s="74">
-        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W107" s="74">
-        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.300599999999999</v>
       </c>
       <c r="X107" s="74">
-        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y107" s="74">
-        <f>ABS(X107-W107)</f>
+        <f t="shared" si="39"/>
         <v>23.285899999999998</v>
       </c>
       <c r="Z107" s="75" t="e">
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="61" t="str">
-        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
+        <f t="shared" si="35"/>
         <v>4011/4012</v>
       </c>
       <c r="L108" s="61" t="str">
@@ -11683,11 +11683,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M108" s="12">
-        <f>I108-F108</f>
+        <f t="shared" si="36"/>
         <v>3.3634259256359655E-2</v>
       </c>
       <c r="N108" s="13">
-        <f>24*60*SUM($M108:$M108)</f>
+        <f t="shared" si="32"/>
         <v>48.433333329157904</v>
       </c>
       <c r="O108" s="13"/>
@@ -11695,27 +11695,27 @@
       <c r="Q108" s="62"/>
       <c r="R108" s="62"/>
       <c r="T108" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:12:26-0600',mode:absolute,to:'2016-05-22 19:04:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="74" t="str">
-        <f>IF(Y108&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V108" s="74">
-        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W108" s="74">
-        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X108" s="74">
-        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y108" s="74">
-        <f>ABS(X108-W108)</f>
+        <f t="shared" si="39"/>
         <v>23.2851</v>
       </c>
       <c r="Z108" s="75">
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="61" t="str">
-        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
+        <f t="shared" si="35"/>
         <v>4011/4012</v>
       </c>
       <c r="L109" s="61" t="str">
@@ -11767,11 +11767,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M109" s="12">
-        <f>I109-F109</f>
+        <f t="shared" si="36"/>
         <v>2.8275462966121268E-2</v>
       </c>
       <c r="N109" s="13">
-        <f>24*60*SUM($M109:$M109)</f>
+        <f t="shared" si="32"/>
         <v>40.716666671214625</v>
       </c>
       <c r="O109" s="13"/>
@@ -11779,27 +11779,27 @@
       <c r="Q109" s="62"/>
       <c r="R109" s="62"/>
       <c r="T109" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:12-0600',mode:absolute,to:'2016-05-22 19:55:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="74" t="str">
-        <f>IF(Y109&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V109" s="74">
-        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W109" s="74">
-        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X109" s="74">
-        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="Y109" s="74">
-        <f>ABS(X109-W109)</f>
+        <f t="shared" si="39"/>
         <v>23.277699999999999</v>
       </c>
       <c r="Z109" s="75">
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="61" t="str">
-        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
+        <f t="shared" si="35"/>
         <v>4041/4042</v>
       </c>
       <c r="L110" s="61" t="str">
@@ -11851,7 +11851,7 @@
         <v>BARTLETT</v>
       </c>
       <c r="M110" s="12">
-        <f>I110-F110</f>
+        <f t="shared" si="36"/>
         <v>1.1921296318178065E-3</v>
       </c>
       <c r="N110" s="13"/>
@@ -11867,27 +11867,27 @@
         <v>538</v>
       </c>
       <c r="T110" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:23:20-0600',mode:absolute,to:'2016-05-22 18:28:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="74" t="str">
-        <f>IF(Y110&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>Y</v>
       </c>
       <c r="V110" s="74">
-        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W110" s="74">
-        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X110" s="74">
-        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="Y110" s="74">
-        <f>ABS(X110-W110)</f>
+        <f t="shared" si="39"/>
         <v>9.0000000000000496E-4</v>
       </c>
       <c r="Z110" s="75" t="e">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="61" t="str">
-        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
+        <f t="shared" si="35"/>
         <v>4041/4042</v>
       </c>
       <c r="L111" s="61" t="str">
@@ -11939,11 +11939,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M111" s="12">
-        <f>I111-F111</f>
+        <f t="shared" si="36"/>
         <v>3.1747685185109731E-2</v>
       </c>
       <c r="N111" s="13">
-        <f>24*60*SUM($M111:$M111)</f>
+        <f t="shared" ref="N111:N119" si="41">24*60*SUM($M111:$M111)</f>
         <v>45.716666666558012</v>
       </c>
       <c r="O111" s="13"/>
@@ -11951,27 +11951,27 @@
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
       <c r="T111" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:16:09-0600',mode:absolute,to:'2016-05-22 20:05:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="74" t="str">
-        <f>IF(Y111&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V111" s="74">
-        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W111" s="74">
-        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X111" s="74">
-        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>0.17269999999999999</v>
       </c>
       <c r="Y111" s="74">
-        <f>ABS(X111-W111)</f>
+        <f t="shared" si="39"/>
         <v>23.125299999999999</v>
       </c>
       <c r="Z111" s="75" t="e">
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="61" t="str">
-        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
+        <f t="shared" si="35"/>
         <v>4007/4008</v>
       </c>
       <c r="L112" s="61" t="str">
@@ -12023,11 +12023,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M112" s="12">
-        <f>I112-F112</f>
+        <f t="shared" si="36"/>
         <v>2.7488425927003846E-2</v>
       </c>
       <c r="N112" s="13">
-        <f>24*60*SUM($M112:$M112)</f>
+        <f t="shared" si="41"/>
         <v>39.583333334885538</v>
       </c>
       <c r="O112" s="13"/>
@@ -12035,27 +12035,27 @@
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
       <c r="T112" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 18:55:39-0600',mode:absolute,to:'2016-05-22 19:38:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="74" t="str">
-        <f>IF(Y112&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V112" s="74">
-        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W112" s="74">
-        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X112" s="74">
-        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y112" s="74">
-        <f>ABS(X112-W112)</f>
+        <f t="shared" si="39"/>
         <v>23.2818</v>
       </c>
       <c r="Z112" s="75" t="e">
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="61" t="str">
-        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
+        <f t="shared" si="35"/>
         <v>4031/4032</v>
       </c>
       <c r="L113" s="61" t="str">
@@ -12107,11 +12107,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M113" s="12">
-        <f>I113-F113</f>
+        <f t="shared" si="36"/>
         <v>4.1041666663659271E-2</v>
       </c>
       <c r="N113" s="13">
-        <f>24*60*SUM($M113:$M113)</f>
+        <f t="shared" si="41"/>
         <v>59.09999999566935</v>
       </c>
       <c r="O113" s="13"/>
@@ -12119,27 +12119,27 @@
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
       <c r="T113" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:11:16-0600',mode:absolute,to:'2016-05-22 20:13:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="74" t="str">
-        <f>IF(Y113&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V113" s="74">
-        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="W113" s="74">
-        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="X113" s="74">
-        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.327200000000001</v>
       </c>
       <c r="Y113" s="74">
-        <f>ABS(X113-W113)</f>
+        <f t="shared" si="39"/>
         <v>23.2788</v>
       </c>
       <c r="Z113" s="75" t="e">
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="61" t="str">
-        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
+        <f t="shared" si="35"/>
         <v>4031/4032</v>
       </c>
       <c r="L114" s="61" t="str">
@@ -12191,11 +12191,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M114" s="12">
-        <f>I114-F114</f>
+        <f t="shared" si="36"/>
         <v>3.4375000002910383E-2</v>
       </c>
       <c r="N114" s="13">
-        <f>24*60*SUM($M114:$M114)</f>
+        <f t="shared" si="41"/>
         <v>49.500000004190952</v>
       </c>
       <c r="O114" s="13"/>
@@ -12203,27 +12203,27 @@
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
       <c r="T114" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:21:38-0600',mode:absolute,to:'2016-05-22 21:16:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="74" t="str">
-        <f>IF(Y114&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V114" s="74">
-        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W114" s="74">
-        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.2974</v>
       </c>
       <c r="X114" s="74">
-        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y114" s="74">
-        <f>ABS(X114-W114)</f>
+        <f t="shared" si="39"/>
         <v>23.282899999999998</v>
       </c>
       <c r="Z114" s="75" t="e">
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="61" t="str">
-        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
+        <f t="shared" si="35"/>
         <v>4011/4012</v>
       </c>
       <c r="L115" s="61" t="str">
@@ -12275,11 +12275,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M115" s="12">
-        <f>I115-F115</f>
+        <f t="shared" si="36"/>
         <v>3.068287036876427E-2</v>
       </c>
       <c r="N115" s="13">
-        <f>24*60*SUM($M115:$M115)</f>
+        <f t="shared" si="41"/>
         <v>44.183333331020549</v>
       </c>
       <c r="O115" s="13"/>
@@ -12287,27 +12287,27 @@
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
       <c r="T115" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 19:55:46-0600',mode:absolute,to:'2016-05-22 20:43:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="74" t="str">
-        <f>IF(Y115&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V115" s="74">
-        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W115" s="74">
-        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="X115" s="74">
-        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.331</v>
       </c>
       <c r="Y115" s="74">
-        <f>ABS(X115-W115)</f>
+        <f t="shared" si="39"/>
         <v>23.2791</v>
       </c>
       <c r="Z115" s="75" t="e">
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="61" t="str">
-        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
+        <f t="shared" si="35"/>
         <v>4011/4012</v>
       </c>
       <c r="L116" s="61" t="str">
@@ -12359,11 +12359,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M116" s="12">
-        <f>I116-F116</f>
+        <f t="shared" si="36"/>
         <v>3.3715277779265307E-2</v>
       </c>
       <c r="N116" s="13">
-        <f>24*60*SUM($M116:$M116)</f>
+        <f t="shared" si="41"/>
         <v>48.550000002142042</v>
       </c>
       <c r="O116" s="13"/>
@@ -12371,27 +12371,27 @@
       <c r="Q116" s="62"/>
       <c r="R116" s="62"/>
       <c r="T116" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="37"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:49:38-0600',mode:absolute,to:'2016-05-22 21:41:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="74" t="str">
-        <f>IF(Y116&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V116" s="74">
-        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W116" s="74">
-        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X116" s="74">
-        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y116" s="74">
-        <f>ABS(X116-W116)</f>
+        <f t="shared" si="39"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z116" s="75" t="e">
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="61" t="str">
-        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
+        <f t="shared" ref="K117:K125" si="42">IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L117" s="61" t="str">
@@ -12443,11 +12443,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M117" s="12">
-        <f>I117-F117</f>
+        <f t="shared" ref="M117:M125" si="43">I117-F117</f>
         <v>3.6192129628034309E-2</v>
       </c>
       <c r="N117" s="13">
-        <f>24*60*SUM($M117:$M117)</f>
+        <f t="shared" si="41"/>
         <v>52.116666664369404</v>
       </c>
       <c r="O117" s="13"/>
@@ -12455,27 +12455,27 @@
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
       <c r="T117" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T117:T125" si="44">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:14:45-0600',mode:absolute,to:'2016-05-22 21:10:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="74" t="str">
-        <f>IF(Y117&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V117" s="74">
-        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W117" s="74">
-        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X117" s="74">
-        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y117" s="74">
-        <f>ABS(X117-W117)</f>
+        <f t="shared" si="39"/>
         <v>23.2864</v>
       </c>
       <c r="Z117" s="75" t="e">
@@ -12519,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
-        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
+        <f t="shared" si="42"/>
         <v>4023/4024</v>
       </c>
       <c r="L118" s="61" t="str">
@@ -12527,11 +12527,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M118" s="12">
-        <f>I118-F118</f>
+        <f t="shared" si="43"/>
         <v>3.160879630013369E-2</v>
       </c>
       <c r="N118" s="13">
-        <f>24*60*SUM($M118:$M118)</f>
+        <f t="shared" si="41"/>
         <v>45.516666672192514</v>
       </c>
       <c r="O118" s="13"/>
@@ -12539,27 +12539,27 @@
       <c r="Q118" s="62"/>
       <c r="R118" s="62"/>
       <c r="T118" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:20:36-0600',mode:absolute,to:'2016-05-22 22:09:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="74" t="str">
-        <f>IF(Y118&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V118" s="74">
-        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W118" s="74">
-        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.300799999999999</v>
       </c>
       <c r="X118" s="74">
-        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y118" s="74">
-        <f>ABS(X118-W118)</f>
+        <f t="shared" si="39"/>
         <v>23.285</v>
       </c>
       <c r="Z118" s="75" t="e">
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="61" t="str">
-        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
+        <f t="shared" si="42"/>
         <v>4007/4008</v>
       </c>
       <c r="L119" s="61" t="str">
@@ -12611,11 +12611,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M119" s="12">
-        <f>I119-F119</f>
+        <f t="shared" si="43"/>
         <v>3.1712962969322689E-2</v>
       </c>
       <c r="N119" s="13">
-        <f>24*60*SUM($M119:$M119)</f>
+        <f t="shared" si="41"/>
         <v>45.666666675824672</v>
       </c>
       <c r="O119" s="13"/>
@@ -12623,27 +12623,27 @@
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
       <c r="T119" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 20:52:10-0600',mode:absolute,to:'2016-05-22 21:42:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="74" t="str">
-        <f>IF(Y119&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V119" s="74">
-        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W119" s="74">
-        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="X119" s="74">
-        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.331</v>
       </c>
       <c r="Y119" s="74">
-        <f>ABS(X119-W119)</f>
+        <f t="shared" si="39"/>
         <v>23.287700000000001</v>
       </c>
       <c r="Z119" s="75" t="e">
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="61" t="str">
-        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
+        <f t="shared" si="42"/>
         <v>4007/4008</v>
       </c>
       <c r="L120" s="61" t="str">
@@ -12695,7 +12695,7 @@
         <v>JACKSON</v>
       </c>
       <c r="M120" s="12">
-        <f>I120-F120</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N120" s="13"/>
@@ -12711,27 +12711,27 @@
         <v>543</v>
       </c>
       <c r="T120" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:46:31-0600',mode:absolute,to:'2016-05-22 22:49:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="74" t="str">
-        <f>IF(Y120&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>Y</v>
       </c>
       <c r="V120" s="74">
-        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W120" s="74">
-        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>1.83E-2</v>
       </c>
       <c r="X120" s="74">
-        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.83E-2</v>
       </c>
       <c r="Y120" s="74">
-        <f>ABS(X120-W120)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z120" s="75" t="e">
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="61" t="str">
-        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
+        <f t="shared" si="42"/>
         <v>4031/4032</v>
       </c>
       <c r="L121" s="61" t="str">
@@ -12783,7 +12783,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M121" s="12">
-        <f>I121-F121</f>
+        <f t="shared" si="43"/>
         <v>3.5555555557948537E-2</v>
       </c>
       <c r="N121" s="13">
@@ -12795,27 +12795,27 @@
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
       <c r="T121" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:19:40-0600',mode:absolute,to:'2016-05-22 22:14:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="74" t="str">
-        <f>IF(Y121&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V121" s="74">
-        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W121" s="74">
-        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="X121" s="74">
-        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y121" s="74">
-        <f>ABS(X121-W121)</f>
+        <f t="shared" si="39"/>
         <v>23.282500000000002</v>
       </c>
       <c r="Z121" s="75" t="e">
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="61" t="str">
-        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
+        <f t="shared" si="42"/>
         <v>4031/4032</v>
       </c>
       <c r="L122" s="61" t="str">
@@ -12867,7 +12867,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M122" s="12">
-        <f>I122-F122</f>
+        <f t="shared" si="43"/>
         <v>4.5763888891087845E-2</v>
       </c>
       <c r="N122" s="13">
@@ -12879,27 +12879,27 @@
       <c r="Q122" s="62"/>
       <c r="R122" s="62"/>
       <c r="T122" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:16:07-0600',mode:absolute,to:'2016-05-22 23:25:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="74" t="str">
-        <f>IF(Y122&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V122" s="74">
-        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W122" s="74">
-        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X122" s="74">
-        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y122" s="74">
-        <f>ABS(X122-W122)</f>
+        <f t="shared" si="39"/>
         <v>23.282499999999999</v>
       </c>
       <c r="Z122" s="75" t="e">
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="61" t="str">
-        <f>IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
+        <f t="shared" si="42"/>
         <v>4011/4012</v>
       </c>
       <c r="L123" s="61" t="str">
@@ -12951,7 +12951,7 @@
         <v>HELVIE</v>
       </c>
       <c r="M123" s="12">
-        <f>I123-F123</f>
+        <f t="shared" si="43"/>
         <v>3.1099537038244307E-2</v>
       </c>
       <c r="N123" s="13">
@@ -12963,27 +12963,27 @@
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
       <c r="T123" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 21:50:33-0600',mode:absolute,to:'2016-05-22 22:38:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="74" t="str">
-        <f>IF(Y123&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V123" s="74">
-        <f>VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W123" s="74">
-        <f>RIGHT(D123,LEN(D123)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X123" s="74">
-        <f>RIGHT(H123,LEN(H123)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y123" s="74">
-        <f>ABS(X123-W123)</f>
+        <f t="shared" si="39"/>
         <v>23.2836</v>
       </c>
       <c r="Z123" s="75" t="e">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="61" t="str">
-        <f>IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
+        <f t="shared" si="42"/>
         <v>4011/4012</v>
       </c>
       <c r="L124" s="61" t="str">
@@ -13035,7 +13035,7 @@
         <v>HELVIE</v>
       </c>
       <c r="M124" s="12">
-        <f>I124-F124</f>
+        <f t="shared" si="43"/>
         <v>3.9618055561732035E-2</v>
       </c>
       <c r="N124" s="13">
@@ -13047,27 +13047,27 @@
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
       <c r="T124" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:48:27-0600',mode:absolute,to:'2016-05-22 23:49:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="74" t="str">
-        <f>IF(Y124&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V124" s="74">
-        <f>VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W124" s="74">
-        <f>RIGHT(D124,LEN(D124)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X124" s="74">
-        <f>RIGHT(H124,LEN(H124)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="Y124" s="74">
-        <f>ABS(X124-W124)</f>
+        <f t="shared" si="39"/>
         <v>23.2592</v>
       </c>
       <c r="Z124" s="75">
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="61" t="str">
-        <f>IF(ISEVEN(B125),(B125-1)&amp;"/"&amp;B125,B125&amp;"/"&amp;(B125+1))</f>
+        <f t="shared" si="42"/>
         <v>4023/4024</v>
       </c>
       <c r="L125" s="61" t="str">
@@ -13119,7 +13119,7 @@
         <v>BARTLETT</v>
       </c>
       <c r="M125" s="12">
-        <f>I125-F125</f>
+        <f t="shared" si="43"/>
         <v>1.1018518518540077E-2</v>
       </c>
       <c r="N125" s="13"/>
@@ -13135,27 +13135,27 @@
         <v>538</v>
       </c>
       <c r="T125" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:13:18-0600',mode:absolute,to:'2016-05-22 22:32:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="74" t="str">
-        <f>IF(Y125&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="V125" s="74">
-        <f>VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W125" s="74">
-        <f>RIGHT(D125,LEN(D125)-4)/10000</f>
+        <f t="shared" si="38"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="X125" s="74">
-        <f>RIGHT(H125,LEN(H125)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y125" s="74">
-        <f>ABS(X125-W125)</f>
+        <f t="shared" si="39"/>
         <v>23.282400000000003</v>
       </c>
       <c r="Z125" s="75" t="e">
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="61" t="str">
-        <f t="shared" ref="K70:K131" si="17">IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
+        <f t="shared" ref="K126:K131" si="45">IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L126" s="61" t="str">
@@ -13207,11 +13207,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M126" s="12">
-        <f t="shared" ref="M70:M131" si="18">I126-F126</f>
+        <f t="shared" ref="M126:M131" si="46">I126-F126</f>
         <v>3.4120370371965691E-2</v>
       </c>
       <c r="N126" s="13">
-        <f t="shared" ref="N75:N134" si="19">24*60*SUM($M126:$M126)</f>
+        <f t="shared" ref="N126:N134" si="47">24*60*SUM($M126:$M126)</f>
         <v>49.133333335630596</v>
       </c>
       <c r="O126" s="13"/>
@@ -13219,27 +13219,27 @@
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
       <c r="T126" s="74" t="str">
-        <f t="shared" ref="T70:T131" si="20">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T126:T131" si="48">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:17:45-0600',mode:absolute,to:'2016-05-23 00:12:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="74" t="str">
-        <f t="shared" ref="U70:U131" si="21">IF(Y126&lt;23,"Y","N")</f>
+        <f t="shared" ref="U126:U131" si="49">IF(Y126&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V126" s="74">
-        <f t="shared" ref="V70:V131" si="22">VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
+        <f t="shared" ref="V126:V131" si="50">VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
         <v>1</v>
       </c>
       <c r="W126" s="74">
-        <f t="shared" ref="W70:W131" si="23">RIGHT(D126,LEN(D126)-4)/10000</f>
+        <f t="shared" ref="W126:W131" si="51">RIGHT(D126,LEN(D126)-4)/10000</f>
         <v>23.300999999999998</v>
       </c>
       <c r="X126" s="74">
-        <f t="shared" ref="X70:X131" si="24">RIGHT(H126,LEN(H126)-4)/10000</f>
+        <f t="shared" ref="X126:X131" si="52">RIGHT(H126,LEN(H126)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y126" s="74">
-        <f t="shared" ref="Y70:Y131" si="25">ABS(X126-W126)</f>
+        <f t="shared" ref="Y126:Y131" si="53">ABS(X126-W126)</f>
         <v>23.286899999999999</v>
       </c>
       <c r="Z126" s="75" t="e">
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>4007/4008</v>
       </c>
       <c r="L127" s="61" t="str">
@@ -13291,11 +13291,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M127" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>4.0497685185982846E-2</v>
       </c>
       <c r="N127" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>58.316666667815298</v>
       </c>
       <c r="O127" s="13"/>
@@ -13303,27 +13303,27 @@
       <c r="Q127" s="62"/>
       <c r="R127" s="62"/>
       <c r="T127" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 22:50:15-0600',mode:absolute,to:'2016-05-22 23:51:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V127" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W127" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X127" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y127" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>23.2852</v>
       </c>
       <c r="Z127" s="75" t="e">
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>4007/4008</v>
       </c>
       <c r="L128" s="61" t="str">
@@ -13375,11 +13375,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M128" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>3.3796296294895001E-2</v>
       </c>
       <c r="N128" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>48.666666664648801</v>
       </c>
       <c r="O128" s="13"/>
@@ -13387,27 +13387,27 @@
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
       <c r="T128" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:53:53-0600',mode:absolute,to:'2016-05-23 00:45:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V128" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W128" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>23.298300000000001</v>
       </c>
       <c r="X128" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y128" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z128" s="75" t="e">
@@ -13451,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>4031/4032</v>
       </c>
       <c r="L129" s="61" t="str">
@@ -13459,11 +13459,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M129" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>3.3784722218115348E-2</v>
       </c>
       <c r="N129" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>48.649999994086102</v>
       </c>
       <c r="O129" s="13"/>
@@ -13471,27 +13471,27 @@
       <c r="Q129" s="62"/>
       <c r="R129" s="62"/>
       <c r="T129" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:29:17-0600',mode:absolute,to:'2016-05-23 00:22:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V129" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W129" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X129" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y129" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>23.285399999999999</v>
       </c>
       <c r="Z129" s="75" t="e">
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>4031/4032</v>
       </c>
       <c r="L130" s="61" t="str">
@@ -13543,11 +13543,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M130" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>3.6585648143955041E-2</v>
       </c>
       <c r="N130" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>52.683333327295259</v>
       </c>
       <c r="O130" s="13"/>
@@ -13555,27 +13555,27 @@
       <c r="Q130" s="62"/>
       <c r="R130" s="62"/>
       <c r="T130" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:21:31-0600',mode:absolute,to:'2016-05-23 01:17:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V130" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W130" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X130" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>1.32E-2</v>
       </c>
       <c r="Y130" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>23.2864</v>
       </c>
       <c r="Z130" s="75" t="e">
@@ -13619,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>4011/4012</v>
       </c>
       <c r="L131" s="61" t="str">
@@ -13627,11 +13627,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M131" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>2.9340277775190771E-2</v>
       </c>
       <c r="N131" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>42.24999999627471</v>
       </c>
       <c r="O131" s="13"/>
@@ -13639,27 +13639,27 @@
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
       <c r="T131" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 23:52:06-0600',mode:absolute,to:'2016-05-23 00:38:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V131" s="74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W131" s="74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>6.83E-2</v>
       </c>
       <c r="X131" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y131" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>23.261499999999998</v>
       </c>
       <c r="Z131" s="75">
@@ -13703,7 +13703,7 @@
         <v>2</v>
       </c>
       <c r="K132" s="61" t="str">
-        <f t="shared" ref="K132:K134" si="26">IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <f t="shared" ref="K132:K134" si="54">IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L132" s="61" t="str">
@@ -13711,11 +13711,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M132" s="12">
-        <f t="shared" ref="M132:M134" si="27">I132-F132</f>
+        <f t="shared" ref="M132:M134" si="55">I132-F132</f>
         <v>3.5474537042318843E-2</v>
       </c>
       <c r="N132" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>51.083333340939134</v>
       </c>
       <c r="O132" s="13"/>
@@ -13723,27 +13723,27 @@
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
       <c r="T132" s="74" t="str">
-        <f t="shared" ref="T132:T134" si="28">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T132:T134" si="56">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:47:34-0600',mode:absolute,to:'2016-05-23 01:41:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="74" t="str">
-        <f t="shared" ref="U132:U134" si="29">IF(Y132&lt;23,"Y","N")</f>
+        <f t="shared" ref="U132:U134" si="57">IF(Y132&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V132" s="74">
-        <f t="shared" ref="V132:V134" si="30">VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
+        <f t="shared" ref="V132:V134" si="58">VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
         <v>1</v>
       </c>
       <c r="W132" s="74">
-        <f t="shared" ref="W132:W134" si="31">RIGHT(D132,LEN(D132)-4)/10000</f>
+        <f t="shared" ref="W132:W134" si="59">RIGHT(D132,LEN(D132)-4)/10000</f>
         <v>23.2989</v>
       </c>
       <c r="X132" s="74">
-        <f t="shared" ref="X132:X134" si="32">RIGHT(H132,LEN(H132)-4)/10000</f>
+        <f t="shared" ref="X132:X134" si="60">RIGHT(H132,LEN(H132)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y132" s="74">
-        <f t="shared" ref="Y132:Y134" si="33">ABS(X132-W132)</f>
+        <f t="shared" ref="Y132:Y134" si="61">ABS(X132-W132)</f>
         <v>23.283100000000001</v>
       </c>
       <c r="Z132" s="75">
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="61" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="54"/>
         <v>4023/4024</v>
       </c>
       <c r="L133" s="61" t="str">
@@ -13795,11 +13795,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M133" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>3.0532407407008577E-2</v>
       </c>
       <c r="N133" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>43.966666666092351</v>
       </c>
       <c r="O133" s="13"/>
@@ -13807,27 +13807,27 @@
       <c r="Q133" s="62"/>
       <c r="R133" s="62"/>
       <c r="T133" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 00:18:22-0600',mode:absolute,to:'2016-05-23 01:12:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="74" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="57"/>
         <v>N</v>
       </c>
       <c r="V133" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W133" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X133" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y133" s="74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>23.2835</v>
       </c>
       <c r="Z133" s="75" t="e">
@@ -13871,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="61" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="54"/>
         <v>4023/4024</v>
       </c>
       <c r="L134" s="61" t="str">
@@ -13879,11 +13879,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M134" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>3.2708333332266193E-2</v>
       </c>
       <c r="N134" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>47.099999998463318</v>
       </c>
       <c r="O134" s="13"/>
@@ -13891,27 +13891,27 @@
       <c r="Q134" s="62"/>
       <c r="R134" s="62"/>
       <c r="T134" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-23 01:18:56-0600',mode:absolute,to:'2016-05-23 02:09:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="74" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="57"/>
         <v>N</v>
       </c>
       <c r="V134" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W134" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X134" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y134" s="74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>23.281600000000001</v>
       </c>
       <c r="Z134" s="75" t="e">
@@ -14486,8 +14486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
